--- a/Comprobación preguntas competencia.xlsx
+++ b/Comprobación preguntas competencia.xlsx
@@ -11,8 +11,168 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B62">
+      <text>
+        <t xml:space="preserve">No existe la propiedad genre.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B55">
+      <text>
+        <t xml:space="preserve">No tenemos definidos qué objetos tienen impactFactor.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B48">
+      <text>
+        <t xml:space="preserve">No existe la propiedad genre en FOAF.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B47">
+      <text>
+        <t xml:space="preserve">A ciegas no soy capaz de hacerlo.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B45">
+      <text>
+        <t xml:space="preserve">Habría que crear más roles/individuals.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B42">
+      <text>
+        <t xml:space="preserve">Se puede hacer, pero a ciegas ni idea.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B40">
+      <text>
+        <t xml:space="preserve">¿Cómo sabemos que una universidad pertenece a la red?
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B39">
+      <text>
+        <t xml:space="preserve">Esta consulta no soy capaz de hacerla a ciegas
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B38">
+      <text>
+        <t xml:space="preserve">Habría que revisar el hasPosition, ya que vivo lo implementa con relates.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F33">
+      <text>
+        <t xml:space="preserve">Incompleta
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B33">
+      <text>
+        <t xml:space="preserve">Las tesis deberían tener fecha, fecha de inicio y fecha fin...?
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E31">
+      <text>
+        <t xml:space="preserve">Debería ser una Organization
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D30">
+      <text>
+        <t xml:space="preserve">Igual, authorList. Esta consulta, ahora mismo, sólo se puede hacer para Document.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D28">
+      <text>
+        <t xml:space="preserve">A través de authorList.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D26">
+      <text>
+        <t xml:space="preserve">No existe esa propiedad, añado supervisor y supervisorOf.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22">
+      <text>
+        <t xml:space="preserve">¿Cómo se cuantifica? En general, creo que muchas de estas cuestiones van más allá que lo que se le puede pedir a SPARQL.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19">
+      <text>
+        <t xml:space="preserve">¿Indicadores de quién? ¿De un investigador?
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18">
+      <text>
+        <t xml:space="preserve">Esta lógica se sale de SPARQL.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B16">
+      <text>
+        <t xml:space="preserve">No está definido el concepto de "similitud de objetivos científicos".
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12">
+      <text>
+        <t xml:space="preserve">Las operaciones de fecha necesarias para conseguir este resultado no son estándar para SPARQL y no las implementan todos los motores.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13">
+      <text>
+        <t xml:space="preserve">Arreglar funding/funding program.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11">
+      <text>
+        <t xml:space="preserve">Hay que solucionar el tema de Funding/FundingProgram primero.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F10">
+      <text>
+        <t xml:space="preserve">A modificar cuando se arregle el tema de bibo:Patent.
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6">
+      <text>
+        <t xml:space="preserve">Lo mismo, ¿habría que crear individuals con las convocatorias (al menos, las más populares)?
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5">
+      <text>
+        <t xml:space="preserve">Habría que crear individuals con las diferentes acreditaciones españolas?
+	-Mikel Emaldi Manrique</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -28,6 +188,9 @@
   </si>
   <si>
     <t>Modificaciones a ontología</t>
+  </si>
+  <si>
+    <t>Consulta SPARQL</t>
   </si>
   <si>
     <t xml:space="preserve">Como usuario requiero obtener un listado de los centros/estructuras de investigación que trabajan en un área/disciplina específica.
@@ -55,6 +218,15 @@
     </r>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+SELECT ?center WHERE { 
+	?center rdfs:subClassOf             foaf:Organization ;
+	               roh:hasKnowledgeArea &lt;http://someKnowledgeArea&gt; .
+}</t>
+  </si>
+  <si>
     <t>Como usuario requiero obtener un listado de los investigadores de un centro/estructura de investigación de un área/disciplina específica. Este listado podrá filtrarse según el tipo de investigador ya sea docente, personal investigador en formación, etc.</t>
   </si>
   <si>
@@ -65,6 +237,19 @@
   </si>
   <si>
     <t>Añadir vivo:Postion a foaf:Person. DONE</t>
+  </si>
+  <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+SELECT ?researcher ?center WHERE { 
+	?center          rdfs:subClassOf              foaf:Organization .
+	?researcher a                                          roh:Researcher ;
+	                       roh:hasKnowledgeArea &lt;http://someKnowledgeArea&gt; ;
+                                               roh:hasPosition               ?position .
+                       ?position vivo:relates                              ?center .
+}</t>
   </si>
   <si>
     <t>Como usuario requiero obtener el Top 10 (o el número que se considere relevante pues será parametrizable) de los investigadores de un centro/estructura de investigación ordenados por el número de citas, número de publicaciones, h-index, etc. en un área/disciplina específica.</t>
@@ -97,21 +282,59 @@
     <t>Añadido AcademicAccreditation as subclass of Accreditation en rohes</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+SELECT ?center WHERE { 
+	?center          rdfs:subClassOf              foaf:Organization ;
+                                                roh:hasAccreditation      &lt;http://someAccreditation&gt; .
+}</t>
+  </si>
+  <si>
     <t>Como usuario requiero obtener un listado de los centros/estructuras de investigación que hayan realizado proyectos H2020 y/o proyectos del Plan Estatal.</t>
   </si>
   <si>
+    <t>No</t>
+  </si>
+  <si>
     <r>
+      <rPr>
+        <strike/>
+      </rPr>
       <t xml:space="preserve">Si H2020 o el Plan Estatal figuran como un </t>
     </r>
     <r>
       <rPr>
         <i/>
+        <strike/>
       </rPr>
       <t>FundingProgram</t>
     </r>
     <r>
-      <t>, se podría</t>
+      <rPr>
+        <strike/>
+      </rPr>
+      <t xml:space="preserve">, se podría
+</t>
     </r>
+    <r>
+      <t>Tal y como se ha modelado la ontología, resulta imposible vincular Funding y FundingProgram</t>
+    </r>
+  </si>
+  <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+SELECT ?center ?project WHERE { 
+	?center          rdfs:subClassOf              foaf:Organization ;
+                                               roh:hasRole	                    ?role .
+	?role              vivo:relatedBy                    ?project .
+                        ?project        a                                           vivo:Project ;
+                                               roh:fundedBy                     ?Funding .
+                        ?funding      ????????????????????????????
+}</t>
   </si>
   <si>
     <t>Como usuario requiero obtener un listado de la producción científica en un determinado rango de fechas de un centro/estructura de investigación en un área/disciplina. Para cada resultado se incluirán algunos metadatos importantes de la producción como, por ejemplo, DOI, año de publicación, etc.</t>
@@ -131,6 +354,24 @@
     <t>Remove DateTimeValue, make it xsd:dateTime. DONE</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+SELECT ?center ?researchObject WHERE { 
+        ?center          rdfs:subClassOf                     foaf:Organization ;
+                roh:hasKnowledgeArea        &lt;http://someKnowledgeArea&gt; ;
+                vivo:relatedBy                          ?position .
+                         ?position      roh:positionOf                         ?person .
+                         ?researchObject bibo:authorList                   ?authorList .
+                         ?authorList           rdf:li                                           ?person .
+                         ?researchObject vivo:dateTimeValue       ?dateTimeObject .
+                         ?dateTimeObject vivo:dateTime                ?date .
+                         FILTER ((?date &gt; "fechaInicio"^^xsd:dateTime) &amp;&amp; (?date &lt; "fechaFin"^^xsd:dateTime))
+}
+</t>
+  </si>
+  <si>
     <t>Como usuario requiero obtener una visualización en la que se recoja la distribución de la producción científica española, por ejemplo, de artículos publicados en revistas, según las comunidades autónomas en un rango de años.</t>
   </si>
   <si>
@@ -138,6 +379,29 @@
   </si>
   <si>
     <t>A través de GeonamesFeatures es posible dada ua GeonamesFeature puede averiguarse en qué comunidad autónoma está una universidad</t>
+  </si>
+  <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+SELECT ?parent as ?autonomy ?researchObject ?journal WHERE { 
+        ?center                   rdfs:subClassOf                     foaf:Organization ;
+                         gn:locatedIn                            ?location ;
+                         vivo:relatedBy                          ?position .
+                         ?position               roh:positionOf                         ?person .
+           ?researchObject bibo:authorList                   ?authorList .
+           ?authorList           rdf:li                                           ?person .
+         ?researchObject  a                                                bibo:AcademicArticle ;
+                          vivo:hasPublicationVenue   ?journal ;
+                                                          vivo:dateTimeValue              ?dateTimeObject .
+                         ?dateTimeObject vivo:dateTime                         ?date .
+         ?location                 gn:parentFeature*                   ?parent  .
+         ?parent                 gn:parentFeature                   &lt;http://sws.geonames.org/2510769/&gt; .
+                         FILTER ((?date &gt; "fechaInicio"^^xsd:dateTime) &amp;&amp; (?date &lt; "fechaFin"^^xsd:dateTime))
+}</t>
   </si>
   <si>
     <t>Como usuario requiero comparar comunidades autónomas, universidades, grupos de investigación, etc. en determinados tópicos para identificar cuál es el más competitivo y por qué.</t>
@@ -184,6 +448,21 @@
     <t>Diseño industrial no está recogido como resultado, revisitar ResultObject para incluir también software releases, datasets, diseños industrials</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+SELECT ?patent WHERE { 
+        &lt;http://someCenter&gt;        roh:hasKnowledgeArea        &lt;http://someKnowledgeArea&gt; ;
+              		     roh:hasRole	        ?role .
+       ?role		     vivo:relatedBy                          ?project .
+       ?project		     a		        vivo:Project ;
+		     roh:produces 	        ?patent .
+       ?patent		     a		        bibo:Patent .
+}</t>
+  </si>
+  <si>
     <t xml:space="preserve">Como investigador y personal no investigador de la universidad requiero obtener un listado de los proyectos adjudicados/desarrollados, de un centro/estructura de investigación, de un área/disciplina, en un determinado año de búsqueda en los que se tenga acceso al detalle de al menos:
 </t>
   </si>
@@ -201,6 +480,18 @@
     <t xml:space="preserve">Se puede ver, según un área de conocimiento, sus proyectos/organizaciones y a partir de ahí las fechas de los proyectos, o los datos que necesitemos. Por tamaño sería el número de entraddas en research_result de una organization y por envejecimiento periodo de tiempo desde que se obtuvo el último resultado </t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+SELECT COUNT(?researchObject) AS ?size WHERE { 
+       ?project        roh:hasKnowledgeArea        &lt;http://someKnowledgeArea&gt; ;
+	      a		         vivo:Project ;
+	     roh:produces 	        ?researchObject. . 
+}</t>
+  </si>
+  <si>
     <t>Como usuario necesito conocer el porcentaje de participación de un centro/estructura de investigación en proyectos nacionales o europeos.</t>
   </si>
   <si>
@@ -211,9 +502,6 @@
   </si>
   <si>
     <t>Como investigador, personal no investigador de la universidad requiero insertar/modificar los datos relacionados con los proyectos de investigación, incluyendo los entregables que se hayan generado en la fase de propuesta. El usuario tendrá acceso a esta información según el nivel de acceso que se le haya proporcionado previamente según su rol, según niveles de confidencialidad de ser el caso. Entre los datos que se proporcionarán por cada proyecto se tendrá al menos:</t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t>No hay sistema de roles/permisos para acceso granular</t>
@@ -229,6 +517,52 @@
     <t xml:space="preserve">Por convocatoria se interpretaría FundingProgram al que está asociado el Funding </t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+SELECT ?project ?knowledgeArea WHERE { 
+       ?project        roh:hasKnowledgeArea       ?knowledgeArea ;
+              a                         vivo:Project .
+}
+----
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+SELECT ?project ?dateTime WHERE { 
+       ?project       vivo:dateTimeInterval ?dateTimeInterval ;
+              a                         vivo:Project .
+       ?dateTimeInterval vivo:dateTime ?dateTime .
+}
+----
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+SELECT ?project ?monetaryAmount WHERE { 
+       ?project        roh:fundedBy ?funding ;
+              a                         vivo:Project .
+      ?funding vivo:hasPart ?fundingAmount .
+      ?fundingAmount roh:monetaryAmount ?monetaryAmount .
+      FILTER (?monetaryAmount &gt; "minMonetaryAmount")
+}
+---
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+SELECT ?project ?location WHERE { 
+       ?project       gn:locatedIn ?location ;
+	      a		         vivo:Project .
+}</t>
+  </si>
+  <si>
     <t>Identificar proyectos con temática y objetivos científicos similares. En este caso, el usuario podrá acceder a visualizaciones comparativas de la información de proyectos similares.</t>
   </si>
   <si>
@@ -305,6 +639,18 @@
     <t>Añadidas object property thesisDirector a Thesis y subclasses MasterThesis y PhDThesis</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+SELECT ?thesis ?thesisClass WHERE {
+	?thesis roh:supervisor &lt;http://me&gt; ;
+	              a                         ?thesisClass .
+}</t>
+  </si>
+  <si>
     <t>Obtener el listado de congresos/workshops y eventos de divulgación científica en los que haya participado indicando el rol que he tenido: organizador, expositor, etc</t>
   </si>
   <si>
@@ -320,18 +666,59 @@
     <t>A través de la entidad Participation puede obtenerse tal resultado</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+SELECT ?patent WHERE {
+        ?patent        bibo:authorList ?authorList .
+        ?authorList rdf:li                    &lt;http://somePerson&gt; .
+}</t>
+  </si>
+  <si>
     <t>Obtener el listado de proyectos en los que he participado incluyendo el rol que he desempeñado, por ejemplo, investigador principal</t>
   </si>
   <si>
     <t>A través de Role se registra el papel que juega una persona en un proyecto</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+SELECT ?project ?role WHERE {
+        ?project         a         ?projectClass ;
+                vivo:relates        ?role .
+        ?projectClass rdfs:subClassOf vivo:Project .
+        ?role        roh:roleOf        &lt;http://somePerson&gt; .
+}</t>
+  </si>
+  <si>
     <t>Obtener el listado de mi producción científica</t>
   </si>
   <si>
     <t xml:space="preserve">A través de la entidad Participation se mantiene registro del nivel de participación de cada persona, por lo que es posible recuperar todas las publicaciones de una persona, que es un subtypo de Research Object, </t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+SELECT ?document WHERE {
+	?document	a		?documentClass;
+		bibo:authorList	?authorList .
+	?documentClass rdfs:subClassOf	bibo:Document .
+	?authorList	rdf:li		&lt;http://somePerson&gt; .
+}
+</t>
+  </si>
+  <si>
     <t>Obtener el listado de startup o spin-off que he fundado o de las que he sido socio</t>
   </si>
   <si>
@@ -356,6 +743,28 @@
     <t>Las entidades Role, Position y Participation recogen la involucración en periodos de tiempo de las personas en proyectos, su contribución a los mismos o publicaciones.</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+SELECT ?item ?startDate ?endDate WHERE {
+	{
+		?item		a		vivo:Project ;
+				vivo:relates		?role ;
+				vivo:dateTimeInterval	?dateTimeInterval .
+		?dateTimeInterval	vivo:start		?startDate ;
+				vivo:end		?endDate .
+		?role		roh:roleOf		&lt;http://somePerson&gt; .
+	}
+	{
+		?item	a		bibo:Thesis ;
+			roh:supervisor	&lt;http://somePerson&gt; .
+	}
+}</t>
+  </si>
+  <si>
     <t>Saber si soy apto para solicitar una evaluación relativa al nuevo sexenio de transferencia del conocimiento e innovación  o alguna de las evaluaciones que realiza la ANECA .</t>
   </si>
   <si>
@@ -389,6 +798,28 @@
     <t>Hablar sobre temáticas</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+SELECT ?university ?knowledgeArea SUM(?monetaryAmount)  WHERE {
+	?project		a		vivo:Project ;
+			roh:fundedBy	?funding ;
+			vivo:relates		?role ;
+			roh:hasKnowledgeArea	?knowledgeArea .
+	?funding		vivo:hasPart		?fundingAmount .
+	?fundingAmount	roh:monetaryAmount	?monetaryAmount .
+	?role		roh:roleOf		?person .
+	?person		roh:hasPosition	?position .
+	?positon		vivo:relates		?university .
+	?university		a		vivo:University .
+}
+GROUP BY ?university ?knowledgeArea
+</t>
+  </si>
+  <si>
     <t>Estadísticas: ¿Puedo cuantificar las colaboraciones entre universidades del país o una región?</t>
   </si>
   <si>
@@ -410,6 +841,21 @@
     <t>Es posible estandarizar "conocimiento X"? http://www.ciencia.gob.es/portal/site/MICINN/menuitem.8ce192e94ba842bea3bc811001432ea0/?vgnextoid=fa347440163e5310VgnVCM1000001d04140aRCRD&amp;vgnextfmt=default y https://services.icono.fecyt.es/indicadores/Paginas/default.aspx?ind=198&amp;idPanel=1</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+SELECT SUM(?monetaryAmount) ?knowledgeArea {
+	?project	a	vivo:Project ;
+		roh:hasKnowledgeArea	?knowledgeArea ;
+		roh:fundedBy	?funding .
+	?funding	vivo:hasPart		?fundingAmount .
+	?fundingAmount	roh:monetaryAmount	?monetaryAmount .
+} GROUP BY ?knowledgeArea</t>
+  </si>
+  <si>
     <t xml:space="preserve">Estadísticas: Publicaciones de Universidades andaluzas en colaboración con investigadores fuera de la UE en revistas académicas de impacto. </t>
   </si>
   <si>
@@ -455,6 +901,21 @@
     <t>Definidas subclasses deThesis (MasterThesis, PhDThesis) y añadida propiedad thesisDirector . Además hay que definir PhDThesisMetric para poder cualificar a las tesis doctorales en diferentes categorías. Por ejemplo, EUROPEA, INTERNACIONAL, CUM_LAUDE, CALIFICACIÓN</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+SELECT ?genre COUNT (?publication) WHERE {
+	?publication	a		obo:IAO_0000013 ;
+		bibo:authorList	?authorList .
+	?authorList	rdf:li		?author .
+	?author	??????
+} GROUP BY ?genre</t>
+  </si>
+  <si>
     <t>Usuario para consultas:</t>
   </si>
   <si>
@@ -467,12 +928,43 @@
     <t>Necesidad de estandarizar taxonomomías de temáticas</t>
   </si>
   <si>
+    <t xml:space="preserve">PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+SELECT ?knowledgeArea ?project ?researchObjectWHERE {
+	?project	a		vivo:Project ;
+		roh:hasKnowledgeArea	?knowledgeArea ;
+		gn:locatedIn		?location .
+	?location	gn:parentFeature*	?parent .
+	?parent	gn:parentFeature	&lt;geonames URL of Europe, Spain or region&gt; .
+} </t>
+  </si>
+  <si>
     <t>Búsqueda de socios: ¿puedo ver los consorcios de proyectos de otras universidades por proyecto y temática?</t>
   </si>
   <si>
     <t>Siempre que otra organización haga públicos sus datos acorde con ROH</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+SELECT ?project ?knowledgeArea ?organization WHERE {
+	?project	a		vivo:Project ;
+		roh:hasKnowledgeArea	?knowledgeArea ;
+		vivo:relates		?role .
+	?role	roh:roleOf		?organization .
+}</t>
+  </si>
+  <si>
     <t>NEW QUESTIONS</t>
   </si>
   <si>
@@ -488,6 +980,22 @@
     <t>Toda subclase de bibo:Collection tiene un issn por el que realizar la consulta</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+SELECT ?publication ?journal WHERE {
+	?publication	a		obo:IAO_0000013 ;
+		bibo:authorList	?authorList ;
+		vivo:publishedIn	?journal .
+	?journal	a		bibo:Journal .
+	?authorList	rdf:li		&lt;http://someAuthor&gt; .
+}</t>
+  </si>
+  <si>
     <t>Obtener la evolución de índices de impacto (JCR, SJR, etc) de publicaciones de un investigador en varios años.</t>
   </si>
   <si>
@@ -509,6 +1017,27 @@
     <t>Dado un centro, se pueden obtener sus investigadores y de estos sus publicaciones y filtrar tales publicaciones acorde con la ocurrencia de tokens en los títulos de los mismos</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+SELECT ?organization ?publication WHERE {
+	?publication		a		?documentClass ;
+			bibo:authorList	?authorList .
+			dc:title		?publicationTitle
+	?documentClass	rdfs:subClassOf	bibo:Document .
+	?authorList		rdf:li		?author .
+	?author		roh:hasPosition	?position .
+	?position		vivo:relates		?organization .
+	?organization	a		?organizationClass .
+	?organizationClass	rdfs:subClassOf	foaf:Organization .
+	FILTER regex(str(?publicationTitle), "token") .
+}</t>
+  </si>
+  <si>
     <t>Listar la revistas científicas con un JCR Q1, en un área determinada, donde ha publicado un grupo o instituto de investigación.</t>
   </si>
   <si>
@@ -518,6 +1047,25 @@
     <t>Necesidad de revisar entidad PublicationMetric para que permita filtrar por área temática</t>
   </si>
   <si>
+    <t>PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+SELECT ?journal ?subjectArea WHERE {
+	?publication		a		obo:IAO_0000013 ;
+			bibo:authorList	?authorList ;
+			vivo:publishedIn	?journal .
+	?journal		roh:quartile		"Q1" ;
+			vivo:hasSubjectArea	?subjectArea .
+	?authorList		rdf:li		?author .
+	?author		roh:hasPosition	?position .
+	?position		vivo:relates		&lt;http://someOrganization&gt;  .
+}</t>
+  </si>
+  <si>
     <t>Indicar la evolución en varios años de la media global de Índice de impacto JCR de profesores adscritos a centros de una universidad.</t>
   </si>
   <si>
@@ -537,6 +1085,24 @@
   </si>
   <si>
     <t xml:space="preserve">Necesidad de enriquecer Tesis cualificadas por keywords </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX roh: &lt;http://purl.org/roh&gt;
+PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+PREFIX dc: &lt;http://purl.org/dc/terms/&gt;
+SELECT ?phdThesis WHERE {
+	?phdThesis		a		roh:PhDThesis ;
+			roh:correspondingAuthor	?author ;
+			dc:title		?title .
+	?author		roh:hasPosition	?position .
+	?position		vivo:relates		&lt;http://someOrganization&gt;  .
+	FILTER regex(str(?title), "token") .
+</t>
   </si>
   <si>
     <t>Indicar el porcentaje de mujeres frente a hombres como autores de publicaciones con impacto de un grupo de investigación.</t>
@@ -549,7 +1115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -578,7 +1144,6 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -587,6 +1152,10 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font/>
+    <font>
+      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -609,7 +1178,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -643,11 +1212,14 @@
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -656,9 +1228,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -917,6 +1487,7 @@
     <col customWidth="1" min="2" max="2" width="110.0"/>
     <col customWidth="1" min="4" max="4" width="58.71"/>
     <col customWidth="1" min="5" max="5" width="63.14"/>
+    <col customWidth="1" min="6" max="6" width="94.71"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -935,7 +1506,9 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
@@ -964,31 +1537,37 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="8"/>
+      <c r="F2" s="7" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
         <v>2.0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -996,16 +1575,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -1013,16 +1592,19 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="6">
@@ -1030,31 +1612,37 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E6" s="8"/>
+      <c r="F6" s="7" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
         <v>6.0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>22</v>
+        <v>28</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="8">
@@ -1062,16 +1650,19 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>25</v>
+        <v>31</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="9">
@@ -1079,16 +1670,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>25</v>
+        <v>35</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10">
@@ -1096,16 +1687,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>30</v>
+        <v>38</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -1113,16 +1707,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12">
@@ -1130,31 +1724,34 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="E12" s="8"/>
+      <c r="F12" s="7" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
         <v>12.0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="14">
@@ -1162,16 +1759,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15">
@@ -1179,16 +1776,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>42</v>
+        <v>11</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="16">
@@ -1196,30 +1796,30 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>47</v>
+        <v>56</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
         <v>16.0</v>
       </c>
-      <c r="B17" s="11" t="s">
-        <v>48</v>
+      <c r="B17" s="10" t="s">
+        <v>58</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -1229,13 +1829,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -1245,13 +1845,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -1261,13 +1861,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="E20" s="8"/>
     </row>
@@ -1277,13 +1877,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -1293,16 +1893,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>60</v>
+        <v>69</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="23">
@@ -1311,13 +1911,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E23" s="8"/>
     </row>
@@ -1327,13 +1927,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="E24" s="8"/>
     </row>
@@ -1343,13 +1943,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>66</v>
+        <v>11</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -1359,16 +1959,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="12" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="27">
@@ -1377,16 +1980,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>72</v>
+        <v>23</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="28">
@@ -1395,15 +1998,18 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E28" s="8"/>
+        <v>85</v>
+      </c>
+      <c r="E28" s="12"/>
+      <c r="F28" s="7" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
@@ -1411,15 +2017,18 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E29" s="8"/>
+      <c r="F29" s="13" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
@@ -1427,15 +2036,18 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="E30" s="8"/>
+      <c r="F30" s="13" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
@@ -1443,16 +2055,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -1461,16 +2073,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -1479,15 +2091,18 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E33" s="8"/>
+      <c r="F33" s="7" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
@@ -1495,16 +2110,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>89</v>
+        <v>7</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="35">
@@ -1513,47 +2128,47 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
-      <c r="B36" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
-      <c r="N36" s="14"/>
-      <c r="O36" s="14"/>
-      <c r="P36" s="14"/>
-      <c r="Q36" s="14"/>
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
-      <c r="T36" s="14"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="14"/>
-      <c r="W36" s="14"/>
-      <c r="X36" s="14"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
+      <c r="B36" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
     </row>
     <row r="37">
       <c r="A37" s="5">
@@ -1561,13 +2176,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>94</v>
+        <v>23</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>109</v>
       </c>
       <c r="E37" s="8"/>
     </row>
@@ -1577,16 +2192,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>97</v>
+        <v>112</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="39">
@@ -1595,13 +2213,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40">
@@ -1610,14 +2228,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="6" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41">
@@ -1626,16 +2244,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>104</v>
+        <v>120</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42">
@@ -1644,13 +2265,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -1660,47 +2281,47 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>40</v>
+        <v>23</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="E43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="5"/>
-      <c r="B44" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
-      <c r="L44" s="14"/>
-      <c r="M44" s="14"/>
-      <c r="N44" s="14"/>
-      <c r="O44" s="14"/>
-      <c r="P44" s="14"/>
-      <c r="Q44" s="14"/>
-      <c r="R44" s="14"/>
-      <c r="S44" s="14"/>
-      <c r="T44" s="14"/>
-      <c r="U44" s="14"/>
-      <c r="V44" s="14"/>
-      <c r="W44" s="14"/>
-      <c r="X44" s="14"/>
-      <c r="Y44" s="14"/>
-      <c r="Z44" s="14"/>
-      <c r="AA44" s="14"/>
-      <c r="AB44" s="14"/>
+      <c r="B44" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15"/>
+      <c r="N44" s="15"/>
+      <c r="O44" s="15"/>
+      <c r="P44" s="15"/>
+      <c r="Q44" s="15"/>
+      <c r="R44" s="15"/>
+      <c r="S44" s="15"/>
+      <c r="T44" s="15"/>
+      <c r="U44" s="15"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="15"/>
+      <c r="Y44" s="15"/>
+      <c r="Z44" s="15"/>
+      <c r="AA44" s="15"/>
+      <c r="AB44" s="15"/>
     </row>
     <row r="45">
       <c r="A45" s="5">
@@ -1708,16 +2329,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="16" t="s">
-        <v>111</v>
+        <v>11</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>128</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -1727,16 +2348,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47">
@@ -1745,13 +2366,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="E47" s="8"/>
     </row>
@@ -1761,47 +2382,50 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D48" s="8"/>
-      <c r="E48" s="10" t="s">
-        <v>119</v>
+      <c r="E48" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5"/>
-      <c r="B49" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="14"/>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
-      <c r="L49" s="14"/>
-      <c r="M49" s="14"/>
-      <c r="N49" s="14"/>
-      <c r="O49" s="14"/>
-      <c r="P49" s="14"/>
-      <c r="Q49" s="14"/>
-      <c r="R49" s="14"/>
-      <c r="S49" s="14"/>
-      <c r="T49" s="14"/>
-      <c r="U49" s="14"/>
-      <c r="V49" s="14"/>
-      <c r="W49" s="14"/>
-      <c r="X49" s="14"/>
-      <c r="Y49" s="14"/>
-      <c r="Z49" s="14"/>
-      <c r="AA49" s="14"/>
-      <c r="AB49" s="14"/>
+      <c r="B49" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="15"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="15"/>
+      <c r="H49" s="15"/>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15"/>
+      <c r="K49" s="15"/>
+      <c r="L49" s="15"/>
+      <c r="M49" s="15"/>
+      <c r="N49" s="15"/>
+      <c r="O49" s="15"/>
+      <c r="P49" s="15"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="15"/>
+      <c r="S49" s="15"/>
+      <c r="T49" s="15"/>
+      <c r="U49" s="15"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="15"/>
+      <c r="Y49" s="15"/>
+      <c r="Z49" s="15"/>
+      <c r="AA49" s="15"/>
+      <c r="AB49" s="15"/>
     </row>
     <row r="50">
       <c r="A50" s="5">
@@ -1809,16 +2433,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>123</v>
+        <v>141</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="51">
@@ -1827,20 +2454,23 @@
         <v>47</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>125</v>
+        <v>144</v>
       </c>
       <c r="E51" s="8"/>
+      <c r="F51" s="7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="5"/>
-      <c r="B52" s="13" t="s">
-        <v>126</v>
+      <c r="B52" s="14" t="s">
+        <v>146</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -1851,13 +2481,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="E53" s="8"/>
     </row>
@@ -1867,15 +2497,18 @@
         <v>49</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>129</v>
+        <v>149</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="E54" s="10"/>
+        <v>7</v>
+      </c>
+      <c r="D54" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E54" s="6"/>
+      <c r="F54" s="7" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
@@ -1883,16 +2516,16 @@
         <v>50</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>133</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56">
@@ -1901,13 +2534,13 @@
         <v>51</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="E56" s="8"/>
     </row>
@@ -1917,15 +2550,18 @@
         <v>52</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="E57" s="8"/>
+      <c r="F57" s="7" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="5">
@@ -1933,16 +2569,19 @@
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>138</v>
+        <v>160</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>140</v>
+        <v>162</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="59">
@@ -1951,13 +2590,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>142</v>
+        <v>165</v>
       </c>
       <c r="E59" s="8"/>
     </row>
@@ -1967,16 +2606,16 @@
         <v>55</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>143</v>
+        <v>166</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>144</v>
+        <v>167</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61">
@@ -1985,14 +2624,17 @@
         <v>56</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="6" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="62">
@@ -2001,13 +2643,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -2183,5455 +2825,5455 @@
       <c r="E81" s="8"/>
     </row>
     <row r="82">
-      <c r="A82" s="17"/>
+      <c r="A82" s="18"/>
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83">
-      <c r="A83" s="17"/>
+      <c r="A83" s="18"/>
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84">
-      <c r="A84" s="17"/>
+      <c r="A84" s="18"/>
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85">
-      <c r="A85" s="17"/>
+      <c r="A85" s="18"/>
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86">
-      <c r="A86" s="17"/>
+      <c r="A86" s="18"/>
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87">
-      <c r="A87" s="17"/>
+      <c r="A87" s="18"/>
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88">
-      <c r="A88" s="17"/>
+      <c r="A88" s="18"/>
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89">
-      <c r="A89" s="17"/>
+      <c r="A89" s="18"/>
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90">
-      <c r="A90" s="17"/>
+      <c r="A90" s="18"/>
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
     <row r="91">
-      <c r="A91" s="17"/>
+      <c r="A91" s="18"/>
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92">
-      <c r="A92" s="17"/>
+      <c r="A92" s="18"/>
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93">
-      <c r="A93" s="17"/>
+      <c r="A93" s="18"/>
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94">
-      <c r="A94" s="17"/>
+      <c r="A94" s="18"/>
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95">
-      <c r="A95" s="17"/>
+      <c r="A95" s="18"/>
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96">
-      <c r="A96" s="17"/>
+      <c r="A96" s="18"/>
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97">
-      <c r="A97" s="17"/>
+      <c r="A97" s="18"/>
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98">
-      <c r="A98" s="17"/>
+      <c r="A98" s="18"/>
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99">
-      <c r="A99" s="17"/>
+      <c r="A99" s="18"/>
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100">
-      <c r="A100" s="17"/>
+      <c r="A100" s="18"/>
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101">
-      <c r="A101" s="17"/>
+      <c r="A101" s="18"/>
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102">
-      <c r="A102" s="17"/>
+      <c r="A102" s="18"/>
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="17"/>
+      <c r="A103" s="18"/>
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104">
-      <c r="A104" s="17"/>
+      <c r="A104" s="18"/>
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
     <row r="105">
-      <c r="A105" s="17"/>
+      <c r="A105" s="18"/>
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106">
-      <c r="A106" s="17"/>
+      <c r="A106" s="18"/>
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107">
-      <c r="A107" s="17"/>
+      <c r="A107" s="18"/>
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108">
-      <c r="A108" s="17"/>
+      <c r="A108" s="18"/>
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109">
-      <c r="A109" s="17"/>
+      <c r="A109" s="18"/>
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110">
-      <c r="A110" s="17"/>
+      <c r="A110" s="18"/>
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111">
-      <c r="A111" s="17"/>
+      <c r="A111" s="18"/>
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
     <row r="112">
-      <c r="A112" s="17"/>
+      <c r="A112" s="18"/>
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="17"/>
+      <c r="A113" s="18"/>
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114">
-      <c r="A114" s="17"/>
+      <c r="A114" s="18"/>
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115">
-      <c r="A115" s="17"/>
+      <c r="A115" s="18"/>
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="17"/>
+      <c r="A116" s="18"/>
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="17"/>
+      <c r="A117" s="18"/>
       <c r="B117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118">
-      <c r="A118" s="17"/>
+      <c r="A118" s="18"/>
       <c r="B118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="17"/>
+      <c r="A119" s="18"/>
       <c r="B119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120">
-      <c r="A120" s="17"/>
+      <c r="A120" s="18"/>
       <c r="B120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121">
-      <c r="A121" s="17"/>
+      <c r="A121" s="18"/>
       <c r="B121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="17"/>
+      <c r="A122" s="18"/>
       <c r="B122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="17"/>
+      <c r="A123" s="18"/>
       <c r="B123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124">
-      <c r="A124" s="17"/>
+      <c r="A124" s="18"/>
       <c r="B124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="17"/>
+      <c r="A125" s="18"/>
       <c r="B125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
     <row r="126">
-      <c r="A126" s="17"/>
+      <c r="A126" s="18"/>
       <c r="B126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="17"/>
+      <c r="A127" s="18"/>
       <c r="B127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="17"/>
+      <c r="A128" s="18"/>
       <c r="B128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
     <row r="129">
-      <c r="A129" s="17"/>
+      <c r="A129" s="18"/>
       <c r="B129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
     <row r="130">
-      <c r="A130" s="17"/>
+      <c r="A130" s="18"/>
       <c r="B130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
     <row r="131">
-      <c r="A131" s="17"/>
+      <c r="A131" s="18"/>
       <c r="B131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
     <row r="132">
-      <c r="A132" s="17"/>
+      <c r="A132" s="18"/>
       <c r="B132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
     <row r="133">
-      <c r="A133" s="17"/>
+      <c r="A133" s="18"/>
       <c r="B133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="17"/>
+      <c r="A134" s="18"/>
       <c r="B134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
     <row r="135">
-      <c r="A135" s="17"/>
+      <c r="A135" s="18"/>
       <c r="B135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
     <row r="136">
-      <c r="A136" s="17"/>
+      <c r="A136" s="18"/>
       <c r="B136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
     <row r="137">
-      <c r="A137" s="17"/>
+      <c r="A137" s="18"/>
       <c r="B137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
     <row r="138">
-      <c r="A138" s="17"/>
+      <c r="A138" s="18"/>
       <c r="B138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
     <row r="139">
-      <c r="A139" s="17"/>
+      <c r="A139" s="18"/>
       <c r="B139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="17"/>
+      <c r="A140" s="18"/>
       <c r="B140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="17"/>
+      <c r="A141" s="18"/>
       <c r="B141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
     <row r="142">
-      <c r="A142" s="17"/>
+      <c r="A142" s="18"/>
       <c r="B142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
     <row r="143">
-      <c r="A143" s="17"/>
+      <c r="A143" s="18"/>
       <c r="B143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="17"/>
+      <c r="A144" s="18"/>
       <c r="B144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
     <row r="145">
-      <c r="A145" s="17"/>
+      <c r="A145" s="18"/>
       <c r="B145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
     <row r="146">
-      <c r="A146" s="17"/>
+      <c r="A146" s="18"/>
       <c r="B146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
     <row r="147">
-      <c r="A147" s="17"/>
+      <c r="A147" s="18"/>
       <c r="B147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="17"/>
+      <c r="A148" s="18"/>
       <c r="B148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
     <row r="149">
-      <c r="A149" s="17"/>
+      <c r="A149" s="18"/>
       <c r="B149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
     <row r="150">
-      <c r="A150" s="17"/>
+      <c r="A150" s="18"/>
       <c r="B150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
     <row r="151">
-      <c r="A151" s="17"/>
+      <c r="A151" s="18"/>
       <c r="B151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
     <row r="152">
-      <c r="A152" s="17"/>
+      <c r="A152" s="18"/>
       <c r="B152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
     <row r="153">
-      <c r="A153" s="17"/>
+      <c r="A153" s="18"/>
       <c r="B153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
     <row r="154">
-      <c r="A154" s="17"/>
+      <c r="A154" s="18"/>
       <c r="B154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
     <row r="155">
-      <c r="A155" s="17"/>
+      <c r="A155" s="18"/>
       <c r="B155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
     <row r="156">
-      <c r="A156" s="17"/>
+      <c r="A156" s="18"/>
       <c r="B156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="17"/>
+      <c r="A157" s="18"/>
       <c r="B157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
     <row r="158">
-      <c r="A158" s="17"/>
+      <c r="A158" s="18"/>
       <c r="B158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
     <row r="159">
-      <c r="A159" s="17"/>
+      <c r="A159" s="18"/>
       <c r="B159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="17"/>
+      <c r="A160" s="18"/>
       <c r="B160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
     <row r="161">
-      <c r="A161" s="17"/>
+      <c r="A161" s="18"/>
       <c r="B161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
     <row r="162">
-      <c r="A162" s="17"/>
+      <c r="A162" s="18"/>
       <c r="B162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
     <row r="163">
-      <c r="A163" s="17"/>
+      <c r="A163" s="18"/>
       <c r="B163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
     <row r="164">
-      <c r="A164" s="17"/>
+      <c r="A164" s="18"/>
       <c r="B164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
     <row r="165">
-      <c r="A165" s="17"/>
+      <c r="A165" s="18"/>
       <c r="B165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
     <row r="166">
-      <c r="A166" s="17"/>
+      <c r="A166" s="18"/>
       <c r="B166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
     <row r="167">
-      <c r="A167" s="17"/>
+      <c r="A167" s="18"/>
       <c r="B167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
     <row r="168">
-      <c r="A168" s="17"/>
+      <c r="A168" s="18"/>
       <c r="B168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
     <row r="169">
-      <c r="A169" s="17"/>
+      <c r="A169" s="18"/>
       <c r="B169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
     <row r="170">
-      <c r="A170" s="17"/>
+      <c r="A170" s="18"/>
       <c r="B170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
     <row r="171">
-      <c r="A171" s="17"/>
+      <c r="A171" s="18"/>
       <c r="B171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
     <row r="172">
-      <c r="A172" s="17"/>
+      <c r="A172" s="18"/>
       <c r="B172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
     <row r="173">
-      <c r="A173" s="17"/>
+      <c r="A173" s="18"/>
       <c r="B173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
     <row r="174">
-      <c r="A174" s="17"/>
+      <c r="A174" s="18"/>
       <c r="B174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
     <row r="175">
-      <c r="A175" s="17"/>
+      <c r="A175" s="18"/>
       <c r="B175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
     <row r="176">
-      <c r="A176" s="17"/>
+      <c r="A176" s="18"/>
       <c r="B176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
     <row r="177">
-      <c r="A177" s="17"/>
+      <c r="A177" s="18"/>
       <c r="B177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
     <row r="178">
-      <c r="A178" s="17"/>
+      <c r="A178" s="18"/>
       <c r="B178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
     <row r="179">
-      <c r="A179" s="17"/>
+      <c r="A179" s="18"/>
       <c r="B179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
     <row r="180">
-      <c r="A180" s="17"/>
+      <c r="A180" s="18"/>
       <c r="B180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
     <row r="181">
-      <c r="A181" s="17"/>
+      <c r="A181" s="18"/>
       <c r="B181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
     <row r="182">
-      <c r="A182" s="17"/>
+      <c r="A182" s="18"/>
       <c r="B182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
     <row r="183">
-      <c r="A183" s="17"/>
+      <c r="A183" s="18"/>
       <c r="B183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
     <row r="184">
-      <c r="A184" s="17"/>
+      <c r="A184" s="18"/>
       <c r="B184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
     <row r="185">
-      <c r="A185" s="17"/>
+      <c r="A185" s="18"/>
       <c r="B185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
     <row r="186">
-      <c r="A186" s="17"/>
+      <c r="A186" s="18"/>
       <c r="B186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
     <row r="187">
-      <c r="A187" s="17"/>
+      <c r="A187" s="18"/>
       <c r="B187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
     <row r="188">
-      <c r="A188" s="17"/>
+      <c r="A188" s="18"/>
       <c r="B188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
     <row r="189">
-      <c r="A189" s="17"/>
+      <c r="A189" s="18"/>
       <c r="B189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
     <row r="190">
-      <c r="A190" s="17"/>
+      <c r="A190" s="18"/>
       <c r="B190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
     <row r="191">
-      <c r="A191" s="17"/>
+      <c r="A191" s="18"/>
       <c r="B191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
     </row>
     <row r="192">
-      <c r="A192" s="17"/>
+      <c r="A192" s="18"/>
       <c r="B192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
     </row>
     <row r="193">
-      <c r="A193" s="17"/>
+      <c r="A193" s="18"/>
       <c r="B193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
     </row>
     <row r="194">
-      <c r="A194" s="17"/>
+      <c r="A194" s="18"/>
       <c r="B194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
     </row>
     <row r="195">
-      <c r="A195" s="17"/>
+      <c r="A195" s="18"/>
       <c r="B195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
     </row>
     <row r="196">
-      <c r="A196" s="17"/>
+      <c r="A196" s="18"/>
       <c r="B196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
     </row>
     <row r="197">
-      <c r="A197" s="17"/>
+      <c r="A197" s="18"/>
       <c r="B197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
     </row>
     <row r="198">
-      <c r="A198" s="17"/>
+      <c r="A198" s="18"/>
       <c r="B198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
     </row>
     <row r="199">
-      <c r="A199" s="17"/>
+      <c r="A199" s="18"/>
       <c r="B199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
     <row r="200">
-      <c r="A200" s="17"/>
+      <c r="A200" s="18"/>
       <c r="B200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
     </row>
     <row r="201">
-      <c r="A201" s="17"/>
+      <c r="A201" s="18"/>
       <c r="B201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
     </row>
     <row r="202">
-      <c r="A202" s="17"/>
+      <c r="A202" s="18"/>
       <c r="B202" s="8"/>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
     </row>
     <row r="203">
-      <c r="A203" s="17"/>
+      <c r="A203" s="18"/>
       <c r="B203" s="8"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
     </row>
     <row r="204">
-      <c r="A204" s="17"/>
+      <c r="A204" s="18"/>
       <c r="B204" s="8"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
     </row>
     <row r="205">
-      <c r="A205" s="17"/>
+      <c r="A205" s="18"/>
       <c r="B205" s="8"/>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
     </row>
     <row r="206">
-      <c r="A206" s="17"/>
+      <c r="A206" s="18"/>
       <c r="B206" s="8"/>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
     </row>
     <row r="207">
-      <c r="A207" s="17"/>
+      <c r="A207" s="18"/>
       <c r="B207" s="8"/>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
     </row>
     <row r="208">
-      <c r="A208" s="17"/>
+      <c r="A208" s="18"/>
       <c r="B208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
     </row>
     <row r="209">
-      <c r="A209" s="17"/>
+      <c r="A209" s="18"/>
       <c r="B209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
     </row>
     <row r="210">
-      <c r="A210" s="17"/>
+      <c r="A210" s="18"/>
       <c r="B210" s="8"/>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
     </row>
     <row r="211">
-      <c r="A211" s="17"/>
+      <c r="A211" s="18"/>
       <c r="B211" s="8"/>
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
     </row>
     <row r="212">
-      <c r="A212" s="17"/>
+      <c r="A212" s="18"/>
       <c r="B212" s="8"/>
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
     </row>
     <row r="213">
-      <c r="A213" s="17"/>
+      <c r="A213" s="18"/>
       <c r="B213" s="8"/>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
     </row>
     <row r="214">
-      <c r="A214" s="17"/>
+      <c r="A214" s="18"/>
       <c r="B214" s="8"/>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
     </row>
     <row r="215">
-      <c r="A215" s="17"/>
+      <c r="A215" s="18"/>
       <c r="B215" s="8"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
     </row>
     <row r="216">
-      <c r="A216" s="17"/>
+      <c r="A216" s="18"/>
       <c r="B216" s="8"/>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
     </row>
     <row r="217">
-      <c r="A217" s="17"/>
+      <c r="A217" s="18"/>
       <c r="B217" s="8"/>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
     </row>
     <row r="218">
-      <c r="A218" s="17"/>
+      <c r="A218" s="18"/>
       <c r="B218" s="8"/>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
     </row>
     <row r="219">
-      <c r="A219" s="17"/>
+      <c r="A219" s="18"/>
       <c r="B219" s="8"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
     </row>
     <row r="220">
-      <c r="A220" s="17"/>
+      <c r="A220" s="18"/>
       <c r="B220" s="8"/>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
     </row>
     <row r="221">
-      <c r="A221" s="17"/>
+      <c r="A221" s="18"/>
       <c r="B221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
     <row r="222">
-      <c r="A222" s="17"/>
+      <c r="A222" s="18"/>
       <c r="B222" s="8"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
     </row>
     <row r="223">
-      <c r="A223" s="17"/>
+      <c r="A223" s="18"/>
       <c r="B223" s="8"/>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
     </row>
     <row r="224">
-      <c r="A224" s="17"/>
+      <c r="A224" s="18"/>
       <c r="B224" s="8"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
     </row>
     <row r="225">
-      <c r="A225" s="17"/>
+      <c r="A225" s="18"/>
       <c r="B225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
     </row>
     <row r="226">
-      <c r="A226" s="17"/>
+      <c r="A226" s="18"/>
       <c r="B226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
     </row>
     <row r="227">
-      <c r="A227" s="17"/>
+      <c r="A227" s="18"/>
       <c r="B227" s="8"/>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
     </row>
     <row r="228">
-      <c r="A228" s="17"/>
+      <c r="A228" s="18"/>
       <c r="B228" s="8"/>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
     </row>
     <row r="229">
-      <c r="A229" s="17"/>
+      <c r="A229" s="18"/>
       <c r="B229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
     </row>
     <row r="230">
-      <c r="A230" s="17"/>
+      <c r="A230" s="18"/>
       <c r="B230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
     </row>
     <row r="231">
-      <c r="A231" s="17"/>
+      <c r="A231" s="18"/>
       <c r="B231" s="8"/>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
     </row>
     <row r="232">
-      <c r="A232" s="17"/>
+      <c r="A232" s="18"/>
       <c r="B232" s="8"/>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
     </row>
     <row r="233">
-      <c r="A233" s="17"/>
+      <c r="A233" s="18"/>
       <c r="B233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
     </row>
     <row r="234">
-      <c r="A234" s="17"/>
+      <c r="A234" s="18"/>
       <c r="B234" s="8"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
     </row>
     <row r="235">
-      <c r="A235" s="17"/>
+      <c r="A235" s="18"/>
       <c r="B235" s="8"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
     </row>
     <row r="236">
-      <c r="A236" s="17"/>
+      <c r="A236" s="18"/>
       <c r="B236" s="8"/>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
     </row>
     <row r="237">
-      <c r="A237" s="17"/>
+      <c r="A237" s="18"/>
       <c r="B237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="17"/>
+      <c r="A238" s="18"/>
       <c r="B238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
     </row>
     <row r="239">
-      <c r="A239" s="17"/>
+      <c r="A239" s="18"/>
       <c r="B239" s="8"/>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
     </row>
     <row r="240">
-      <c r="A240" s="17"/>
+      <c r="A240" s="18"/>
       <c r="B240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
     </row>
     <row r="241">
-      <c r="A241" s="17"/>
+      <c r="A241" s="18"/>
       <c r="B241" s="8"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
     </row>
     <row r="242">
-      <c r="A242" s="17"/>
+      <c r="A242" s="18"/>
       <c r="B242" s="8"/>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
     </row>
     <row r="243">
-      <c r="A243" s="17"/>
+      <c r="A243" s="18"/>
       <c r="B243" s="8"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
     <row r="244">
-      <c r="A244" s="17"/>
+      <c r="A244" s="18"/>
       <c r="B244" s="8"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
     </row>
     <row r="245">
-      <c r="A245" s="17"/>
+      <c r="A245" s="18"/>
       <c r="B245" s="8"/>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
     </row>
     <row r="246">
-      <c r="A246" s="17"/>
+      <c r="A246" s="18"/>
       <c r="B246" s="8"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
     </row>
     <row r="247">
-      <c r="A247" s="17"/>
+      <c r="A247" s="18"/>
       <c r="B247" s="8"/>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
     </row>
     <row r="248">
-      <c r="A248" s="17"/>
+      <c r="A248" s="18"/>
       <c r="B248" s="8"/>
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
     </row>
     <row r="249">
-      <c r="A249" s="17"/>
+      <c r="A249" s="18"/>
       <c r="B249" s="8"/>
       <c r="D249" s="8"/>
       <c r="E249" s="8"/>
     </row>
     <row r="250">
-      <c r="A250" s="17"/>
+      <c r="A250" s="18"/>
       <c r="B250" s="8"/>
       <c r="D250" s="8"/>
       <c r="E250" s="8"/>
     </row>
     <row r="251">
-      <c r="A251" s="17"/>
+      <c r="A251" s="18"/>
       <c r="B251" s="8"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
     </row>
     <row r="252">
-      <c r="A252" s="17"/>
+      <c r="A252" s="18"/>
       <c r="B252" s="8"/>
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
     </row>
     <row r="253">
-      <c r="A253" s="17"/>
+      <c r="A253" s="18"/>
       <c r="B253" s="8"/>
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
     </row>
     <row r="254">
-      <c r="A254" s="17"/>
+      <c r="A254" s="18"/>
       <c r="B254" s="8"/>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
     </row>
     <row r="255">
-      <c r="A255" s="17"/>
+      <c r="A255" s="18"/>
       <c r="B255" s="8"/>
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
     </row>
     <row r="256">
-      <c r="A256" s="17"/>
+      <c r="A256" s="18"/>
       <c r="B256" s="8"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
     </row>
     <row r="257">
-      <c r="A257" s="17"/>
+      <c r="A257" s="18"/>
       <c r="B257" s="8"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
     </row>
     <row r="258">
-      <c r="A258" s="17"/>
+      <c r="A258" s="18"/>
       <c r="B258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
     </row>
     <row r="259">
-      <c r="A259" s="17"/>
+      <c r="A259" s="18"/>
       <c r="B259" s="8"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
     </row>
     <row r="260">
-      <c r="A260" s="17"/>
+      <c r="A260" s="18"/>
       <c r="B260" s="8"/>
       <c r="D260" s="8"/>
       <c r="E260" s="8"/>
     </row>
     <row r="261">
-      <c r="A261" s="17"/>
+      <c r="A261" s="18"/>
       <c r="B261" s="8"/>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
     </row>
     <row r="262">
-      <c r="A262" s="17"/>
+      <c r="A262" s="18"/>
       <c r="B262" s="8"/>
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
     </row>
     <row r="263">
-      <c r="A263" s="17"/>
+      <c r="A263" s="18"/>
       <c r="B263" s="8"/>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
     </row>
     <row r="264">
-      <c r="A264" s="17"/>
+      <c r="A264" s="18"/>
       <c r="B264" s="8"/>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
     </row>
     <row r="265">
-      <c r="A265" s="17"/>
+      <c r="A265" s="18"/>
       <c r="B265" s="8"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
     <row r="266">
-      <c r="A266" s="17"/>
+      <c r="A266" s="18"/>
       <c r="B266" s="8"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
     </row>
     <row r="267">
-      <c r="A267" s="17"/>
+      <c r="A267" s="18"/>
       <c r="B267" s="8"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
     </row>
     <row r="268">
-      <c r="A268" s="17"/>
+      <c r="A268" s="18"/>
       <c r="B268" s="8"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
     </row>
     <row r="269">
-      <c r="A269" s="17"/>
+      <c r="A269" s="18"/>
       <c r="B269" s="8"/>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
     </row>
     <row r="270">
-      <c r="A270" s="17"/>
+      <c r="A270" s="18"/>
       <c r="B270" s="8"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
     </row>
     <row r="271">
-      <c r="A271" s="17"/>
+      <c r="A271" s="18"/>
       <c r="B271" s="8"/>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
     </row>
     <row r="272">
-      <c r="A272" s="17"/>
+      <c r="A272" s="18"/>
       <c r="B272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
     </row>
     <row r="273">
-      <c r="A273" s="17"/>
+      <c r="A273" s="18"/>
       <c r="B273" s="8"/>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
     </row>
     <row r="274">
-      <c r="A274" s="17"/>
+      <c r="A274" s="18"/>
       <c r="B274" s="8"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
     </row>
     <row r="275">
-      <c r="A275" s="17"/>
+      <c r="A275" s="18"/>
       <c r="B275" s="8"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
     </row>
     <row r="276">
-      <c r="A276" s="17"/>
+      <c r="A276" s="18"/>
       <c r="B276" s="8"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
     </row>
     <row r="277">
-      <c r="A277" s="17"/>
+      <c r="A277" s="18"/>
       <c r="B277" s="8"/>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
     </row>
     <row r="278">
-      <c r="A278" s="17"/>
+      <c r="A278" s="18"/>
       <c r="B278" s="8"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
     </row>
     <row r="279">
-      <c r="A279" s="17"/>
+      <c r="A279" s="18"/>
       <c r="B279" s="8"/>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
     </row>
     <row r="280">
-      <c r="A280" s="17"/>
+      <c r="A280" s="18"/>
       <c r="B280" s="8"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
     </row>
     <row r="281">
-      <c r="A281" s="17"/>
+      <c r="A281" s="18"/>
       <c r="B281" s="8"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
     </row>
     <row r="282">
-      <c r="A282" s="17"/>
+      <c r="A282" s="18"/>
       <c r="B282" s="8"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
     </row>
     <row r="283">
-      <c r="A283" s="17"/>
+      <c r="A283" s="18"/>
       <c r="B283" s="8"/>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
     </row>
     <row r="284">
-      <c r="A284" s="17"/>
+      <c r="A284" s="18"/>
       <c r="B284" s="8"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
     </row>
     <row r="285">
-      <c r="A285" s="17"/>
+      <c r="A285" s="18"/>
       <c r="B285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
     </row>
     <row r="286">
-      <c r="A286" s="17"/>
+      <c r="A286" s="18"/>
       <c r="B286" s="8"/>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
     </row>
     <row r="287">
-      <c r="A287" s="17"/>
+      <c r="A287" s="18"/>
       <c r="B287" s="8"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
     <row r="288">
-      <c r="A288" s="17"/>
+      <c r="A288" s="18"/>
       <c r="B288" s="8"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
     </row>
     <row r="289">
-      <c r="A289" s="17"/>
+      <c r="A289" s="18"/>
       <c r="B289" s="8"/>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
     </row>
     <row r="290">
-      <c r="A290" s="17"/>
+      <c r="A290" s="18"/>
       <c r="B290" s="8"/>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
     </row>
     <row r="291">
-      <c r="A291" s="17"/>
+      <c r="A291" s="18"/>
       <c r="B291" s="8"/>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
     </row>
     <row r="292">
-      <c r="A292" s="17"/>
+      <c r="A292" s="18"/>
       <c r="B292" s="8"/>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
     </row>
     <row r="293">
-      <c r="A293" s="17"/>
+      <c r="A293" s="18"/>
       <c r="B293" s="8"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
     </row>
     <row r="294">
-      <c r="A294" s="17"/>
+      <c r="A294" s="18"/>
       <c r="B294" s="8"/>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
     </row>
     <row r="295">
-      <c r="A295" s="17"/>
+      <c r="A295" s="18"/>
       <c r="B295" s="8"/>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
     </row>
     <row r="296">
-      <c r="A296" s="17"/>
+      <c r="A296" s="18"/>
       <c r="B296" s="8"/>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
     </row>
     <row r="297">
-      <c r="A297" s="17"/>
+      <c r="A297" s="18"/>
       <c r="B297" s="8"/>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
     </row>
     <row r="298">
-      <c r="A298" s="17"/>
+      <c r="A298" s="18"/>
       <c r="B298" s="8"/>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
     </row>
     <row r="299">
-      <c r="A299" s="17"/>
+      <c r="A299" s="18"/>
       <c r="B299" s="8"/>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
     </row>
     <row r="300">
-      <c r="A300" s="17"/>
+      <c r="A300" s="18"/>
       <c r="B300" s="8"/>
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
     </row>
     <row r="301">
-      <c r="A301" s="17"/>
+      <c r="A301" s="18"/>
       <c r="B301" s="8"/>
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
     </row>
     <row r="302">
-      <c r="A302" s="17"/>
+      <c r="A302" s="18"/>
       <c r="B302" s="8"/>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
     </row>
     <row r="303">
-      <c r="A303" s="17"/>
+      <c r="A303" s="18"/>
       <c r="B303" s="8"/>
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
     </row>
     <row r="304">
-      <c r="A304" s="17"/>
+      <c r="A304" s="18"/>
       <c r="B304" s="8"/>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
     </row>
     <row r="305">
-      <c r="A305" s="17"/>
+      <c r="A305" s="18"/>
       <c r="B305" s="8"/>
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
     </row>
     <row r="306">
-      <c r="A306" s="17"/>
+      <c r="A306" s="18"/>
       <c r="B306" s="8"/>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
     </row>
     <row r="307">
-      <c r="A307" s="17"/>
+      <c r="A307" s="18"/>
       <c r="B307" s="8"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
     </row>
     <row r="308">
-      <c r="A308" s="17"/>
+      <c r="A308" s="18"/>
       <c r="B308" s="8"/>
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
     </row>
     <row r="309">
-      <c r="A309" s="17"/>
+      <c r="A309" s="18"/>
       <c r="B309" s="8"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
     <row r="310">
-      <c r="A310" s="17"/>
+      <c r="A310" s="18"/>
       <c r="B310" s="8"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
     </row>
     <row r="311">
-      <c r="A311" s="17"/>
+      <c r="A311" s="18"/>
       <c r="B311" s="8"/>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
     </row>
     <row r="312">
-      <c r="A312" s="17"/>
+      <c r="A312" s="18"/>
       <c r="B312" s="8"/>
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
     </row>
     <row r="313">
-      <c r="A313" s="17"/>
+      <c r="A313" s="18"/>
       <c r="B313" s="8"/>
       <c r="D313" s="8"/>
       <c r="E313" s="8"/>
     </row>
     <row r="314">
-      <c r="A314" s="17"/>
+      <c r="A314" s="18"/>
       <c r="B314" s="8"/>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
     </row>
     <row r="315">
-      <c r="A315" s="17"/>
+      <c r="A315" s="18"/>
       <c r="B315" s="8"/>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
     </row>
     <row r="316">
-      <c r="A316" s="17"/>
+      <c r="A316" s="18"/>
       <c r="B316" s="8"/>
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
     </row>
     <row r="317">
-      <c r="A317" s="17"/>
+      <c r="A317" s="18"/>
       <c r="B317" s="8"/>
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
     </row>
     <row r="318">
-      <c r="A318" s="17"/>
+      <c r="A318" s="18"/>
       <c r="B318" s="8"/>
       <c r="D318" s="8"/>
       <c r="E318" s="8"/>
     </row>
     <row r="319">
-      <c r="A319" s="17"/>
+      <c r="A319" s="18"/>
       <c r="B319" s="8"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
     </row>
     <row r="320">
-      <c r="A320" s="17"/>
+      <c r="A320" s="18"/>
       <c r="B320" s="8"/>
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
     </row>
     <row r="321">
-      <c r="A321" s="17"/>
+      <c r="A321" s="18"/>
       <c r="B321" s="8"/>
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
     </row>
     <row r="322">
-      <c r="A322" s="17"/>
+      <c r="A322" s="18"/>
       <c r="B322" s="8"/>
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
     </row>
     <row r="323">
-      <c r="A323" s="17"/>
+      <c r="A323" s="18"/>
       <c r="B323" s="8"/>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
     </row>
     <row r="324">
-      <c r="A324" s="17"/>
+      <c r="A324" s="18"/>
       <c r="B324" s="8"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
     </row>
     <row r="325">
-      <c r="A325" s="17"/>
+      <c r="A325" s="18"/>
       <c r="B325" s="8"/>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
     </row>
     <row r="326">
-      <c r="A326" s="17"/>
+      <c r="A326" s="18"/>
       <c r="B326" s="8"/>
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
     </row>
     <row r="327">
-      <c r="A327" s="17"/>
+      <c r="A327" s="18"/>
       <c r="B327" s="8"/>
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
     </row>
     <row r="328">
-      <c r="A328" s="17"/>
+      <c r="A328" s="18"/>
       <c r="B328" s="8"/>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
     </row>
     <row r="329">
-      <c r="A329" s="17"/>
+      <c r="A329" s="18"/>
       <c r="B329" s="8"/>
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
     </row>
     <row r="330">
-      <c r="A330" s="17"/>
+      <c r="A330" s="18"/>
       <c r="B330" s="8"/>
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
     </row>
     <row r="331">
-      <c r="A331" s="17"/>
+      <c r="A331" s="18"/>
       <c r="B331" s="8"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
     </row>
     <row r="332">
-      <c r="A332" s="17"/>
+      <c r="A332" s="18"/>
       <c r="B332" s="8"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
     </row>
     <row r="333">
-      <c r="A333" s="17"/>
+      <c r="A333" s="18"/>
       <c r="B333" s="8"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
     </row>
     <row r="334">
-      <c r="A334" s="17"/>
+      <c r="A334" s="18"/>
       <c r="B334" s="8"/>
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
     </row>
     <row r="335">
-      <c r="A335" s="17"/>
+      <c r="A335" s="18"/>
       <c r="B335" s="8"/>
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
     </row>
     <row r="336">
-      <c r="A336" s="17"/>
+      <c r="A336" s="18"/>
       <c r="B336" s="8"/>
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
     </row>
     <row r="337">
-      <c r="A337" s="17"/>
+      <c r="A337" s="18"/>
       <c r="B337" s="8"/>
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
     </row>
     <row r="338">
-      <c r="A338" s="17"/>
+      <c r="A338" s="18"/>
       <c r="B338" s="8"/>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
     </row>
     <row r="339">
-      <c r="A339" s="17"/>
+      <c r="A339" s="18"/>
       <c r="B339" s="8"/>
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
     </row>
     <row r="340">
-      <c r="A340" s="17"/>
+      <c r="A340" s="18"/>
       <c r="B340" s="8"/>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
     </row>
     <row r="341">
-      <c r="A341" s="17"/>
+      <c r="A341" s="18"/>
       <c r="B341" s="8"/>
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
     </row>
     <row r="342">
-      <c r="A342" s="17"/>
+      <c r="A342" s="18"/>
       <c r="B342" s="8"/>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
     </row>
     <row r="343">
-      <c r="A343" s="17"/>
+      <c r="A343" s="18"/>
       <c r="B343" s="8"/>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
     </row>
     <row r="344">
-      <c r="A344" s="17"/>
+      <c r="A344" s="18"/>
       <c r="B344" s="8"/>
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
     </row>
     <row r="345">
-      <c r="A345" s="17"/>
+      <c r="A345" s="18"/>
       <c r="B345" s="8"/>
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
     </row>
     <row r="346">
-      <c r="A346" s="17"/>
+      <c r="A346" s="18"/>
       <c r="B346" s="8"/>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
     </row>
     <row r="347">
-      <c r="A347" s="17"/>
+      <c r="A347" s="18"/>
       <c r="B347" s="8"/>
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
     </row>
     <row r="348">
-      <c r="A348" s="17"/>
+      <c r="A348" s="18"/>
       <c r="B348" s="8"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
     </row>
     <row r="349">
-      <c r="A349" s="17"/>
+      <c r="A349" s="18"/>
       <c r="B349" s="8"/>
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
     </row>
     <row r="350">
-      <c r="A350" s="17"/>
+      <c r="A350" s="18"/>
       <c r="B350" s="8"/>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
     </row>
     <row r="351">
-      <c r="A351" s="17"/>
+      <c r="A351" s="18"/>
       <c r="B351" s="8"/>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
     </row>
     <row r="352">
-      <c r="A352" s="17"/>
+      <c r="A352" s="18"/>
       <c r="B352" s="8"/>
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
     </row>
     <row r="353">
-      <c r="A353" s="17"/>
+      <c r="A353" s="18"/>
       <c r="B353" s="8"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
     </row>
     <row r="354">
-      <c r="A354" s="17"/>
+      <c r="A354" s="18"/>
       <c r="B354" s="8"/>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
     </row>
     <row r="355">
-      <c r="A355" s="17"/>
+      <c r="A355" s="18"/>
       <c r="B355" s="8"/>
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
     </row>
     <row r="356">
-      <c r="A356" s="17"/>
+      <c r="A356" s="18"/>
       <c r="B356" s="8"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
     <row r="357">
-      <c r="A357" s="17"/>
+      <c r="A357" s="18"/>
       <c r="B357" s="8"/>
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
     </row>
     <row r="358">
-      <c r="A358" s="17"/>
+      <c r="A358" s="18"/>
       <c r="B358" s="8"/>
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
     </row>
     <row r="359">
-      <c r="A359" s="17"/>
+      <c r="A359" s="18"/>
       <c r="B359" s="8"/>
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
     </row>
     <row r="360">
-      <c r="A360" s="17"/>
+      <c r="A360" s="18"/>
       <c r="B360" s="8"/>
       <c r="D360" s="8"/>
       <c r="E360" s="8"/>
     </row>
     <row r="361">
-      <c r="A361" s="17"/>
+      <c r="A361" s="18"/>
       <c r="B361" s="8"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
     </row>
     <row r="362">
-      <c r="A362" s="17"/>
+      <c r="A362" s="18"/>
       <c r="B362" s="8"/>
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
     </row>
     <row r="363">
-      <c r="A363" s="17"/>
+      <c r="A363" s="18"/>
       <c r="B363" s="8"/>
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
     </row>
     <row r="364">
-      <c r="A364" s="17"/>
+      <c r="A364" s="18"/>
       <c r="B364" s="8"/>
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
     </row>
     <row r="365">
-      <c r="A365" s="17"/>
+      <c r="A365" s="18"/>
       <c r="B365" s="8"/>
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
     </row>
     <row r="366">
-      <c r="A366" s="17"/>
+      <c r="A366" s="18"/>
       <c r="B366" s="8"/>
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
     </row>
     <row r="367">
-      <c r="A367" s="17"/>
+      <c r="A367" s="18"/>
       <c r="B367" s="8"/>
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
     </row>
     <row r="368">
-      <c r="A368" s="17"/>
+      <c r="A368" s="18"/>
       <c r="B368" s="8"/>
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
     </row>
     <row r="369">
-      <c r="A369" s="17"/>
+      <c r="A369" s="18"/>
       <c r="B369" s="8"/>
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
     </row>
     <row r="370">
-      <c r="A370" s="17"/>
+      <c r="A370" s="18"/>
       <c r="B370" s="8"/>
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
     </row>
     <row r="371">
-      <c r="A371" s="17"/>
+      <c r="A371" s="18"/>
       <c r="B371" s="8"/>
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
     </row>
     <row r="372">
-      <c r="A372" s="17"/>
+      <c r="A372" s="18"/>
       <c r="B372" s="8"/>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
     </row>
     <row r="373">
-      <c r="A373" s="17"/>
+      <c r="A373" s="18"/>
       <c r="B373" s="8"/>
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
     </row>
     <row r="374">
-      <c r="A374" s="17"/>
+      <c r="A374" s="18"/>
       <c r="B374" s="8"/>
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
     </row>
     <row r="375">
-      <c r="A375" s="17"/>
+      <c r="A375" s="18"/>
       <c r="B375" s="8"/>
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
     </row>
     <row r="376">
-      <c r="A376" s="17"/>
+      <c r="A376" s="18"/>
       <c r="B376" s="8"/>
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
     </row>
     <row r="377">
-      <c r="A377" s="17"/>
+      <c r="A377" s="18"/>
       <c r="B377" s="8"/>
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
     </row>
     <row r="378">
-      <c r="A378" s="17"/>
+      <c r="A378" s="18"/>
       <c r="B378" s="8"/>
       <c r="D378" s="8"/>
       <c r="E378" s="8"/>
     </row>
     <row r="379">
-      <c r="A379" s="17"/>
+      <c r="A379" s="18"/>
       <c r="B379" s="8"/>
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
     </row>
     <row r="380">
-      <c r="A380" s="17"/>
+      <c r="A380" s="18"/>
       <c r="B380" s="8"/>
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
     </row>
     <row r="381">
-      <c r="A381" s="17"/>
+      <c r="A381" s="18"/>
       <c r="B381" s="8"/>
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
     </row>
     <row r="382">
-      <c r="A382" s="17"/>
+      <c r="A382" s="18"/>
       <c r="B382" s="8"/>
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
     </row>
     <row r="383">
-      <c r="A383" s="17"/>
+      <c r="A383" s="18"/>
       <c r="B383" s="8"/>
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
     </row>
     <row r="384">
-      <c r="A384" s="17"/>
+      <c r="A384" s="18"/>
       <c r="B384" s="8"/>
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
     </row>
     <row r="385">
-      <c r="A385" s="17"/>
+      <c r="A385" s="18"/>
       <c r="B385" s="8"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
     </row>
     <row r="386">
-      <c r="A386" s="17"/>
+      <c r="A386" s="18"/>
       <c r="B386" s="8"/>
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
     </row>
     <row r="387">
-      <c r="A387" s="17"/>
+      <c r="A387" s="18"/>
       <c r="B387" s="8"/>
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
     </row>
     <row r="388">
-      <c r="A388" s="17"/>
+      <c r="A388" s="18"/>
       <c r="B388" s="8"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
     </row>
     <row r="389">
-      <c r="A389" s="17"/>
+      <c r="A389" s="18"/>
       <c r="B389" s="8"/>
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
     </row>
     <row r="390">
-      <c r="A390" s="17"/>
+      <c r="A390" s="18"/>
       <c r="B390" s="8"/>
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
     </row>
     <row r="391">
-      <c r="A391" s="17"/>
+      <c r="A391" s="18"/>
       <c r="B391" s="8"/>
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
     </row>
     <row r="392">
-      <c r="A392" s="17"/>
+      <c r="A392" s="18"/>
       <c r="B392" s="8"/>
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
     </row>
     <row r="393">
-      <c r="A393" s="17"/>
+      <c r="A393" s="18"/>
       <c r="B393" s="8"/>
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
     </row>
     <row r="394">
-      <c r="A394" s="17"/>
+      <c r="A394" s="18"/>
       <c r="B394" s="8"/>
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
     </row>
     <row r="395">
-      <c r="A395" s="17"/>
+      <c r="A395" s="18"/>
       <c r="B395" s="8"/>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
     </row>
     <row r="396">
-      <c r="A396" s="17"/>
+      <c r="A396" s="18"/>
       <c r="B396" s="8"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
     </row>
     <row r="397">
-      <c r="A397" s="17"/>
+      <c r="A397" s="18"/>
       <c r="B397" s="8"/>
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
     </row>
     <row r="398">
-      <c r="A398" s="17"/>
+      <c r="A398" s="18"/>
       <c r="B398" s="8"/>
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
     </row>
     <row r="399">
-      <c r="A399" s="17"/>
+      <c r="A399" s="18"/>
       <c r="B399" s="8"/>
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
     </row>
     <row r="400">
-      <c r="A400" s="17"/>
+      <c r="A400" s="18"/>
       <c r="B400" s="8"/>
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
     </row>
     <row r="401">
-      <c r="A401" s="17"/>
+      <c r="A401" s="18"/>
       <c r="B401" s="8"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
     </row>
     <row r="402">
-      <c r="A402" s="17"/>
+      <c r="A402" s="18"/>
       <c r="B402" s="8"/>
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
     </row>
     <row r="403">
-      <c r="A403" s="17"/>
+      <c r="A403" s="18"/>
       <c r="B403" s="8"/>
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
     </row>
     <row r="404">
-      <c r="A404" s="17"/>
+      <c r="A404" s="18"/>
       <c r="B404" s="8"/>
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
     </row>
     <row r="405">
-      <c r="A405" s="17"/>
+      <c r="A405" s="18"/>
       <c r="B405" s="8"/>
       <c r="D405" s="8"/>
       <c r="E405" s="8"/>
     </row>
     <row r="406">
-      <c r="A406" s="17"/>
+      <c r="A406" s="18"/>
       <c r="B406" s="8"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
     </row>
     <row r="407">
-      <c r="A407" s="17"/>
+      <c r="A407" s="18"/>
       <c r="B407" s="8"/>
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
     </row>
     <row r="408">
-      <c r="A408" s="17"/>
+      <c r="A408" s="18"/>
       <c r="B408" s="8"/>
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
     </row>
     <row r="409">
-      <c r="A409" s="17"/>
+      <c r="A409" s="18"/>
       <c r="B409" s="8"/>
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
     </row>
     <row r="410">
-      <c r="A410" s="17"/>
+      <c r="A410" s="18"/>
       <c r="B410" s="8"/>
       <c r="D410" s="8"/>
       <c r="E410" s="8"/>
     </row>
     <row r="411">
-      <c r="A411" s="17"/>
+      <c r="A411" s="18"/>
       <c r="B411" s="8"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
     </row>
     <row r="412">
-      <c r="A412" s="17"/>
+      <c r="A412" s="18"/>
       <c r="B412" s="8"/>
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
     </row>
     <row r="413">
-      <c r="A413" s="17"/>
+      <c r="A413" s="18"/>
       <c r="B413" s="8"/>
       <c r="D413" s="8"/>
       <c r="E413" s="8"/>
     </row>
     <row r="414">
-      <c r="A414" s="17"/>
+      <c r="A414" s="18"/>
       <c r="B414" s="8"/>
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
     </row>
     <row r="415">
-      <c r="A415" s="17"/>
+      <c r="A415" s="18"/>
       <c r="B415" s="8"/>
       <c r="D415" s="8"/>
       <c r="E415" s="8"/>
     </row>
     <row r="416">
-      <c r="A416" s="17"/>
+      <c r="A416" s="18"/>
       <c r="B416" s="8"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
     </row>
     <row r="417">
-      <c r="A417" s="17"/>
+      <c r="A417" s="18"/>
       <c r="B417" s="8"/>
       <c r="D417" s="8"/>
       <c r="E417" s="8"/>
     </row>
     <row r="418">
-      <c r="A418" s="17"/>
+      <c r="A418" s="18"/>
       <c r="B418" s="8"/>
       <c r="D418" s="8"/>
       <c r="E418" s="8"/>
     </row>
     <row r="419">
-      <c r="A419" s="17"/>
+      <c r="A419" s="18"/>
       <c r="B419" s="8"/>
       <c r="D419" s="8"/>
       <c r="E419" s="8"/>
     </row>
     <row r="420">
-      <c r="A420" s="17"/>
+      <c r="A420" s="18"/>
       <c r="B420" s="8"/>
       <c r="D420" s="8"/>
       <c r="E420" s="8"/>
     </row>
     <row r="421">
-      <c r="A421" s="17"/>
+      <c r="A421" s="18"/>
       <c r="B421" s="8"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
     </row>
     <row r="422">
-      <c r="A422" s="17"/>
+      <c r="A422" s="18"/>
       <c r="B422" s="8"/>
       <c r="D422" s="8"/>
       <c r="E422" s="8"/>
     </row>
     <row r="423">
-      <c r="A423" s="17"/>
+      <c r="A423" s="18"/>
       <c r="B423" s="8"/>
       <c r="D423" s="8"/>
       <c r="E423" s="8"/>
     </row>
     <row r="424">
-      <c r="A424" s="17"/>
+      <c r="A424" s="18"/>
       <c r="B424" s="8"/>
       <c r="D424" s="8"/>
       <c r="E424" s="8"/>
     </row>
     <row r="425">
-      <c r="A425" s="17"/>
+      <c r="A425" s="18"/>
       <c r="B425" s="8"/>
       <c r="D425" s="8"/>
       <c r="E425" s="8"/>
     </row>
     <row r="426">
-      <c r="A426" s="17"/>
+      <c r="A426" s="18"/>
       <c r="B426" s="8"/>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
     </row>
     <row r="427">
-      <c r="A427" s="17"/>
+      <c r="A427" s="18"/>
       <c r="B427" s="8"/>
       <c r="D427" s="8"/>
       <c r="E427" s="8"/>
     </row>
     <row r="428">
-      <c r="A428" s="17"/>
+      <c r="A428" s="18"/>
       <c r="B428" s="8"/>
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
     </row>
     <row r="429">
-      <c r="A429" s="17"/>
+      <c r="A429" s="18"/>
       <c r="B429" s="8"/>
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
     </row>
     <row r="430">
-      <c r="A430" s="17"/>
+      <c r="A430" s="18"/>
       <c r="B430" s="8"/>
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
     </row>
     <row r="431">
-      <c r="A431" s="17"/>
+      <c r="A431" s="18"/>
       <c r="B431" s="8"/>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
     </row>
     <row r="432">
-      <c r="A432" s="17"/>
+      <c r="A432" s="18"/>
       <c r="B432" s="8"/>
       <c r="D432" s="8"/>
       <c r="E432" s="8"/>
     </row>
     <row r="433">
-      <c r="A433" s="17"/>
+      <c r="A433" s="18"/>
       <c r="B433" s="8"/>
       <c r="D433" s="8"/>
       <c r="E433" s="8"/>
     </row>
     <row r="434">
-      <c r="A434" s="17"/>
+      <c r="A434" s="18"/>
       <c r="B434" s="8"/>
       <c r="D434" s="8"/>
       <c r="E434" s="8"/>
     </row>
     <row r="435">
-      <c r="A435" s="17"/>
+      <c r="A435" s="18"/>
       <c r="B435" s="8"/>
       <c r="D435" s="8"/>
       <c r="E435" s="8"/>
     </row>
     <row r="436">
-      <c r="A436" s="17"/>
+      <c r="A436" s="18"/>
       <c r="B436" s="8"/>
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
     </row>
     <row r="437">
-      <c r="A437" s="17"/>
+      <c r="A437" s="18"/>
       <c r="B437" s="8"/>
       <c r="D437" s="8"/>
       <c r="E437" s="8"/>
     </row>
     <row r="438">
-      <c r="A438" s="17"/>
+      <c r="A438" s="18"/>
       <c r="B438" s="8"/>
       <c r="D438" s="8"/>
       <c r="E438" s="8"/>
     </row>
     <row r="439">
-      <c r="A439" s="17"/>
+      <c r="A439" s="18"/>
       <c r="B439" s="8"/>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
     </row>
     <row r="440">
-      <c r="A440" s="17"/>
+      <c r="A440" s="18"/>
       <c r="B440" s="8"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
     </row>
     <row r="441">
-      <c r="A441" s="17"/>
+      <c r="A441" s="18"/>
       <c r="B441" s="8"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
     </row>
     <row r="442">
-      <c r="A442" s="17"/>
+      <c r="A442" s="18"/>
       <c r="B442" s="8"/>
       <c r="D442" s="8"/>
       <c r="E442" s="8"/>
     </row>
     <row r="443">
-      <c r="A443" s="17"/>
+      <c r="A443" s="18"/>
       <c r="B443" s="8"/>
       <c r="D443" s="8"/>
       <c r="E443" s="8"/>
     </row>
     <row r="444">
-      <c r="A444" s="17"/>
+      <c r="A444" s="18"/>
       <c r="B444" s="8"/>
       <c r="D444" s="8"/>
       <c r="E444" s="8"/>
     </row>
     <row r="445">
-      <c r="A445" s="17"/>
+      <c r="A445" s="18"/>
       <c r="B445" s="8"/>
       <c r="D445" s="8"/>
       <c r="E445" s="8"/>
     </row>
     <row r="446">
-      <c r="A446" s="17"/>
+      <c r="A446" s="18"/>
       <c r="B446" s="8"/>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
     </row>
     <row r="447">
-      <c r="A447" s="17"/>
+      <c r="A447" s="18"/>
       <c r="B447" s="8"/>
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
     </row>
     <row r="448">
-      <c r="A448" s="17"/>
+      <c r="A448" s="18"/>
       <c r="B448" s="8"/>
       <c r="D448" s="8"/>
       <c r="E448" s="8"/>
     </row>
     <row r="449">
-      <c r="A449" s="17"/>
+      <c r="A449" s="18"/>
       <c r="B449" s="8"/>
       <c r="D449" s="8"/>
       <c r="E449" s="8"/>
     </row>
     <row r="450">
-      <c r="A450" s="17"/>
+      <c r="A450" s="18"/>
       <c r="B450" s="8"/>
       <c r="D450" s="8"/>
       <c r="E450" s="8"/>
     </row>
     <row r="451">
-      <c r="A451" s="17"/>
+      <c r="A451" s="18"/>
       <c r="B451" s="8"/>
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
     </row>
     <row r="452">
-      <c r="A452" s="17"/>
+      <c r="A452" s="18"/>
       <c r="B452" s="8"/>
       <c r="D452" s="8"/>
       <c r="E452" s="8"/>
     </row>
     <row r="453">
-      <c r="A453" s="17"/>
+      <c r="A453" s="18"/>
       <c r="B453" s="8"/>
       <c r="D453" s="8"/>
       <c r="E453" s="8"/>
     </row>
     <row r="454">
-      <c r="A454" s="17"/>
+      <c r="A454" s="18"/>
       <c r="B454" s="8"/>
       <c r="D454" s="8"/>
       <c r="E454" s="8"/>
     </row>
     <row r="455">
-      <c r="A455" s="17"/>
+      <c r="A455" s="18"/>
       <c r="B455" s="8"/>
       <c r="D455" s="8"/>
       <c r="E455" s="8"/>
     </row>
     <row r="456">
-      <c r="A456" s="17"/>
+      <c r="A456" s="18"/>
       <c r="B456" s="8"/>
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
     </row>
     <row r="457">
-      <c r="A457" s="17"/>
+      <c r="A457" s="18"/>
       <c r="B457" s="8"/>
       <c r="D457" s="8"/>
       <c r="E457" s="8"/>
     </row>
     <row r="458">
-      <c r="A458" s="17"/>
+      <c r="A458" s="18"/>
       <c r="B458" s="8"/>
       <c r="D458" s="8"/>
       <c r="E458" s="8"/>
     </row>
     <row r="459">
-      <c r="A459" s="17"/>
+      <c r="A459" s="18"/>
       <c r="B459" s="8"/>
       <c r="D459" s="8"/>
       <c r="E459" s="8"/>
     </row>
     <row r="460">
-      <c r="A460" s="17"/>
+      <c r="A460" s="18"/>
       <c r="B460" s="8"/>
       <c r="D460" s="8"/>
       <c r="E460" s="8"/>
     </row>
     <row r="461">
-      <c r="A461" s="17"/>
+      <c r="A461" s="18"/>
       <c r="B461" s="8"/>
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
     </row>
     <row r="462">
-      <c r="A462" s="17"/>
+      <c r="A462" s="18"/>
       <c r="B462" s="8"/>
       <c r="D462" s="8"/>
       <c r="E462" s="8"/>
     </row>
     <row r="463">
-      <c r="A463" s="17"/>
+      <c r="A463" s="18"/>
       <c r="B463" s="8"/>
       <c r="D463" s="8"/>
       <c r="E463" s="8"/>
     </row>
     <row r="464">
-      <c r="A464" s="17"/>
+      <c r="A464" s="18"/>
       <c r="B464" s="8"/>
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
     </row>
     <row r="465">
-      <c r="A465" s="17"/>
+      <c r="A465" s="18"/>
       <c r="B465" s="8"/>
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
     </row>
     <row r="466">
-      <c r="A466" s="17"/>
+      <c r="A466" s="18"/>
       <c r="B466" s="8"/>
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
     </row>
     <row r="467">
-      <c r="A467" s="17"/>
+      <c r="A467" s="18"/>
       <c r="B467" s="8"/>
       <c r="D467" s="8"/>
       <c r="E467" s="8"/>
     </row>
     <row r="468">
-      <c r="A468" s="17"/>
+      <c r="A468" s="18"/>
       <c r="B468" s="8"/>
       <c r="D468" s="8"/>
       <c r="E468" s="8"/>
     </row>
     <row r="469">
-      <c r="A469" s="17"/>
+      <c r="A469" s="18"/>
       <c r="B469" s="8"/>
       <c r="D469" s="8"/>
       <c r="E469" s="8"/>
     </row>
     <row r="470">
-      <c r="A470" s="17"/>
+      <c r="A470" s="18"/>
       <c r="B470" s="8"/>
       <c r="D470" s="8"/>
       <c r="E470" s="8"/>
     </row>
     <row r="471">
-      <c r="A471" s="17"/>
+      <c r="A471" s="18"/>
       <c r="B471" s="8"/>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
     </row>
     <row r="472">
-      <c r="A472" s="17"/>
+      <c r="A472" s="18"/>
       <c r="B472" s="8"/>
       <c r="D472" s="8"/>
       <c r="E472" s="8"/>
     </row>
     <row r="473">
-      <c r="A473" s="17"/>
+      <c r="A473" s="18"/>
       <c r="B473" s="8"/>
       <c r="D473" s="8"/>
       <c r="E473" s="8"/>
     </row>
     <row r="474">
-      <c r="A474" s="17"/>
+      <c r="A474" s="18"/>
       <c r="B474" s="8"/>
       <c r="D474" s="8"/>
       <c r="E474" s="8"/>
     </row>
     <row r="475">
-      <c r="A475" s="17"/>
+      <c r="A475" s="18"/>
       <c r="B475" s="8"/>
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
     </row>
     <row r="476">
-      <c r="A476" s="17"/>
+      <c r="A476" s="18"/>
       <c r="B476" s="8"/>
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
     </row>
     <row r="477">
-      <c r="A477" s="17"/>
+      <c r="A477" s="18"/>
       <c r="B477" s="8"/>
       <c r="D477" s="8"/>
       <c r="E477" s="8"/>
     </row>
     <row r="478">
-      <c r="A478" s="17"/>
+      <c r="A478" s="18"/>
       <c r="B478" s="8"/>
       <c r="D478" s="8"/>
       <c r="E478" s="8"/>
     </row>
     <row r="479">
-      <c r="A479" s="17"/>
+      <c r="A479" s="18"/>
       <c r="B479" s="8"/>
       <c r="D479" s="8"/>
       <c r="E479" s="8"/>
     </row>
     <row r="480">
-      <c r="A480" s="17"/>
+      <c r="A480" s="18"/>
       <c r="B480" s="8"/>
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
     </row>
     <row r="481">
-      <c r="A481" s="17"/>
+      <c r="A481" s="18"/>
       <c r="B481" s="8"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
     </row>
     <row r="482">
-      <c r="A482" s="17"/>
+      <c r="A482" s="18"/>
       <c r="B482" s="8"/>
       <c r="D482" s="8"/>
       <c r="E482" s="8"/>
     </row>
     <row r="483">
-      <c r="A483" s="17"/>
+      <c r="A483" s="18"/>
       <c r="B483" s="8"/>
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
     </row>
     <row r="484">
-      <c r="A484" s="17"/>
+      <c r="A484" s="18"/>
       <c r="B484" s="8"/>
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
     </row>
     <row r="485">
-      <c r="A485" s="17"/>
+      <c r="A485" s="18"/>
       <c r="B485" s="8"/>
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
     </row>
     <row r="486">
-      <c r="A486" s="17"/>
+      <c r="A486" s="18"/>
       <c r="B486" s="8"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
     </row>
     <row r="487">
-      <c r="A487" s="17"/>
+      <c r="A487" s="18"/>
       <c r="B487" s="8"/>
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
     </row>
     <row r="488">
-      <c r="A488" s="17"/>
+      <c r="A488" s="18"/>
       <c r="B488" s="8"/>
       <c r="D488" s="8"/>
       <c r="E488" s="8"/>
     </row>
     <row r="489">
-      <c r="A489" s="17"/>
+      <c r="A489" s="18"/>
       <c r="B489" s="8"/>
       <c r="D489" s="8"/>
       <c r="E489" s="8"/>
     </row>
     <row r="490">
-      <c r="A490" s="17"/>
+      <c r="A490" s="18"/>
       <c r="B490" s="8"/>
       <c r="D490" s="8"/>
       <c r="E490" s="8"/>
     </row>
     <row r="491">
-      <c r="A491" s="17"/>
+      <c r="A491" s="18"/>
       <c r="B491" s="8"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
     </row>
     <row r="492">
-      <c r="A492" s="17"/>
+      <c r="A492" s="18"/>
       <c r="B492" s="8"/>
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
     </row>
     <row r="493">
-      <c r="A493" s="17"/>
+      <c r="A493" s="18"/>
       <c r="B493" s="8"/>
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
     </row>
     <row r="494">
-      <c r="A494" s="17"/>
+      <c r="A494" s="18"/>
       <c r="B494" s="8"/>
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
     </row>
     <row r="495">
-      <c r="A495" s="17"/>
+      <c r="A495" s="18"/>
       <c r="B495" s="8"/>
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
     </row>
     <row r="496">
-      <c r="A496" s="17"/>
+      <c r="A496" s="18"/>
       <c r="B496" s="8"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
     </row>
     <row r="497">
-      <c r="A497" s="17"/>
+      <c r="A497" s="18"/>
       <c r="B497" s="8"/>
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
     </row>
     <row r="498">
-      <c r="A498" s="17"/>
+      <c r="A498" s="18"/>
       <c r="B498" s="8"/>
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
     </row>
     <row r="499">
-      <c r="A499" s="17"/>
+      <c r="A499" s="18"/>
       <c r="B499" s="8"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
     </row>
     <row r="500">
-      <c r="A500" s="17"/>
+      <c r="A500" s="18"/>
       <c r="B500" s="8"/>
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
     </row>
     <row r="501">
-      <c r="A501" s="17"/>
+      <c r="A501" s="18"/>
       <c r="B501" s="8"/>
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
     </row>
     <row r="502">
-      <c r="A502" s="17"/>
+      <c r="A502" s="18"/>
       <c r="B502" s="8"/>
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
     </row>
     <row r="503">
-      <c r="A503" s="17"/>
+      <c r="A503" s="18"/>
       <c r="B503" s="8"/>
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
     </row>
     <row r="504">
-      <c r="A504" s="17"/>
+      <c r="A504" s="18"/>
       <c r="B504" s="8"/>
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
     </row>
     <row r="505">
-      <c r="A505" s="17"/>
+      <c r="A505" s="18"/>
       <c r="B505" s="8"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
     </row>
     <row r="506">
-      <c r="A506" s="17"/>
+      <c r="A506" s="18"/>
       <c r="B506" s="8"/>
       <c r="D506" s="8"/>
       <c r="E506" s="8"/>
     </row>
     <row r="507">
-      <c r="A507" s="17"/>
+      <c r="A507" s="18"/>
       <c r="B507" s="8"/>
       <c r="D507" s="8"/>
       <c r="E507" s="8"/>
     </row>
     <row r="508">
-      <c r="A508" s="17"/>
+      <c r="A508" s="18"/>
       <c r="B508" s="8"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
     </row>
     <row r="509">
-      <c r="A509" s="17"/>
+      <c r="A509" s="18"/>
       <c r="B509" s="8"/>
       <c r="D509" s="8"/>
       <c r="E509" s="8"/>
     </row>
     <row r="510">
-      <c r="A510" s="17"/>
+      <c r="A510" s="18"/>
       <c r="B510" s="8"/>
       <c r="D510" s="8"/>
       <c r="E510" s="8"/>
     </row>
     <row r="511">
-      <c r="A511" s="17"/>
+      <c r="A511" s="18"/>
       <c r="B511" s="8"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
     </row>
     <row r="512">
-      <c r="A512" s="17"/>
+      <c r="A512" s="18"/>
       <c r="B512" s="8"/>
       <c r="D512" s="8"/>
       <c r="E512" s="8"/>
     </row>
     <row r="513">
-      <c r="A513" s="17"/>
+      <c r="A513" s="18"/>
       <c r="B513" s="8"/>
       <c r="D513" s="8"/>
       <c r="E513" s="8"/>
     </row>
     <row r="514">
-      <c r="A514" s="17"/>
+      <c r="A514" s="18"/>
       <c r="B514" s="8"/>
       <c r="D514" s="8"/>
       <c r="E514" s="8"/>
     </row>
     <row r="515">
-      <c r="A515" s="17"/>
+      <c r="A515" s="18"/>
       <c r="B515" s="8"/>
       <c r="D515" s="8"/>
       <c r="E515" s="8"/>
     </row>
     <row r="516">
-      <c r="A516" s="17"/>
+      <c r="A516" s="18"/>
       <c r="B516" s="8"/>
       <c r="D516" s="8"/>
       <c r="E516" s="8"/>
     </row>
     <row r="517">
-      <c r="A517" s="17"/>
+      <c r="A517" s="18"/>
       <c r="B517" s="8"/>
       <c r="D517" s="8"/>
       <c r="E517" s="8"/>
     </row>
     <row r="518">
-      <c r="A518" s="17"/>
+      <c r="A518" s="18"/>
       <c r="B518" s="8"/>
       <c r="D518" s="8"/>
       <c r="E518" s="8"/>
     </row>
     <row r="519">
-      <c r="A519" s="17"/>
+      <c r="A519" s="18"/>
       <c r="B519" s="8"/>
       <c r="D519" s="8"/>
       <c r="E519" s="8"/>
     </row>
     <row r="520">
-      <c r="A520" s="17"/>
+      <c r="A520" s="18"/>
       <c r="B520" s="8"/>
       <c r="D520" s="8"/>
       <c r="E520" s="8"/>
     </row>
     <row r="521">
-      <c r="A521" s="17"/>
+      <c r="A521" s="18"/>
       <c r="B521" s="8"/>
       <c r="D521" s="8"/>
       <c r="E521" s="8"/>
     </row>
     <row r="522">
-      <c r="A522" s="17"/>
+      <c r="A522" s="18"/>
       <c r="B522" s="8"/>
       <c r="D522" s="8"/>
       <c r="E522" s="8"/>
     </row>
     <row r="523">
-      <c r="A523" s="17"/>
+      <c r="A523" s="18"/>
       <c r="B523" s="8"/>
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
     </row>
     <row r="524">
-      <c r="A524" s="17"/>
+      <c r="A524" s="18"/>
       <c r="B524" s="8"/>
       <c r="D524" s="8"/>
       <c r="E524" s="8"/>
     </row>
     <row r="525">
-      <c r="A525" s="17"/>
+      <c r="A525" s="18"/>
       <c r="B525" s="8"/>
       <c r="D525" s="8"/>
       <c r="E525" s="8"/>
     </row>
     <row r="526">
-      <c r="A526" s="17"/>
+      <c r="A526" s="18"/>
       <c r="B526" s="8"/>
       <c r="D526" s="8"/>
       <c r="E526" s="8"/>
     </row>
     <row r="527">
-      <c r="A527" s="17"/>
+      <c r="A527" s="18"/>
       <c r="B527" s="8"/>
       <c r="D527" s="8"/>
       <c r="E527" s="8"/>
     </row>
     <row r="528">
-      <c r="A528" s="17"/>
+      <c r="A528" s="18"/>
       <c r="B528" s="8"/>
       <c r="D528" s="8"/>
       <c r="E528" s="8"/>
     </row>
     <row r="529">
-      <c r="A529" s="17"/>
+      <c r="A529" s="18"/>
       <c r="B529" s="8"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
     </row>
     <row r="530">
-      <c r="A530" s="17"/>
+      <c r="A530" s="18"/>
       <c r="B530" s="8"/>
       <c r="D530" s="8"/>
       <c r="E530" s="8"/>
     </row>
     <row r="531">
-      <c r="A531" s="17"/>
+      <c r="A531" s="18"/>
       <c r="B531" s="8"/>
       <c r="D531" s="8"/>
       <c r="E531" s="8"/>
     </row>
     <row r="532">
-      <c r="A532" s="17"/>
+      <c r="A532" s="18"/>
       <c r="B532" s="8"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
     </row>
     <row r="533">
-      <c r="A533" s="17"/>
+      <c r="A533" s="18"/>
       <c r="B533" s="8"/>
       <c r="D533" s="8"/>
       <c r="E533" s="8"/>
     </row>
     <row r="534">
-      <c r="A534" s="17"/>
+      <c r="A534" s="18"/>
       <c r="B534" s="8"/>
       <c r="D534" s="8"/>
       <c r="E534" s="8"/>
     </row>
     <row r="535">
-      <c r="A535" s="17"/>
+      <c r="A535" s="18"/>
       <c r="B535" s="8"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
     </row>
     <row r="536">
-      <c r="A536" s="17"/>
+      <c r="A536" s="18"/>
       <c r="B536" s="8"/>
       <c r="D536" s="8"/>
       <c r="E536" s="8"/>
     </row>
     <row r="537">
-      <c r="A537" s="17"/>
+      <c r="A537" s="18"/>
       <c r="B537" s="8"/>
       <c r="D537" s="8"/>
       <c r="E537" s="8"/>
     </row>
     <row r="538">
-      <c r="A538" s="17"/>
+      <c r="A538" s="18"/>
       <c r="B538" s="8"/>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
     </row>
     <row r="539">
-      <c r="A539" s="17"/>
+      <c r="A539" s="18"/>
       <c r="B539" s="8"/>
       <c r="D539" s="8"/>
       <c r="E539" s="8"/>
     </row>
     <row r="540">
-      <c r="A540" s="17"/>
+      <c r="A540" s="18"/>
       <c r="B540" s="8"/>
       <c r="D540" s="8"/>
       <c r="E540" s="8"/>
     </row>
     <row r="541">
-      <c r="A541" s="17"/>
+      <c r="A541" s="18"/>
       <c r="B541" s="8"/>
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
     </row>
     <row r="542">
-      <c r="A542" s="17"/>
+      <c r="A542" s="18"/>
       <c r="B542" s="8"/>
       <c r="D542" s="8"/>
       <c r="E542" s="8"/>
     </row>
     <row r="543">
-      <c r="A543" s="17"/>
+      <c r="A543" s="18"/>
       <c r="B543" s="8"/>
       <c r="D543" s="8"/>
       <c r="E543" s="8"/>
     </row>
     <row r="544">
-      <c r="A544" s="17"/>
+      <c r="A544" s="18"/>
       <c r="B544" s="8"/>
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
     </row>
     <row r="545">
-      <c r="A545" s="17"/>
+      <c r="A545" s="18"/>
       <c r="B545" s="8"/>
       <c r="D545" s="8"/>
       <c r="E545" s="8"/>
     </row>
     <row r="546">
-      <c r="A546" s="17"/>
+      <c r="A546" s="18"/>
       <c r="B546" s="8"/>
       <c r="D546" s="8"/>
       <c r="E546" s="8"/>
     </row>
     <row r="547">
-      <c r="A547" s="17"/>
+      <c r="A547" s="18"/>
       <c r="B547" s="8"/>
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
     </row>
     <row r="548">
-      <c r="A548" s="17"/>
+      <c r="A548" s="18"/>
       <c r="B548" s="8"/>
       <c r="D548" s="8"/>
       <c r="E548" s="8"/>
     </row>
     <row r="549">
-      <c r="A549" s="17"/>
+      <c r="A549" s="18"/>
       <c r="B549" s="8"/>
       <c r="D549" s="8"/>
       <c r="E549" s="8"/>
     </row>
     <row r="550">
-      <c r="A550" s="17"/>
+      <c r="A550" s="18"/>
       <c r="B550" s="8"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
     </row>
     <row r="551">
-      <c r="A551" s="17"/>
+      <c r="A551" s="18"/>
       <c r="B551" s="8"/>
       <c r="D551" s="8"/>
       <c r="E551" s="8"/>
     </row>
     <row r="552">
-      <c r="A552" s="17"/>
+      <c r="A552" s="18"/>
       <c r="B552" s="8"/>
       <c r="D552" s="8"/>
       <c r="E552" s="8"/>
     </row>
     <row r="553">
-      <c r="A553" s="17"/>
+      <c r="A553" s="18"/>
       <c r="B553" s="8"/>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
     </row>
     <row r="554">
-      <c r="A554" s="17"/>
+      <c r="A554" s="18"/>
       <c r="B554" s="8"/>
       <c r="D554" s="8"/>
       <c r="E554" s="8"/>
     </row>
     <row r="555">
-      <c r="A555" s="17"/>
+      <c r="A555" s="18"/>
       <c r="B555" s="8"/>
       <c r="D555" s="8"/>
       <c r="E555" s="8"/>
     </row>
     <row r="556">
-      <c r="A556" s="17"/>
+      <c r="A556" s="18"/>
       <c r="B556" s="8"/>
       <c r="D556" s="8"/>
       <c r="E556" s="8"/>
     </row>
     <row r="557">
-      <c r="A557" s="17"/>
+      <c r="A557" s="18"/>
       <c r="B557" s="8"/>
       <c r="D557" s="8"/>
       <c r="E557" s="8"/>
     </row>
     <row r="558">
-      <c r="A558" s="17"/>
+      <c r="A558" s="18"/>
       <c r="B558" s="8"/>
       <c r="D558" s="8"/>
       <c r="E558" s="8"/>
     </row>
     <row r="559">
-      <c r="A559" s="17"/>
+      <c r="A559" s="18"/>
       <c r="B559" s="8"/>
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
     </row>
     <row r="560">
-      <c r="A560" s="17"/>
+      <c r="A560" s="18"/>
       <c r="B560" s="8"/>
       <c r="D560" s="8"/>
       <c r="E560" s="8"/>
     </row>
     <row r="561">
-      <c r="A561" s="17"/>
+      <c r="A561" s="18"/>
       <c r="B561" s="8"/>
       <c r="D561" s="8"/>
       <c r="E561" s="8"/>
     </row>
     <row r="562">
-      <c r="A562" s="17"/>
+      <c r="A562" s="18"/>
       <c r="B562" s="8"/>
       <c r="D562" s="8"/>
       <c r="E562" s="8"/>
     </row>
     <row r="563">
-      <c r="A563" s="17"/>
+      <c r="A563" s="18"/>
       <c r="B563" s="8"/>
       <c r="D563" s="8"/>
       <c r="E563" s="8"/>
     </row>
     <row r="564">
-      <c r="A564" s="17"/>
+      <c r="A564" s="18"/>
       <c r="B564" s="8"/>
       <c r="D564" s="8"/>
       <c r="E564" s="8"/>
     </row>
     <row r="565">
-      <c r="A565" s="17"/>
+      <c r="A565" s="18"/>
       <c r="B565" s="8"/>
       <c r="D565" s="8"/>
       <c r="E565" s="8"/>
     </row>
     <row r="566">
-      <c r="A566" s="17"/>
+      <c r="A566" s="18"/>
       <c r="B566" s="8"/>
       <c r="D566" s="8"/>
       <c r="E566" s="8"/>
     </row>
     <row r="567">
-      <c r="A567" s="17"/>
+      <c r="A567" s="18"/>
       <c r="B567" s="8"/>
       <c r="D567" s="8"/>
       <c r="E567" s="8"/>
     </row>
     <row r="568">
-      <c r="A568" s="17"/>
+      <c r="A568" s="18"/>
       <c r="B568" s="8"/>
       <c r="D568" s="8"/>
       <c r="E568" s="8"/>
     </row>
     <row r="569">
-      <c r="A569" s="17"/>
+      <c r="A569" s="18"/>
       <c r="B569" s="8"/>
       <c r="D569" s="8"/>
       <c r="E569" s="8"/>
     </row>
     <row r="570">
-      <c r="A570" s="17"/>
+      <c r="A570" s="18"/>
       <c r="B570" s="8"/>
       <c r="D570" s="8"/>
       <c r="E570" s="8"/>
     </row>
     <row r="571">
-      <c r="A571" s="17"/>
+      <c r="A571" s="18"/>
       <c r="B571" s="8"/>
       <c r="D571" s="8"/>
       <c r="E571" s="8"/>
     </row>
     <row r="572">
-      <c r="A572" s="17"/>
+      <c r="A572" s="18"/>
       <c r="B572" s="8"/>
       <c r="D572" s="8"/>
       <c r="E572" s="8"/>
     </row>
     <row r="573">
-      <c r="A573" s="17"/>
+      <c r="A573" s="18"/>
       <c r="B573" s="8"/>
       <c r="D573" s="8"/>
       <c r="E573" s="8"/>
     </row>
     <row r="574">
-      <c r="A574" s="17"/>
+      <c r="A574" s="18"/>
       <c r="B574" s="8"/>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
     </row>
     <row r="575">
-      <c r="A575" s="17"/>
+      <c r="A575" s="18"/>
       <c r="B575" s="8"/>
       <c r="D575" s="8"/>
       <c r="E575" s="8"/>
     </row>
     <row r="576">
-      <c r="A576" s="17"/>
+      <c r="A576" s="18"/>
       <c r="B576" s="8"/>
       <c r="D576" s="8"/>
       <c r="E576" s="8"/>
     </row>
     <row r="577">
-      <c r="A577" s="17"/>
+      <c r="A577" s="18"/>
       <c r="B577" s="8"/>
       <c r="D577" s="8"/>
       <c r="E577" s="8"/>
     </row>
     <row r="578">
-      <c r="A578" s="17"/>
+      <c r="A578" s="18"/>
       <c r="B578" s="8"/>
       <c r="D578" s="8"/>
       <c r="E578" s="8"/>
     </row>
     <row r="579">
-      <c r="A579" s="17"/>
+      <c r="A579" s="18"/>
       <c r="B579" s="8"/>
       <c r="D579" s="8"/>
       <c r="E579" s="8"/>
     </row>
     <row r="580">
-      <c r="A580" s="17"/>
+      <c r="A580" s="18"/>
       <c r="B580" s="8"/>
       <c r="D580" s="8"/>
       <c r="E580" s="8"/>
     </row>
     <row r="581">
-      <c r="A581" s="17"/>
+      <c r="A581" s="18"/>
       <c r="B581" s="8"/>
       <c r="D581" s="8"/>
       <c r="E581" s="8"/>
     </row>
     <row r="582">
-      <c r="A582" s="17"/>
+      <c r="A582" s="18"/>
       <c r="B582" s="8"/>
       <c r="D582" s="8"/>
       <c r="E582" s="8"/>
     </row>
     <row r="583">
-      <c r="A583" s="17"/>
+      <c r="A583" s="18"/>
       <c r="B583" s="8"/>
       <c r="D583" s="8"/>
       <c r="E583" s="8"/>
     </row>
     <row r="584">
-      <c r="A584" s="17"/>
+      <c r="A584" s="18"/>
       <c r="B584" s="8"/>
       <c r="D584" s="8"/>
       <c r="E584" s="8"/>
     </row>
     <row r="585">
-      <c r="A585" s="17"/>
+      <c r="A585" s="18"/>
       <c r="B585" s="8"/>
       <c r="D585" s="8"/>
       <c r="E585" s="8"/>
     </row>
     <row r="586">
-      <c r="A586" s="17"/>
+      <c r="A586" s="18"/>
       <c r="B586" s="8"/>
       <c r="D586" s="8"/>
       <c r="E586" s="8"/>
     </row>
     <row r="587">
-      <c r="A587" s="17"/>
+      <c r="A587" s="18"/>
       <c r="B587" s="8"/>
       <c r="D587" s="8"/>
       <c r="E587" s="8"/>
     </row>
     <row r="588">
-      <c r="A588" s="17"/>
+      <c r="A588" s="18"/>
       <c r="B588" s="8"/>
       <c r="D588" s="8"/>
       <c r="E588" s="8"/>
     </row>
     <row r="589">
-      <c r="A589" s="17"/>
+      <c r="A589" s="18"/>
       <c r="B589" s="8"/>
       <c r="D589" s="8"/>
       <c r="E589" s="8"/>
     </row>
     <row r="590">
-      <c r="A590" s="17"/>
+      <c r="A590" s="18"/>
       <c r="B590" s="8"/>
       <c r="D590" s="8"/>
       <c r="E590" s="8"/>
     </row>
     <row r="591">
-      <c r="A591" s="17"/>
+      <c r="A591" s="18"/>
       <c r="B591" s="8"/>
       <c r="D591" s="8"/>
       <c r="E591" s="8"/>
     </row>
     <row r="592">
-      <c r="A592" s="17"/>
+      <c r="A592" s="18"/>
       <c r="B592" s="8"/>
       <c r="D592" s="8"/>
       <c r="E592" s="8"/>
     </row>
     <row r="593">
-      <c r="A593" s="17"/>
+      <c r="A593" s="18"/>
       <c r="B593" s="8"/>
       <c r="D593" s="8"/>
       <c r="E593" s="8"/>
     </row>
     <row r="594">
-      <c r="A594" s="17"/>
+      <c r="A594" s="18"/>
       <c r="B594" s="8"/>
       <c r="D594" s="8"/>
       <c r="E594" s="8"/>
     </row>
     <row r="595">
-      <c r="A595" s="17"/>
+      <c r="A595" s="18"/>
       <c r="B595" s="8"/>
       <c r="D595" s="8"/>
       <c r="E595" s="8"/>
     </row>
     <row r="596">
-      <c r="A596" s="17"/>
+      <c r="A596" s="18"/>
       <c r="B596" s="8"/>
       <c r="D596" s="8"/>
       <c r="E596" s="8"/>
     </row>
     <row r="597">
-      <c r="A597" s="17"/>
+      <c r="A597" s="18"/>
       <c r="B597" s="8"/>
       <c r="D597" s="8"/>
       <c r="E597" s="8"/>
     </row>
     <row r="598">
-      <c r="A598" s="17"/>
+      <c r="A598" s="18"/>
       <c r="B598" s="8"/>
       <c r="D598" s="8"/>
       <c r="E598" s="8"/>
     </row>
     <row r="599">
-      <c r="A599" s="17"/>
+      <c r="A599" s="18"/>
       <c r="B599" s="8"/>
       <c r="D599" s="8"/>
       <c r="E599" s="8"/>
     </row>
     <row r="600">
-      <c r="A600" s="17"/>
+      <c r="A600" s="18"/>
       <c r="B600" s="8"/>
       <c r="D600" s="8"/>
       <c r="E600" s="8"/>
     </row>
     <row r="601">
-      <c r="A601" s="17"/>
+      <c r="A601" s="18"/>
       <c r="B601" s="8"/>
       <c r="D601" s="8"/>
       <c r="E601" s="8"/>
     </row>
     <row r="602">
-      <c r="A602" s="17"/>
+      <c r="A602" s="18"/>
       <c r="B602" s="8"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
     </row>
     <row r="603">
-      <c r="A603" s="17"/>
+      <c r="A603" s="18"/>
       <c r="B603" s="8"/>
       <c r="D603" s="8"/>
       <c r="E603" s="8"/>
     </row>
     <row r="604">
-      <c r="A604" s="17"/>
+      <c r="A604" s="18"/>
       <c r="B604" s="8"/>
       <c r="D604" s="8"/>
       <c r="E604" s="8"/>
     </row>
     <row r="605">
-      <c r="A605" s="17"/>
+      <c r="A605" s="18"/>
       <c r="B605" s="8"/>
       <c r="D605" s="8"/>
       <c r="E605" s="8"/>
     </row>
     <row r="606">
-      <c r="A606" s="17"/>
+      <c r="A606" s="18"/>
       <c r="B606" s="8"/>
       <c r="D606" s="8"/>
       <c r="E606" s="8"/>
     </row>
     <row r="607">
-      <c r="A607" s="17"/>
+      <c r="A607" s="18"/>
       <c r="B607" s="8"/>
       <c r="D607" s="8"/>
       <c r="E607" s="8"/>
     </row>
     <row r="608">
-      <c r="A608" s="17"/>
+      <c r="A608" s="18"/>
       <c r="B608" s="8"/>
       <c r="D608" s="8"/>
       <c r="E608" s="8"/>
     </row>
     <row r="609">
-      <c r="A609" s="17"/>
+      <c r="A609" s="18"/>
       <c r="B609" s="8"/>
       <c r="D609" s="8"/>
       <c r="E609" s="8"/>
     </row>
     <row r="610">
-      <c r="A610" s="17"/>
+      <c r="A610" s="18"/>
       <c r="B610" s="8"/>
       <c r="D610" s="8"/>
       <c r="E610" s="8"/>
     </row>
     <row r="611">
-      <c r="A611" s="17"/>
+      <c r="A611" s="18"/>
       <c r="B611" s="8"/>
       <c r="D611" s="8"/>
       <c r="E611" s="8"/>
     </row>
     <row r="612">
-      <c r="A612" s="17"/>
+      <c r="A612" s="18"/>
       <c r="B612" s="8"/>
       <c r="D612" s="8"/>
       <c r="E612" s="8"/>
     </row>
     <row r="613">
-      <c r="A613" s="17"/>
+      <c r="A613" s="18"/>
       <c r="B613" s="8"/>
       <c r="D613" s="8"/>
       <c r="E613" s="8"/>
     </row>
     <row r="614">
-      <c r="A614" s="17"/>
+      <c r="A614" s="18"/>
       <c r="B614" s="8"/>
       <c r="D614" s="8"/>
       <c r="E614" s="8"/>
     </row>
     <row r="615">
-      <c r="A615" s="17"/>
+      <c r="A615" s="18"/>
       <c r="B615" s="8"/>
       <c r="D615" s="8"/>
       <c r="E615" s="8"/>
     </row>
     <row r="616">
-      <c r="A616" s="17"/>
+      <c r="A616" s="18"/>
       <c r="B616" s="8"/>
       <c r="D616" s="8"/>
       <c r="E616" s="8"/>
     </row>
     <row r="617">
-      <c r="A617" s="17"/>
+      <c r="A617" s="18"/>
       <c r="B617" s="8"/>
       <c r="D617" s="8"/>
       <c r="E617" s="8"/>
     </row>
     <row r="618">
-      <c r="A618" s="17"/>
+      <c r="A618" s="18"/>
       <c r="B618" s="8"/>
       <c r="D618" s="8"/>
       <c r="E618" s="8"/>
     </row>
     <row r="619">
-      <c r="A619" s="17"/>
+      <c r="A619" s="18"/>
       <c r="B619" s="8"/>
       <c r="D619" s="8"/>
       <c r="E619" s="8"/>
     </row>
     <row r="620">
-      <c r="A620" s="17"/>
+      <c r="A620" s="18"/>
       <c r="B620" s="8"/>
       <c r="D620" s="8"/>
       <c r="E620" s="8"/>
     </row>
     <row r="621">
-      <c r="A621" s="17"/>
+      <c r="A621" s="18"/>
       <c r="B621" s="8"/>
       <c r="D621" s="8"/>
       <c r="E621" s="8"/>
     </row>
     <row r="622">
-      <c r="A622" s="17"/>
+      <c r="A622" s="18"/>
       <c r="B622" s="8"/>
       <c r="D622" s="8"/>
       <c r="E622" s="8"/>
     </row>
     <row r="623">
-      <c r="A623" s="17"/>
+      <c r="A623" s="18"/>
       <c r="B623" s="8"/>
       <c r="D623" s="8"/>
       <c r="E623" s="8"/>
     </row>
     <row r="624">
-      <c r="A624" s="17"/>
+      <c r="A624" s="18"/>
       <c r="B624" s="8"/>
       <c r="D624" s="8"/>
       <c r="E624" s="8"/>
     </row>
     <row r="625">
-      <c r="A625" s="17"/>
+      <c r="A625" s="18"/>
       <c r="B625" s="8"/>
       <c r="D625" s="8"/>
       <c r="E625" s="8"/>
     </row>
     <row r="626">
-      <c r="A626" s="17"/>
+      <c r="A626" s="18"/>
       <c r="B626" s="8"/>
       <c r="D626" s="8"/>
       <c r="E626" s="8"/>
     </row>
     <row r="627">
-      <c r="A627" s="17"/>
+      <c r="A627" s="18"/>
       <c r="B627" s="8"/>
       <c r="D627" s="8"/>
       <c r="E627" s="8"/>
     </row>
     <row r="628">
-      <c r="A628" s="17"/>
+      <c r="A628" s="18"/>
       <c r="B628" s="8"/>
       <c r="D628" s="8"/>
       <c r="E628" s="8"/>
     </row>
     <row r="629">
-      <c r="A629" s="17"/>
+      <c r="A629" s="18"/>
       <c r="B629" s="8"/>
       <c r="D629" s="8"/>
       <c r="E629" s="8"/>
     </row>
     <row r="630">
-      <c r="A630" s="17"/>
+      <c r="A630" s="18"/>
       <c r="B630" s="8"/>
       <c r="D630" s="8"/>
       <c r="E630" s="8"/>
     </row>
     <row r="631">
-      <c r="A631" s="17"/>
+      <c r="A631" s="18"/>
       <c r="B631" s="8"/>
       <c r="D631" s="8"/>
       <c r="E631" s="8"/>
     </row>
     <row r="632">
-      <c r="A632" s="17"/>
+      <c r="A632" s="18"/>
       <c r="B632" s="8"/>
       <c r="D632" s="8"/>
       <c r="E632" s="8"/>
     </row>
     <row r="633">
-      <c r="A633" s="17"/>
+      <c r="A633" s="18"/>
       <c r="B633" s="8"/>
       <c r="D633" s="8"/>
       <c r="E633" s="8"/>
     </row>
     <row r="634">
-      <c r="A634" s="17"/>
+      <c r="A634" s="18"/>
       <c r="B634" s="8"/>
       <c r="D634" s="8"/>
       <c r="E634" s="8"/>
     </row>
     <row r="635">
-      <c r="A635" s="17"/>
+      <c r="A635" s="18"/>
       <c r="B635" s="8"/>
       <c r="D635" s="8"/>
       <c r="E635" s="8"/>
     </row>
     <row r="636">
-      <c r="A636" s="17"/>
+      <c r="A636" s="18"/>
       <c r="B636" s="8"/>
       <c r="D636" s="8"/>
       <c r="E636" s="8"/>
     </row>
     <row r="637">
-      <c r="A637" s="17"/>
+      <c r="A637" s="18"/>
       <c r="B637" s="8"/>
       <c r="D637" s="8"/>
       <c r="E637" s="8"/>
     </row>
     <row r="638">
-      <c r="A638" s="17"/>
+      <c r="A638" s="18"/>
       <c r="B638" s="8"/>
       <c r="D638" s="8"/>
       <c r="E638" s="8"/>
     </row>
     <row r="639">
-      <c r="A639" s="17"/>
+      <c r="A639" s="18"/>
       <c r="B639" s="8"/>
       <c r="D639" s="8"/>
       <c r="E639" s="8"/>
     </row>
     <row r="640">
-      <c r="A640" s="17"/>
+      <c r="A640" s="18"/>
       <c r="B640" s="8"/>
       <c r="D640" s="8"/>
       <c r="E640" s="8"/>
     </row>
     <row r="641">
-      <c r="A641" s="17"/>
+      <c r="A641" s="18"/>
       <c r="B641" s="8"/>
       <c r="D641" s="8"/>
       <c r="E641" s="8"/>
     </row>
     <row r="642">
-      <c r="A642" s="17"/>
+      <c r="A642" s="18"/>
       <c r="B642" s="8"/>
       <c r="D642" s="8"/>
       <c r="E642" s="8"/>
     </row>
     <row r="643">
-      <c r="A643" s="17"/>
+      <c r="A643" s="18"/>
       <c r="B643" s="8"/>
       <c r="D643" s="8"/>
       <c r="E643" s="8"/>
     </row>
     <row r="644">
-      <c r="A644" s="17"/>
+      <c r="A644" s="18"/>
       <c r="B644" s="8"/>
       <c r="D644" s="8"/>
       <c r="E644" s="8"/>
     </row>
     <row r="645">
-      <c r="A645" s="17"/>
+      <c r="A645" s="18"/>
       <c r="B645" s="8"/>
       <c r="D645" s="8"/>
       <c r="E645" s="8"/>
     </row>
     <row r="646">
-      <c r="A646" s="17"/>
+      <c r="A646" s="18"/>
       <c r="B646" s="8"/>
       <c r="D646" s="8"/>
       <c r="E646" s="8"/>
     </row>
     <row r="647">
-      <c r="A647" s="17"/>
+      <c r="A647" s="18"/>
       <c r="B647" s="8"/>
       <c r="D647" s="8"/>
       <c r="E647" s="8"/>
     </row>
     <row r="648">
-      <c r="A648" s="17"/>
+      <c r="A648" s="18"/>
       <c r="B648" s="8"/>
       <c r="D648" s="8"/>
       <c r="E648" s="8"/>
     </row>
     <row r="649">
-      <c r="A649" s="17"/>
+      <c r="A649" s="18"/>
       <c r="B649" s="8"/>
       <c r="D649" s="8"/>
       <c r="E649" s="8"/>
     </row>
     <row r="650">
-      <c r="A650" s="17"/>
+      <c r="A650" s="18"/>
       <c r="B650" s="8"/>
       <c r="D650" s="8"/>
       <c r="E650" s="8"/>
     </row>
     <row r="651">
-      <c r="A651" s="17"/>
+      <c r="A651" s="18"/>
       <c r="B651" s="8"/>
       <c r="D651" s="8"/>
       <c r="E651" s="8"/>
     </row>
     <row r="652">
-      <c r="A652" s="17"/>
+      <c r="A652" s="18"/>
       <c r="B652" s="8"/>
       <c r="D652" s="8"/>
       <c r="E652" s="8"/>
     </row>
     <row r="653">
-      <c r="A653" s="17"/>
+      <c r="A653" s="18"/>
       <c r="B653" s="8"/>
       <c r="D653" s="8"/>
       <c r="E653" s="8"/>
     </row>
     <row r="654">
-      <c r="A654" s="17"/>
+      <c r="A654" s="18"/>
       <c r="B654" s="8"/>
       <c r="D654" s="8"/>
       <c r="E654" s="8"/>
     </row>
     <row r="655">
-      <c r="A655" s="17"/>
+      <c r="A655" s="18"/>
       <c r="B655" s="8"/>
       <c r="D655" s="8"/>
       <c r="E655" s="8"/>
     </row>
     <row r="656">
-      <c r="A656" s="17"/>
+      <c r="A656" s="18"/>
       <c r="B656" s="8"/>
       <c r="D656" s="8"/>
       <c r="E656" s="8"/>
     </row>
     <row r="657">
-      <c r="A657" s="17"/>
+      <c r="A657" s="18"/>
       <c r="B657" s="8"/>
       <c r="D657" s="8"/>
       <c r="E657" s="8"/>
     </row>
     <row r="658">
-      <c r="A658" s="17"/>
+      <c r="A658" s="18"/>
       <c r="B658" s="8"/>
       <c r="D658" s="8"/>
       <c r="E658" s="8"/>
     </row>
     <row r="659">
-      <c r="A659" s="17"/>
+      <c r="A659" s="18"/>
       <c r="B659" s="8"/>
       <c r="D659" s="8"/>
       <c r="E659" s="8"/>
     </row>
     <row r="660">
-      <c r="A660" s="17"/>
+      <c r="A660" s="18"/>
       <c r="B660" s="8"/>
       <c r="D660" s="8"/>
       <c r="E660" s="8"/>
     </row>
     <row r="661">
-      <c r="A661" s="17"/>
+      <c r="A661" s="18"/>
       <c r="B661" s="8"/>
       <c r="D661" s="8"/>
       <c r="E661" s="8"/>
     </row>
     <row r="662">
-      <c r="A662" s="17"/>
+      <c r="A662" s="18"/>
       <c r="B662" s="8"/>
       <c r="D662" s="8"/>
       <c r="E662" s="8"/>
     </row>
     <row r="663">
-      <c r="A663" s="17"/>
+      <c r="A663" s="18"/>
       <c r="B663" s="8"/>
       <c r="D663" s="8"/>
       <c r="E663" s="8"/>
     </row>
     <row r="664">
-      <c r="A664" s="17"/>
+      <c r="A664" s="18"/>
       <c r="B664" s="8"/>
       <c r="D664" s="8"/>
       <c r="E664" s="8"/>
     </row>
     <row r="665">
-      <c r="A665" s="17"/>
+      <c r="A665" s="18"/>
       <c r="B665" s="8"/>
       <c r="D665" s="8"/>
       <c r="E665" s="8"/>
     </row>
     <row r="666">
-      <c r="A666" s="17"/>
+      <c r="A666" s="18"/>
       <c r="B666" s="8"/>
       <c r="D666" s="8"/>
       <c r="E666" s="8"/>
     </row>
     <row r="667">
-      <c r="A667" s="17"/>
+      <c r="A667" s="18"/>
       <c r="B667" s="8"/>
       <c r="D667" s="8"/>
       <c r="E667" s="8"/>
     </row>
     <row r="668">
-      <c r="A668" s="17"/>
+      <c r="A668" s="18"/>
       <c r="B668" s="8"/>
       <c r="D668" s="8"/>
       <c r="E668" s="8"/>
     </row>
     <row r="669">
-      <c r="A669" s="17"/>
+      <c r="A669" s="18"/>
       <c r="B669" s="8"/>
       <c r="D669" s="8"/>
       <c r="E669" s="8"/>
     </row>
     <row r="670">
-      <c r="A670" s="17"/>
+      <c r="A670" s="18"/>
       <c r="B670" s="8"/>
       <c r="D670" s="8"/>
       <c r="E670" s="8"/>
     </row>
     <row r="671">
-      <c r="A671" s="17"/>
+      <c r="A671" s="18"/>
       <c r="B671" s="8"/>
       <c r="D671" s="8"/>
       <c r="E671" s="8"/>
     </row>
     <row r="672">
-      <c r="A672" s="17"/>
+      <c r="A672" s="18"/>
       <c r="B672" s="8"/>
       <c r="D672" s="8"/>
       <c r="E672" s="8"/>
     </row>
     <row r="673">
-      <c r="A673" s="17"/>
+      <c r="A673" s="18"/>
       <c r="B673" s="8"/>
       <c r="D673" s="8"/>
       <c r="E673" s="8"/>
     </row>
     <row r="674">
-      <c r="A674" s="17"/>
+      <c r="A674" s="18"/>
       <c r="B674" s="8"/>
       <c r="D674" s="8"/>
       <c r="E674" s="8"/>
     </row>
     <row r="675">
-      <c r="A675" s="17"/>
+      <c r="A675" s="18"/>
       <c r="B675" s="8"/>
       <c r="D675" s="8"/>
       <c r="E675" s="8"/>
     </row>
     <row r="676">
-      <c r="A676" s="17"/>
+      <c r="A676" s="18"/>
       <c r="B676" s="8"/>
       <c r="D676" s="8"/>
       <c r="E676" s="8"/>
     </row>
     <row r="677">
-      <c r="A677" s="17"/>
+      <c r="A677" s="18"/>
       <c r="B677" s="8"/>
       <c r="D677" s="8"/>
       <c r="E677" s="8"/>
     </row>
     <row r="678">
-      <c r="A678" s="17"/>
+      <c r="A678" s="18"/>
       <c r="B678" s="8"/>
       <c r="D678" s="8"/>
       <c r="E678" s="8"/>
     </row>
     <row r="679">
-      <c r="A679" s="17"/>
+      <c r="A679" s="18"/>
       <c r="B679" s="8"/>
       <c r="D679" s="8"/>
       <c r="E679" s="8"/>
     </row>
     <row r="680">
-      <c r="A680" s="17"/>
+      <c r="A680" s="18"/>
       <c r="B680" s="8"/>
       <c r="D680" s="8"/>
       <c r="E680" s="8"/>
     </row>
     <row r="681">
-      <c r="A681" s="17"/>
+      <c r="A681" s="18"/>
       <c r="B681" s="8"/>
       <c r="D681" s="8"/>
       <c r="E681" s="8"/>
     </row>
     <row r="682">
-      <c r="A682" s="17"/>
+      <c r="A682" s="18"/>
       <c r="B682" s="8"/>
       <c r="D682" s="8"/>
       <c r="E682" s="8"/>
     </row>
     <row r="683">
-      <c r="A683" s="17"/>
+      <c r="A683" s="18"/>
       <c r="B683" s="8"/>
       <c r="D683" s="8"/>
       <c r="E683" s="8"/>
     </row>
     <row r="684">
-      <c r="A684" s="17"/>
+      <c r="A684" s="18"/>
       <c r="B684" s="8"/>
       <c r="D684" s="8"/>
       <c r="E684" s="8"/>
     </row>
     <row r="685">
-      <c r="A685" s="17"/>
+      <c r="A685" s="18"/>
       <c r="B685" s="8"/>
       <c r="D685" s="8"/>
       <c r="E685" s="8"/>
     </row>
     <row r="686">
-      <c r="A686" s="17"/>
+      <c r="A686" s="18"/>
       <c r="B686" s="8"/>
       <c r="D686" s="8"/>
       <c r="E686" s="8"/>
     </row>
     <row r="687">
-      <c r="A687" s="17"/>
+      <c r="A687" s="18"/>
       <c r="B687" s="8"/>
       <c r="D687" s="8"/>
       <c r="E687" s="8"/>
     </row>
     <row r="688">
-      <c r="A688" s="17"/>
+      <c r="A688" s="18"/>
       <c r="B688" s="8"/>
       <c r="D688" s="8"/>
       <c r="E688" s="8"/>
     </row>
     <row r="689">
-      <c r="A689" s="17"/>
+      <c r="A689" s="18"/>
       <c r="B689" s="8"/>
       <c r="D689" s="8"/>
       <c r="E689" s="8"/>
     </row>
     <row r="690">
-      <c r="A690" s="17"/>
+      <c r="A690" s="18"/>
       <c r="B690" s="8"/>
       <c r="D690" s="8"/>
       <c r="E690" s="8"/>
     </row>
     <row r="691">
-      <c r="A691" s="17"/>
+      <c r="A691" s="18"/>
       <c r="B691" s="8"/>
       <c r="D691" s="8"/>
       <c r="E691" s="8"/>
     </row>
     <row r="692">
-      <c r="A692" s="17"/>
+      <c r="A692" s="18"/>
       <c r="B692" s="8"/>
       <c r="D692" s="8"/>
       <c r="E692" s="8"/>
     </row>
     <row r="693">
-      <c r="A693" s="17"/>
+      <c r="A693" s="18"/>
       <c r="B693" s="8"/>
       <c r="D693" s="8"/>
       <c r="E693" s="8"/>
     </row>
     <row r="694">
-      <c r="A694" s="17"/>
+      <c r="A694" s="18"/>
       <c r="B694" s="8"/>
       <c r="D694" s="8"/>
       <c r="E694" s="8"/>
     </row>
     <row r="695">
-      <c r="A695" s="17"/>
+      <c r="A695" s="18"/>
       <c r="B695" s="8"/>
       <c r="D695" s="8"/>
       <c r="E695" s="8"/>
     </row>
     <row r="696">
-      <c r="A696" s="17"/>
+      <c r="A696" s="18"/>
       <c r="B696" s="8"/>
       <c r="D696" s="8"/>
       <c r="E696" s="8"/>
     </row>
     <row r="697">
-      <c r="A697" s="17"/>
+      <c r="A697" s="18"/>
       <c r="B697" s="8"/>
       <c r="D697" s="8"/>
       <c r="E697" s="8"/>
     </row>
     <row r="698">
-      <c r="A698" s="17"/>
+      <c r="A698" s="18"/>
       <c r="B698" s="8"/>
       <c r="D698" s="8"/>
       <c r="E698" s="8"/>
     </row>
     <row r="699">
-      <c r="A699" s="17"/>
+      <c r="A699" s="18"/>
       <c r="B699" s="8"/>
       <c r="D699" s="8"/>
       <c r="E699" s="8"/>
     </row>
     <row r="700">
-      <c r="A700" s="17"/>
+      <c r="A700" s="18"/>
       <c r="B700" s="8"/>
       <c r="D700" s="8"/>
       <c r="E700" s="8"/>
     </row>
     <row r="701">
-      <c r="A701" s="17"/>
+      <c r="A701" s="18"/>
       <c r="B701" s="8"/>
       <c r="D701" s="8"/>
       <c r="E701" s="8"/>
     </row>
     <row r="702">
-      <c r="A702" s="17"/>
+      <c r="A702" s="18"/>
       <c r="B702" s="8"/>
       <c r="D702" s="8"/>
       <c r="E702" s="8"/>
     </row>
     <row r="703">
-      <c r="A703" s="17"/>
+      <c r="A703" s="18"/>
       <c r="B703" s="8"/>
       <c r="D703" s="8"/>
       <c r="E703" s="8"/>
     </row>
     <row r="704">
-      <c r="A704" s="17"/>
+      <c r="A704" s="18"/>
       <c r="B704" s="8"/>
       <c r="D704" s="8"/>
       <c r="E704" s="8"/>
     </row>
     <row r="705">
-      <c r="A705" s="17"/>
+      <c r="A705" s="18"/>
       <c r="B705" s="8"/>
       <c r="D705" s="8"/>
       <c r="E705" s="8"/>
     </row>
     <row r="706">
-      <c r="A706" s="17"/>
+      <c r="A706" s="18"/>
       <c r="B706" s="8"/>
       <c r="D706" s="8"/>
       <c r="E706" s="8"/>
     </row>
     <row r="707">
-      <c r="A707" s="17"/>
+      <c r="A707" s="18"/>
       <c r="B707" s="8"/>
       <c r="D707" s="8"/>
       <c r="E707" s="8"/>
     </row>
     <row r="708">
-      <c r="A708" s="17"/>
+      <c r="A708" s="18"/>
       <c r="B708" s="8"/>
       <c r="D708" s="8"/>
       <c r="E708" s="8"/>
     </row>
     <row r="709">
-      <c r="A709" s="17"/>
+      <c r="A709" s="18"/>
       <c r="B709" s="8"/>
       <c r="D709" s="8"/>
       <c r="E709" s="8"/>
     </row>
     <row r="710">
-      <c r="A710" s="17"/>
+      <c r="A710" s="18"/>
       <c r="B710" s="8"/>
       <c r="D710" s="8"/>
       <c r="E710" s="8"/>
     </row>
     <row r="711">
-      <c r="A711" s="17"/>
+      <c r="A711" s="18"/>
       <c r="B711" s="8"/>
       <c r="D711" s="8"/>
       <c r="E711" s="8"/>
     </row>
     <row r="712">
-      <c r="A712" s="17"/>
+      <c r="A712" s="18"/>
       <c r="B712" s="8"/>
       <c r="D712" s="8"/>
       <c r="E712" s="8"/>
     </row>
     <row r="713">
-      <c r="A713" s="17"/>
+      <c r="A713" s="18"/>
       <c r="B713" s="8"/>
       <c r="D713" s="8"/>
       <c r="E713" s="8"/>
     </row>
     <row r="714">
-      <c r="A714" s="17"/>
+      <c r="A714" s="18"/>
       <c r="B714" s="8"/>
       <c r="D714" s="8"/>
       <c r="E714" s="8"/>
     </row>
     <row r="715">
-      <c r="A715" s="17"/>
+      <c r="A715" s="18"/>
       <c r="B715" s="8"/>
       <c r="D715" s="8"/>
       <c r="E715" s="8"/>
     </row>
     <row r="716">
-      <c r="A716" s="17"/>
+      <c r="A716" s="18"/>
       <c r="B716" s="8"/>
       <c r="D716" s="8"/>
       <c r="E716" s="8"/>
     </row>
     <row r="717">
-      <c r="A717" s="17"/>
+      <c r="A717" s="18"/>
       <c r="B717" s="8"/>
       <c r="D717" s="8"/>
       <c r="E717" s="8"/>
     </row>
     <row r="718">
-      <c r="A718" s="17"/>
+      <c r="A718" s="18"/>
       <c r="B718" s="8"/>
       <c r="D718" s="8"/>
       <c r="E718" s="8"/>
     </row>
     <row r="719">
-      <c r="A719" s="17"/>
+      <c r="A719" s="18"/>
       <c r="B719" s="8"/>
       <c r="D719" s="8"/>
       <c r="E719" s="8"/>
     </row>
     <row r="720">
-      <c r="A720" s="17"/>
+      <c r="A720" s="18"/>
       <c r="B720" s="8"/>
       <c r="D720" s="8"/>
       <c r="E720" s="8"/>
     </row>
     <row r="721">
-      <c r="A721" s="17"/>
+      <c r="A721" s="18"/>
       <c r="B721" s="8"/>
       <c r="D721" s="8"/>
       <c r="E721" s="8"/>
     </row>
     <row r="722">
-      <c r="A722" s="17"/>
+      <c r="A722" s="18"/>
       <c r="B722" s="8"/>
       <c r="D722" s="8"/>
       <c r="E722" s="8"/>
     </row>
     <row r="723">
-      <c r="A723" s="17"/>
+      <c r="A723" s="18"/>
       <c r="B723" s="8"/>
       <c r="D723" s="8"/>
       <c r="E723" s="8"/>
     </row>
     <row r="724">
-      <c r="A724" s="17"/>
+      <c r="A724" s="18"/>
       <c r="B724" s="8"/>
       <c r="D724" s="8"/>
       <c r="E724" s="8"/>
     </row>
     <row r="725">
-      <c r="A725" s="17"/>
+      <c r="A725" s="18"/>
       <c r="B725" s="8"/>
       <c r="D725" s="8"/>
       <c r="E725" s="8"/>
     </row>
     <row r="726">
-      <c r="A726" s="17"/>
+      <c r="A726" s="18"/>
       <c r="B726" s="8"/>
       <c r="D726" s="8"/>
       <c r="E726" s="8"/>
     </row>
     <row r="727">
-      <c r="A727" s="17"/>
+      <c r="A727" s="18"/>
       <c r="B727" s="8"/>
       <c r="D727" s="8"/>
       <c r="E727" s="8"/>
     </row>
     <row r="728">
-      <c r="A728" s="17"/>
+      <c r="A728" s="18"/>
       <c r="B728" s="8"/>
       <c r="D728" s="8"/>
       <c r="E728" s="8"/>
     </row>
     <row r="729">
-      <c r="A729" s="17"/>
+      <c r="A729" s="18"/>
       <c r="B729" s="8"/>
       <c r="D729" s="8"/>
       <c r="E729" s="8"/>
     </row>
     <row r="730">
-      <c r="A730" s="17"/>
+      <c r="A730" s="18"/>
       <c r="B730" s="8"/>
       <c r="D730" s="8"/>
       <c r="E730" s="8"/>
     </row>
     <row r="731">
-      <c r="A731" s="17"/>
+      <c r="A731" s="18"/>
       <c r="B731" s="8"/>
       <c r="D731" s="8"/>
       <c r="E731" s="8"/>
     </row>
     <row r="732">
-      <c r="A732" s="17"/>
+      <c r="A732" s="18"/>
       <c r="B732" s="8"/>
       <c r="D732" s="8"/>
       <c r="E732" s="8"/>
     </row>
     <row r="733">
-      <c r="A733" s="17"/>
+      <c r="A733" s="18"/>
       <c r="B733" s="8"/>
       <c r="D733" s="8"/>
       <c r="E733" s="8"/>
     </row>
     <row r="734">
-      <c r="A734" s="17"/>
+      <c r="A734" s="18"/>
       <c r="B734" s="8"/>
       <c r="D734" s="8"/>
       <c r="E734" s="8"/>
     </row>
     <row r="735">
-      <c r="A735" s="17"/>
+      <c r="A735" s="18"/>
       <c r="B735" s="8"/>
       <c r="D735" s="8"/>
       <c r="E735" s="8"/>
     </row>
     <row r="736">
-      <c r="A736" s="17"/>
+      <c r="A736" s="18"/>
       <c r="B736" s="8"/>
       <c r="D736" s="8"/>
       <c r="E736" s="8"/>
     </row>
     <row r="737">
-      <c r="A737" s="17"/>
+      <c r="A737" s="18"/>
       <c r="B737" s="8"/>
       <c r="D737" s="8"/>
       <c r="E737" s="8"/>
     </row>
     <row r="738">
-      <c r="A738" s="17"/>
+      <c r="A738" s="18"/>
       <c r="B738" s="8"/>
       <c r="D738" s="8"/>
       <c r="E738" s="8"/>
     </row>
     <row r="739">
-      <c r="A739" s="17"/>
+      <c r="A739" s="18"/>
       <c r="B739" s="8"/>
       <c r="D739" s="8"/>
       <c r="E739" s="8"/>
     </row>
     <row r="740">
-      <c r="A740" s="17"/>
+      <c r="A740" s="18"/>
       <c r="B740" s="8"/>
       <c r="D740" s="8"/>
       <c r="E740" s="8"/>
     </row>
     <row r="741">
-      <c r="A741" s="17"/>
+      <c r="A741" s="18"/>
       <c r="B741" s="8"/>
       <c r="D741" s="8"/>
       <c r="E741" s="8"/>
     </row>
     <row r="742">
-      <c r="A742" s="17"/>
+      <c r="A742" s="18"/>
       <c r="B742" s="8"/>
       <c r="D742" s="8"/>
       <c r="E742" s="8"/>
     </row>
     <row r="743">
-      <c r="A743" s="17"/>
+      <c r="A743" s="18"/>
       <c r="B743" s="8"/>
       <c r="D743" s="8"/>
       <c r="E743" s="8"/>
     </row>
     <row r="744">
-      <c r="A744" s="17"/>
+      <c r="A744" s="18"/>
       <c r="B744" s="8"/>
       <c r="D744" s="8"/>
       <c r="E744" s="8"/>
     </row>
     <row r="745">
-      <c r="A745" s="17"/>
+      <c r="A745" s="18"/>
       <c r="B745" s="8"/>
       <c r="D745" s="8"/>
       <c r="E745" s="8"/>
     </row>
     <row r="746">
-      <c r="A746" s="17"/>
+      <c r="A746" s="18"/>
       <c r="B746" s="8"/>
       <c r="D746" s="8"/>
       <c r="E746" s="8"/>
     </row>
     <row r="747">
-      <c r="A747" s="17"/>
+      <c r="A747" s="18"/>
       <c r="B747" s="8"/>
       <c r="D747" s="8"/>
       <c r="E747" s="8"/>
     </row>
     <row r="748">
-      <c r="A748" s="17"/>
+      <c r="A748" s="18"/>
       <c r="B748" s="8"/>
       <c r="D748" s="8"/>
       <c r="E748" s="8"/>
     </row>
     <row r="749">
-      <c r="A749" s="17"/>
+      <c r="A749" s="18"/>
       <c r="B749" s="8"/>
       <c r="D749" s="8"/>
       <c r="E749" s="8"/>
     </row>
     <row r="750">
-      <c r="A750" s="17"/>
+      <c r="A750" s="18"/>
       <c r="B750" s="8"/>
       <c r="D750" s="8"/>
       <c r="E750" s="8"/>
     </row>
     <row r="751">
-      <c r="A751" s="17"/>
+      <c r="A751" s="18"/>
       <c r="B751" s="8"/>
       <c r="D751" s="8"/>
       <c r="E751" s="8"/>
     </row>
     <row r="752">
-      <c r="A752" s="17"/>
+      <c r="A752" s="18"/>
       <c r="B752" s="8"/>
       <c r="D752" s="8"/>
       <c r="E752" s="8"/>
     </row>
     <row r="753">
-      <c r="A753" s="17"/>
+      <c r="A753" s="18"/>
       <c r="B753" s="8"/>
       <c r="D753" s="8"/>
       <c r="E753" s="8"/>
     </row>
     <row r="754">
-      <c r="A754" s="17"/>
+      <c r="A754" s="18"/>
       <c r="B754" s="8"/>
       <c r="D754" s="8"/>
       <c r="E754" s="8"/>
     </row>
     <row r="755">
-      <c r="A755" s="17"/>
+      <c r="A755" s="18"/>
       <c r="B755" s="8"/>
       <c r="D755" s="8"/>
       <c r="E755" s="8"/>
     </row>
     <row r="756">
-      <c r="A756" s="17"/>
+      <c r="A756" s="18"/>
       <c r="B756" s="8"/>
       <c r="D756" s="8"/>
       <c r="E756" s="8"/>
     </row>
     <row r="757">
-      <c r="A757" s="17"/>
+      <c r="A757" s="18"/>
       <c r="B757" s="8"/>
       <c r="D757" s="8"/>
       <c r="E757" s="8"/>
     </row>
     <row r="758">
-      <c r="A758" s="17"/>
+      <c r="A758" s="18"/>
       <c r="B758" s="8"/>
       <c r="D758" s="8"/>
       <c r="E758" s="8"/>
     </row>
     <row r="759">
-      <c r="A759" s="17"/>
+      <c r="A759" s="18"/>
       <c r="B759" s="8"/>
       <c r="D759" s="8"/>
       <c r="E759" s="8"/>
     </row>
     <row r="760">
-      <c r="A760" s="17"/>
+      <c r="A760" s="18"/>
       <c r="B760" s="8"/>
       <c r="D760" s="8"/>
       <c r="E760" s="8"/>
     </row>
     <row r="761">
-      <c r="A761" s="17"/>
+      <c r="A761" s="18"/>
       <c r="B761" s="8"/>
       <c r="D761" s="8"/>
       <c r="E761" s="8"/>
     </row>
     <row r="762">
-      <c r="A762" s="17"/>
+      <c r="A762" s="18"/>
       <c r="B762" s="8"/>
       <c r="D762" s="8"/>
       <c r="E762" s="8"/>
     </row>
     <row r="763">
-      <c r="A763" s="17"/>
+      <c r="A763" s="18"/>
       <c r="B763" s="8"/>
       <c r="D763" s="8"/>
       <c r="E763" s="8"/>
     </row>
     <row r="764">
-      <c r="A764" s="17"/>
+      <c r="A764" s="18"/>
       <c r="B764" s="8"/>
       <c r="D764" s="8"/>
       <c r="E764" s="8"/>
     </row>
     <row r="765">
-      <c r="A765" s="17"/>
+      <c r="A765" s="18"/>
       <c r="B765" s="8"/>
       <c r="D765" s="8"/>
       <c r="E765" s="8"/>
     </row>
     <row r="766">
-      <c r="A766" s="17"/>
+      <c r="A766" s="18"/>
       <c r="B766" s="8"/>
       <c r="D766" s="8"/>
       <c r="E766" s="8"/>
     </row>
     <row r="767">
-      <c r="A767" s="17"/>
+      <c r="A767" s="18"/>
       <c r="B767" s="8"/>
       <c r="D767" s="8"/>
       <c r="E767" s="8"/>
     </row>
     <row r="768">
-      <c r="A768" s="17"/>
+      <c r="A768" s="18"/>
       <c r="B768" s="8"/>
       <c r="D768" s="8"/>
       <c r="E768" s="8"/>
     </row>
     <row r="769">
-      <c r="A769" s="17"/>
+      <c r="A769" s="18"/>
       <c r="B769" s="8"/>
       <c r="D769" s="8"/>
       <c r="E769" s="8"/>
     </row>
     <row r="770">
-      <c r="A770" s="17"/>
+      <c r="A770" s="18"/>
       <c r="B770" s="8"/>
       <c r="D770" s="8"/>
       <c r="E770" s="8"/>
     </row>
     <row r="771">
-      <c r="A771" s="17"/>
+      <c r="A771" s="18"/>
       <c r="B771" s="8"/>
       <c r="D771" s="8"/>
       <c r="E771" s="8"/>
     </row>
     <row r="772">
-      <c r="A772" s="17"/>
+      <c r="A772" s="18"/>
       <c r="B772" s="8"/>
       <c r="D772" s="8"/>
       <c r="E772" s="8"/>
     </row>
     <row r="773">
-      <c r="A773" s="17"/>
+      <c r="A773" s="18"/>
       <c r="B773" s="8"/>
       <c r="D773" s="8"/>
       <c r="E773" s="8"/>
     </row>
     <row r="774">
-      <c r="A774" s="17"/>
+      <c r="A774" s="18"/>
       <c r="B774" s="8"/>
       <c r="D774" s="8"/>
       <c r="E774" s="8"/>
     </row>
     <row r="775">
-      <c r="A775" s="17"/>
+      <c r="A775" s="18"/>
       <c r="B775" s="8"/>
       <c r="D775" s="8"/>
       <c r="E775" s="8"/>
     </row>
     <row r="776">
-      <c r="A776" s="17"/>
+      <c r="A776" s="18"/>
       <c r="B776" s="8"/>
       <c r="D776" s="8"/>
       <c r="E776" s="8"/>
     </row>
     <row r="777">
-      <c r="A777" s="17"/>
+      <c r="A777" s="18"/>
       <c r="B777" s="8"/>
       <c r="D777" s="8"/>
       <c r="E777" s="8"/>
     </row>
     <row r="778">
-      <c r="A778" s="17"/>
+      <c r="A778" s="18"/>
       <c r="B778" s="8"/>
       <c r="D778" s="8"/>
       <c r="E778" s="8"/>
     </row>
     <row r="779">
-      <c r="A779" s="17"/>
+      <c r="A779" s="18"/>
       <c r="B779" s="8"/>
       <c r="D779" s="8"/>
       <c r="E779" s="8"/>
     </row>
     <row r="780">
-      <c r="A780" s="17"/>
+      <c r="A780" s="18"/>
       <c r="B780" s="8"/>
       <c r="D780" s="8"/>
       <c r="E780" s="8"/>
     </row>
     <row r="781">
-      <c r="A781" s="17"/>
+      <c r="A781" s="18"/>
       <c r="B781" s="8"/>
       <c r="D781" s="8"/>
       <c r="E781" s="8"/>
     </row>
     <row r="782">
-      <c r="A782" s="17"/>
+      <c r="A782" s="18"/>
       <c r="B782" s="8"/>
       <c r="D782" s="8"/>
       <c r="E782" s="8"/>
     </row>
     <row r="783">
-      <c r="A783" s="17"/>
+      <c r="A783" s="18"/>
       <c r="B783" s="8"/>
       <c r="D783" s="8"/>
       <c r="E783" s="8"/>
     </row>
     <row r="784">
-      <c r="A784" s="17"/>
+      <c r="A784" s="18"/>
       <c r="B784" s="8"/>
       <c r="D784" s="8"/>
       <c r="E784" s="8"/>
     </row>
     <row r="785">
-      <c r="A785" s="17"/>
+      <c r="A785" s="18"/>
       <c r="B785" s="8"/>
       <c r="D785" s="8"/>
       <c r="E785" s="8"/>
     </row>
     <row r="786">
-      <c r="A786" s="17"/>
+      <c r="A786" s="18"/>
       <c r="B786" s="8"/>
       <c r="D786" s="8"/>
       <c r="E786" s="8"/>
     </row>
     <row r="787">
-      <c r="A787" s="17"/>
+      <c r="A787" s="18"/>
       <c r="B787" s="8"/>
       <c r="D787" s="8"/>
       <c r="E787" s="8"/>
     </row>
     <row r="788">
-      <c r="A788" s="17"/>
+      <c r="A788" s="18"/>
       <c r="B788" s="8"/>
       <c r="D788" s="8"/>
       <c r="E788" s="8"/>
     </row>
     <row r="789">
-      <c r="A789" s="17"/>
+      <c r="A789" s="18"/>
       <c r="B789" s="8"/>
       <c r="D789" s="8"/>
       <c r="E789" s="8"/>
     </row>
     <row r="790">
-      <c r="A790" s="17"/>
+      <c r="A790" s="18"/>
       <c r="B790" s="8"/>
       <c r="D790" s="8"/>
       <c r="E790" s="8"/>
     </row>
     <row r="791">
-      <c r="A791" s="17"/>
+      <c r="A791" s="18"/>
       <c r="B791" s="8"/>
       <c r="D791" s="8"/>
       <c r="E791" s="8"/>
     </row>
     <row r="792">
-      <c r="A792" s="17"/>
+      <c r="A792" s="18"/>
       <c r="B792" s="8"/>
       <c r="D792" s="8"/>
       <c r="E792" s="8"/>
     </row>
     <row r="793">
-      <c r="A793" s="17"/>
+      <c r="A793" s="18"/>
       <c r="B793" s="8"/>
       <c r="D793" s="8"/>
       <c r="E793" s="8"/>
     </row>
     <row r="794">
-      <c r="A794" s="17"/>
+      <c r="A794" s="18"/>
       <c r="B794" s="8"/>
       <c r="D794" s="8"/>
       <c r="E794" s="8"/>
     </row>
     <row r="795">
-      <c r="A795" s="17"/>
+      <c r="A795" s="18"/>
       <c r="B795" s="8"/>
       <c r="D795" s="8"/>
       <c r="E795" s="8"/>
     </row>
     <row r="796">
-      <c r="A796" s="17"/>
+      <c r="A796" s="18"/>
       <c r="B796" s="8"/>
       <c r="D796" s="8"/>
       <c r="E796" s="8"/>
     </row>
     <row r="797">
-      <c r="A797" s="17"/>
+      <c r="A797" s="18"/>
       <c r="B797" s="8"/>
       <c r="D797" s="8"/>
       <c r="E797" s="8"/>
     </row>
     <row r="798">
-      <c r="A798" s="17"/>
+      <c r="A798" s="18"/>
       <c r="B798" s="8"/>
       <c r="D798" s="8"/>
       <c r="E798" s="8"/>
     </row>
     <row r="799">
-      <c r="A799" s="17"/>
+      <c r="A799" s="18"/>
       <c r="B799" s="8"/>
       <c r="D799" s="8"/>
       <c r="E799" s="8"/>
     </row>
     <row r="800">
-      <c r="A800" s="17"/>
+      <c r="A800" s="18"/>
       <c r="B800" s="8"/>
       <c r="D800" s="8"/>
       <c r="E800" s="8"/>
     </row>
     <row r="801">
-      <c r="A801" s="17"/>
+      <c r="A801" s="18"/>
       <c r="B801" s="8"/>
       <c r="D801" s="8"/>
       <c r="E801" s="8"/>
     </row>
     <row r="802">
-      <c r="A802" s="17"/>
+      <c r="A802" s="18"/>
       <c r="B802" s="8"/>
       <c r="D802" s="8"/>
       <c r="E802" s="8"/>
     </row>
     <row r="803">
-      <c r="A803" s="17"/>
+      <c r="A803" s="18"/>
       <c r="B803" s="8"/>
       <c r="D803" s="8"/>
       <c r="E803" s="8"/>
     </row>
     <row r="804">
-      <c r="A804" s="17"/>
+      <c r="A804" s="18"/>
       <c r="B804" s="8"/>
       <c r="D804" s="8"/>
       <c r="E804" s="8"/>
     </row>
     <row r="805">
-      <c r="A805" s="17"/>
+      <c r="A805" s="18"/>
       <c r="B805" s="8"/>
       <c r="D805" s="8"/>
       <c r="E805" s="8"/>
     </row>
     <row r="806">
-      <c r="A806" s="17"/>
+      <c r="A806" s="18"/>
       <c r="B806" s="8"/>
       <c r="D806" s="8"/>
       <c r="E806" s="8"/>
     </row>
     <row r="807">
-      <c r="A807" s="17"/>
+      <c r="A807" s="18"/>
       <c r="B807" s="8"/>
       <c r="D807" s="8"/>
       <c r="E807" s="8"/>
     </row>
     <row r="808">
-      <c r="A808" s="17"/>
+      <c r="A808" s="18"/>
       <c r="B808" s="8"/>
       <c r="D808" s="8"/>
       <c r="E808" s="8"/>
     </row>
     <row r="809">
-      <c r="A809" s="17"/>
+      <c r="A809" s="18"/>
       <c r="B809" s="8"/>
       <c r="D809" s="8"/>
       <c r="E809" s="8"/>
     </row>
     <row r="810">
-      <c r="A810" s="17"/>
+      <c r="A810" s="18"/>
       <c r="B810" s="8"/>
       <c r="D810" s="8"/>
       <c r="E810" s="8"/>
     </row>
     <row r="811">
-      <c r="A811" s="17"/>
+      <c r="A811" s="18"/>
       <c r="B811" s="8"/>
       <c r="D811" s="8"/>
       <c r="E811" s="8"/>
     </row>
     <row r="812">
-      <c r="A812" s="17"/>
+      <c r="A812" s="18"/>
       <c r="B812" s="8"/>
       <c r="D812" s="8"/>
       <c r="E812" s="8"/>
     </row>
     <row r="813">
-      <c r="A813" s="17"/>
+      <c r="A813" s="18"/>
       <c r="B813" s="8"/>
       <c r="D813" s="8"/>
       <c r="E813" s="8"/>
     </row>
     <row r="814">
-      <c r="A814" s="17"/>
+      <c r="A814" s="18"/>
       <c r="B814" s="8"/>
       <c r="D814" s="8"/>
       <c r="E814" s="8"/>
     </row>
     <row r="815">
-      <c r="A815" s="17"/>
+      <c r="A815" s="18"/>
       <c r="B815" s="8"/>
       <c r="D815" s="8"/>
       <c r="E815" s="8"/>
     </row>
     <row r="816">
-      <c r="A816" s="17"/>
+      <c r="A816" s="18"/>
       <c r="B816" s="8"/>
       <c r="D816" s="8"/>
       <c r="E816" s="8"/>
     </row>
     <row r="817">
-      <c r="A817" s="17"/>
+      <c r="A817" s="18"/>
       <c r="B817" s="8"/>
       <c r="D817" s="8"/>
       <c r="E817" s="8"/>
     </row>
     <row r="818">
-      <c r="A818" s="17"/>
+      <c r="A818" s="18"/>
       <c r="B818" s="8"/>
       <c r="D818" s="8"/>
       <c r="E818" s="8"/>
     </row>
     <row r="819">
-      <c r="A819" s="17"/>
+      <c r="A819" s="18"/>
       <c r="B819" s="8"/>
       <c r="D819" s="8"/>
       <c r="E819" s="8"/>
     </row>
     <row r="820">
-      <c r="A820" s="17"/>
+      <c r="A820" s="18"/>
       <c r="B820" s="8"/>
       <c r="D820" s="8"/>
       <c r="E820" s="8"/>
     </row>
     <row r="821">
-      <c r="A821" s="17"/>
+      <c r="A821" s="18"/>
       <c r="B821" s="8"/>
       <c r="D821" s="8"/>
       <c r="E821" s="8"/>
     </row>
     <row r="822">
-      <c r="A822" s="17"/>
+      <c r="A822" s="18"/>
       <c r="B822" s="8"/>
       <c r="D822" s="8"/>
       <c r="E822" s="8"/>
     </row>
     <row r="823">
-      <c r="A823" s="17"/>
+      <c r="A823" s="18"/>
       <c r="B823" s="8"/>
       <c r="D823" s="8"/>
       <c r="E823" s="8"/>
     </row>
     <row r="824">
-      <c r="A824" s="17"/>
+      <c r="A824" s="18"/>
       <c r="B824" s="8"/>
       <c r="D824" s="8"/>
       <c r="E824" s="8"/>
     </row>
     <row r="825">
-      <c r="A825" s="17"/>
+      <c r="A825" s="18"/>
       <c r="B825" s="8"/>
       <c r="D825" s="8"/>
       <c r="E825" s="8"/>
     </row>
     <row r="826">
-      <c r="A826" s="17"/>
+      <c r="A826" s="18"/>
       <c r="B826" s="8"/>
       <c r="D826" s="8"/>
       <c r="E826" s="8"/>
     </row>
     <row r="827">
-      <c r="A827" s="17"/>
+      <c r="A827" s="18"/>
       <c r="B827" s="8"/>
       <c r="D827" s="8"/>
       <c r="E827" s="8"/>
     </row>
     <row r="828">
-      <c r="A828" s="17"/>
+      <c r="A828" s="18"/>
       <c r="B828" s="8"/>
       <c r="D828" s="8"/>
       <c r="E828" s="8"/>
     </row>
     <row r="829">
-      <c r="A829" s="17"/>
+      <c r="A829" s="18"/>
       <c r="B829" s="8"/>
       <c r="D829" s="8"/>
       <c r="E829" s="8"/>
     </row>
     <row r="830">
-      <c r="A830" s="17"/>
+      <c r="A830" s="18"/>
       <c r="B830" s="8"/>
       <c r="D830" s="8"/>
       <c r="E830" s="8"/>
     </row>
     <row r="831">
-      <c r="A831" s="17"/>
+      <c r="A831" s="18"/>
       <c r="B831" s="8"/>
       <c r="D831" s="8"/>
       <c r="E831" s="8"/>
     </row>
     <row r="832">
-      <c r="A832" s="17"/>
+      <c r="A832" s="18"/>
       <c r="B832" s="8"/>
       <c r="D832" s="8"/>
       <c r="E832" s="8"/>
     </row>
     <row r="833">
-      <c r="A833" s="17"/>
+      <c r="A833" s="18"/>
       <c r="B833" s="8"/>
       <c r="D833" s="8"/>
       <c r="E833" s="8"/>
     </row>
     <row r="834">
-      <c r="A834" s="17"/>
+      <c r="A834" s="18"/>
       <c r="B834" s="8"/>
       <c r="D834" s="8"/>
       <c r="E834" s="8"/>
     </row>
     <row r="835">
-      <c r="A835" s="17"/>
+      <c r="A835" s="18"/>
       <c r="B835" s="8"/>
       <c r="D835" s="8"/>
       <c r="E835" s="8"/>
     </row>
     <row r="836">
-      <c r="A836" s="17"/>
+      <c r="A836" s="18"/>
       <c r="B836" s="8"/>
       <c r="D836" s="8"/>
       <c r="E836" s="8"/>
     </row>
     <row r="837">
-      <c r="A837" s="17"/>
+      <c r="A837" s="18"/>
       <c r="B837" s="8"/>
       <c r="D837" s="8"/>
       <c r="E837" s="8"/>
     </row>
     <row r="838">
-      <c r="A838" s="17"/>
+      <c r="A838" s="18"/>
       <c r="B838" s="8"/>
       <c r="D838" s="8"/>
       <c r="E838" s="8"/>
     </row>
     <row r="839">
-      <c r="A839" s="17"/>
+      <c r="A839" s="18"/>
       <c r="B839" s="8"/>
       <c r="D839" s="8"/>
       <c r="E839" s="8"/>
     </row>
     <row r="840">
-      <c r="A840" s="17"/>
+      <c r="A840" s="18"/>
       <c r="B840" s="8"/>
       <c r="D840" s="8"/>
       <c r="E840" s="8"/>
     </row>
     <row r="841">
-      <c r="A841" s="17"/>
+      <c r="A841" s="18"/>
       <c r="B841" s="8"/>
       <c r="D841" s="8"/>
       <c r="E841" s="8"/>
     </row>
     <row r="842">
-      <c r="A842" s="17"/>
+      <c r="A842" s="18"/>
       <c r="B842" s="8"/>
       <c r="D842" s="8"/>
       <c r="E842" s="8"/>
     </row>
     <row r="843">
-      <c r="A843" s="17"/>
+      <c r="A843" s="18"/>
       <c r="B843" s="8"/>
       <c r="D843" s="8"/>
       <c r="E843" s="8"/>
     </row>
     <row r="844">
-      <c r="A844" s="17"/>
+      <c r="A844" s="18"/>
       <c r="B844" s="8"/>
       <c r="D844" s="8"/>
       <c r="E844" s="8"/>
     </row>
     <row r="845">
-      <c r="A845" s="17"/>
+      <c r="A845" s="18"/>
       <c r="B845" s="8"/>
       <c r="D845" s="8"/>
       <c r="E845" s="8"/>
     </row>
     <row r="846">
-      <c r="A846" s="17"/>
+      <c r="A846" s="18"/>
       <c r="B846" s="8"/>
       <c r="D846" s="8"/>
       <c r="E846" s="8"/>
     </row>
     <row r="847">
-      <c r="A847" s="17"/>
+      <c r="A847" s="18"/>
       <c r="B847" s="8"/>
       <c r="D847" s="8"/>
       <c r="E847" s="8"/>
     </row>
     <row r="848">
-      <c r="A848" s="17"/>
+      <c r="A848" s="18"/>
       <c r="B848" s="8"/>
       <c r="D848" s="8"/>
       <c r="E848" s="8"/>
     </row>
     <row r="849">
-      <c r="A849" s="17"/>
+      <c r="A849" s="18"/>
       <c r="B849" s="8"/>
       <c r="D849" s="8"/>
       <c r="E849" s="8"/>
     </row>
     <row r="850">
-      <c r="A850" s="17"/>
+      <c r="A850" s="18"/>
       <c r="B850" s="8"/>
       <c r="D850" s="8"/>
       <c r="E850" s="8"/>
     </row>
     <row r="851">
-      <c r="A851" s="17"/>
+      <c r="A851" s="18"/>
       <c r="B851" s="8"/>
       <c r="D851" s="8"/>
       <c r="E851" s="8"/>
     </row>
     <row r="852">
-      <c r="A852" s="17"/>
+      <c r="A852" s="18"/>
       <c r="B852" s="8"/>
       <c r="D852" s="8"/>
       <c r="E852" s="8"/>
     </row>
     <row r="853">
-      <c r="A853" s="17"/>
+      <c r="A853" s="18"/>
       <c r="B853" s="8"/>
       <c r="D853" s="8"/>
       <c r="E853" s="8"/>
     </row>
     <row r="854">
-      <c r="A854" s="17"/>
+      <c r="A854" s="18"/>
       <c r="B854" s="8"/>
       <c r="D854" s="8"/>
       <c r="E854" s="8"/>
     </row>
     <row r="855">
-      <c r="A855" s="17"/>
+      <c r="A855" s="18"/>
       <c r="B855" s="8"/>
       <c r="D855" s="8"/>
       <c r="E855" s="8"/>
     </row>
     <row r="856">
-      <c r="A856" s="17"/>
+      <c r="A856" s="18"/>
       <c r="B856" s="8"/>
       <c r="D856" s="8"/>
       <c r="E856" s="8"/>
     </row>
     <row r="857">
-      <c r="A857" s="17"/>
+      <c r="A857" s="18"/>
       <c r="B857" s="8"/>
       <c r="D857" s="8"/>
       <c r="E857" s="8"/>
     </row>
     <row r="858">
-      <c r="A858" s="17"/>
+      <c r="A858" s="18"/>
       <c r="B858" s="8"/>
       <c r="D858" s="8"/>
       <c r="E858" s="8"/>
     </row>
     <row r="859">
-      <c r="A859" s="17"/>
+      <c r="A859" s="18"/>
       <c r="B859" s="8"/>
       <c r="D859" s="8"/>
       <c r="E859" s="8"/>
     </row>
     <row r="860">
-      <c r="A860" s="17"/>
+      <c r="A860" s="18"/>
       <c r="B860" s="8"/>
       <c r="D860" s="8"/>
       <c r="E860" s="8"/>
     </row>
     <row r="861">
-      <c r="A861" s="17"/>
+      <c r="A861" s="18"/>
       <c r="B861" s="8"/>
       <c r="D861" s="8"/>
       <c r="E861" s="8"/>
     </row>
     <row r="862">
-      <c r="A862" s="17"/>
+      <c r="A862" s="18"/>
       <c r="B862" s="8"/>
       <c r="D862" s="8"/>
       <c r="E862" s="8"/>
     </row>
     <row r="863">
-      <c r="A863" s="17"/>
+      <c r="A863" s="18"/>
       <c r="B863" s="8"/>
       <c r="D863" s="8"/>
       <c r="E863" s="8"/>
     </row>
     <row r="864">
-      <c r="A864" s="17"/>
+      <c r="A864" s="18"/>
       <c r="B864" s="8"/>
       <c r="D864" s="8"/>
       <c r="E864" s="8"/>
     </row>
     <row r="865">
-      <c r="A865" s="17"/>
+      <c r="A865" s="18"/>
       <c r="B865" s="8"/>
       <c r="D865" s="8"/>
       <c r="E865" s="8"/>
     </row>
     <row r="866">
-      <c r="A866" s="17"/>
+      <c r="A866" s="18"/>
       <c r="B866" s="8"/>
       <c r="D866" s="8"/>
       <c r="E866" s="8"/>
     </row>
     <row r="867">
-      <c r="A867" s="17"/>
+      <c r="A867" s="18"/>
       <c r="B867" s="8"/>
       <c r="D867" s="8"/>
       <c r="E867" s="8"/>
     </row>
     <row r="868">
-      <c r="A868" s="17"/>
+      <c r="A868" s="18"/>
       <c r="B868" s="8"/>
       <c r="D868" s="8"/>
       <c r="E868" s="8"/>
     </row>
     <row r="869">
-      <c r="A869" s="17"/>
+      <c r="A869" s="18"/>
       <c r="B869" s="8"/>
       <c r="D869" s="8"/>
       <c r="E869" s="8"/>
     </row>
     <row r="870">
-      <c r="A870" s="17"/>
+      <c r="A870" s="18"/>
       <c r="B870" s="8"/>
       <c r="D870" s="8"/>
       <c r="E870" s="8"/>
     </row>
     <row r="871">
-      <c r="A871" s="17"/>
+      <c r="A871" s="18"/>
       <c r="B871" s="8"/>
       <c r="D871" s="8"/>
       <c r="E871" s="8"/>
     </row>
     <row r="872">
-      <c r="A872" s="17"/>
+      <c r="A872" s="18"/>
       <c r="B872" s="8"/>
       <c r="D872" s="8"/>
       <c r="E872" s="8"/>
     </row>
     <row r="873">
-      <c r="A873" s="17"/>
+      <c r="A873" s="18"/>
       <c r="B873" s="8"/>
       <c r="D873" s="8"/>
       <c r="E873" s="8"/>
     </row>
     <row r="874">
-      <c r="A874" s="17"/>
+      <c r="A874" s="18"/>
       <c r="B874" s="8"/>
       <c r="D874" s="8"/>
       <c r="E874" s="8"/>
     </row>
     <row r="875">
-      <c r="A875" s="17"/>
+      <c r="A875" s="18"/>
       <c r="B875" s="8"/>
       <c r="D875" s="8"/>
       <c r="E875" s="8"/>
     </row>
     <row r="876">
-      <c r="A876" s="17"/>
+      <c r="A876" s="18"/>
       <c r="B876" s="8"/>
       <c r="D876" s="8"/>
       <c r="E876" s="8"/>
     </row>
     <row r="877">
-      <c r="A877" s="17"/>
+      <c r="A877" s="18"/>
       <c r="B877" s="8"/>
       <c r="D877" s="8"/>
       <c r="E877" s="8"/>
     </row>
     <row r="878">
-      <c r="A878" s="17"/>
+      <c r="A878" s="18"/>
       <c r="B878" s="8"/>
       <c r="D878" s="8"/>
       <c r="E878" s="8"/>
     </row>
     <row r="879">
-      <c r="A879" s="17"/>
+      <c r="A879" s="18"/>
       <c r="B879" s="8"/>
       <c r="D879" s="8"/>
       <c r="E879" s="8"/>
     </row>
     <row r="880">
-      <c r="A880" s="17"/>
+      <c r="A880" s="18"/>
       <c r="B880" s="8"/>
       <c r="D880" s="8"/>
       <c r="E880" s="8"/>
     </row>
     <row r="881">
-      <c r="A881" s="17"/>
+      <c r="A881" s="18"/>
       <c r="B881" s="8"/>
       <c r="D881" s="8"/>
       <c r="E881" s="8"/>
     </row>
     <row r="882">
-      <c r="A882" s="17"/>
+      <c r="A882" s="18"/>
       <c r="B882" s="8"/>
       <c r="D882" s="8"/>
       <c r="E882" s="8"/>
     </row>
     <row r="883">
-      <c r="A883" s="17"/>
+      <c r="A883" s="18"/>
       <c r="B883" s="8"/>
       <c r="D883" s="8"/>
       <c r="E883" s="8"/>
     </row>
     <row r="884">
-      <c r="A884" s="17"/>
+      <c r="A884" s="18"/>
       <c r="B884" s="8"/>
       <c r="D884" s="8"/>
       <c r="E884" s="8"/>
     </row>
     <row r="885">
-      <c r="A885" s="17"/>
+      <c r="A885" s="18"/>
       <c r="B885" s="8"/>
       <c r="D885" s="8"/>
       <c r="E885" s="8"/>
     </row>
     <row r="886">
-      <c r="A886" s="17"/>
+      <c r="A886" s="18"/>
       <c r="B886" s="8"/>
       <c r="D886" s="8"/>
       <c r="E886" s="8"/>
     </row>
     <row r="887">
-      <c r="A887" s="17"/>
+      <c r="A887" s="18"/>
       <c r="B887" s="8"/>
       <c r="D887" s="8"/>
       <c r="E887" s="8"/>
     </row>
     <row r="888">
-      <c r="A888" s="17"/>
+      <c r="A888" s="18"/>
       <c r="B888" s="8"/>
       <c r="D888" s="8"/>
       <c r="E888" s="8"/>
     </row>
     <row r="889">
-      <c r="A889" s="17"/>
+      <c r="A889" s="18"/>
       <c r="B889" s="8"/>
       <c r="D889" s="8"/>
       <c r="E889" s="8"/>
     </row>
     <row r="890">
-      <c r="A890" s="17"/>
+      <c r="A890" s="18"/>
       <c r="B890" s="8"/>
       <c r="D890" s="8"/>
       <c r="E890" s="8"/>
     </row>
     <row r="891">
-      <c r="A891" s="17"/>
+      <c r="A891" s="18"/>
       <c r="B891" s="8"/>
       <c r="D891" s="8"/>
       <c r="E891" s="8"/>
     </row>
     <row r="892">
-      <c r="A892" s="17"/>
+      <c r="A892" s="18"/>
       <c r="B892" s="8"/>
       <c r="D892" s="8"/>
       <c r="E892" s="8"/>
     </row>
     <row r="893">
-      <c r="A893" s="17"/>
+      <c r="A893" s="18"/>
       <c r="B893" s="8"/>
       <c r="D893" s="8"/>
       <c r="E893" s="8"/>
     </row>
     <row r="894">
-      <c r="A894" s="17"/>
+      <c r="A894" s="18"/>
       <c r="B894" s="8"/>
       <c r="D894" s="8"/>
       <c r="E894" s="8"/>
     </row>
     <row r="895">
-      <c r="A895" s="17"/>
+      <c r="A895" s="18"/>
       <c r="B895" s="8"/>
       <c r="D895" s="8"/>
       <c r="E895" s="8"/>
     </row>
     <row r="896">
-      <c r="A896" s="17"/>
+      <c r="A896" s="18"/>
       <c r="B896" s="8"/>
       <c r="D896" s="8"/>
       <c r="E896" s="8"/>
     </row>
     <row r="897">
-      <c r="A897" s="17"/>
+      <c r="A897" s="18"/>
       <c r="B897" s="8"/>
       <c r="D897" s="8"/>
       <c r="E897" s="8"/>
     </row>
     <row r="898">
-      <c r="A898" s="17"/>
+      <c r="A898" s="18"/>
       <c r="B898" s="8"/>
       <c r="D898" s="8"/>
       <c r="E898" s="8"/>
     </row>
     <row r="899">
-      <c r="A899" s="17"/>
+      <c r="A899" s="18"/>
       <c r="B899" s="8"/>
       <c r="D899" s="8"/>
       <c r="E899" s="8"/>
     </row>
     <row r="900">
-      <c r="A900" s="17"/>
+      <c r="A900" s="18"/>
       <c r="B900" s="8"/>
       <c r="D900" s="8"/>
       <c r="E900" s="8"/>
     </row>
     <row r="901">
-      <c r="A901" s="17"/>
+      <c r="A901" s="18"/>
       <c r="B901" s="8"/>
       <c r="D901" s="8"/>
       <c r="E901" s="8"/>
     </row>
     <row r="902">
-      <c r="A902" s="17"/>
+      <c r="A902" s="18"/>
       <c r="B902" s="8"/>
       <c r="D902" s="8"/>
       <c r="E902" s="8"/>
     </row>
     <row r="903">
-      <c r="A903" s="17"/>
+      <c r="A903" s="18"/>
       <c r="B903" s="8"/>
       <c r="D903" s="8"/>
       <c r="E903" s="8"/>
     </row>
     <row r="904">
-      <c r="A904" s="17"/>
+      <c r="A904" s="18"/>
       <c r="B904" s="8"/>
       <c r="D904" s="8"/>
       <c r="E904" s="8"/>
     </row>
     <row r="905">
-      <c r="A905" s="17"/>
+      <c r="A905" s="18"/>
       <c r="B905" s="8"/>
       <c r="D905" s="8"/>
       <c r="E905" s="8"/>
     </row>
     <row r="906">
-      <c r="A906" s="17"/>
+      <c r="A906" s="18"/>
       <c r="B906" s="8"/>
       <c r="D906" s="8"/>
       <c r="E906" s="8"/>
     </row>
     <row r="907">
-      <c r="A907" s="17"/>
+      <c r="A907" s="18"/>
       <c r="B907" s="8"/>
       <c r="D907" s="8"/>
       <c r="E907" s="8"/>
     </row>
     <row r="908">
-      <c r="A908" s="17"/>
+      <c r="A908" s="18"/>
       <c r="B908" s="8"/>
       <c r="D908" s="8"/>
       <c r="E908" s="8"/>
     </row>
     <row r="909">
-      <c r="A909" s="17"/>
+      <c r="A909" s="18"/>
       <c r="B909" s="8"/>
       <c r="D909" s="8"/>
       <c r="E909" s="8"/>
     </row>
     <row r="910">
-      <c r="A910" s="17"/>
+      <c r="A910" s="18"/>
       <c r="B910" s="8"/>
       <c r="D910" s="8"/>
       <c r="E910" s="8"/>
     </row>
     <row r="911">
-      <c r="A911" s="17"/>
+      <c r="A911" s="18"/>
       <c r="B911" s="8"/>
       <c r="D911" s="8"/>
       <c r="E911" s="8"/>
     </row>
     <row r="912">
-      <c r="A912" s="17"/>
+      <c r="A912" s="18"/>
       <c r="B912" s="8"/>
       <c r="D912" s="8"/>
       <c r="E912" s="8"/>
     </row>
     <row r="913">
-      <c r="A913" s="17"/>
+      <c r="A913" s="18"/>
       <c r="B913" s="8"/>
       <c r="D913" s="8"/>
       <c r="E913" s="8"/>
     </row>
     <row r="914">
-      <c r="A914" s="17"/>
+      <c r="A914" s="18"/>
       <c r="B914" s="8"/>
       <c r="D914" s="8"/>
       <c r="E914" s="8"/>
     </row>
     <row r="915">
-      <c r="A915" s="17"/>
+      <c r="A915" s="18"/>
       <c r="B915" s="8"/>
       <c r="D915" s="8"/>
       <c r="E915" s="8"/>
     </row>
     <row r="916">
-      <c r="A916" s="17"/>
+      <c r="A916" s="18"/>
       <c r="B916" s="8"/>
       <c r="D916" s="8"/>
       <c r="E916" s="8"/>
     </row>
     <row r="917">
-      <c r="A917" s="17"/>
+      <c r="A917" s="18"/>
       <c r="B917" s="8"/>
       <c r="D917" s="8"/>
       <c r="E917" s="8"/>
     </row>
     <row r="918">
-      <c r="A918" s="17"/>
+      <c r="A918" s="18"/>
       <c r="B918" s="8"/>
       <c r="D918" s="8"/>
       <c r="E918" s="8"/>
     </row>
     <row r="919">
-      <c r="A919" s="17"/>
+      <c r="A919" s="18"/>
       <c r="B919" s="8"/>
       <c r="D919" s="8"/>
       <c r="E919" s="8"/>
     </row>
     <row r="920">
-      <c r="A920" s="17"/>
+      <c r="A920" s="18"/>
       <c r="B920" s="8"/>
       <c r="D920" s="8"/>
       <c r="E920" s="8"/>
     </row>
     <row r="921">
-      <c r="A921" s="17"/>
+      <c r="A921" s="18"/>
       <c r="B921" s="8"/>
       <c r="D921" s="8"/>
       <c r="E921" s="8"/>
     </row>
     <row r="922">
-      <c r="A922" s="17"/>
+      <c r="A922" s="18"/>
       <c r="B922" s="8"/>
       <c r="D922" s="8"/>
       <c r="E922" s="8"/>
     </row>
     <row r="923">
-      <c r="A923" s="17"/>
+      <c r="A923" s="18"/>
       <c r="B923" s="8"/>
       <c r="D923" s="8"/>
       <c r="E923" s="8"/>
     </row>
     <row r="924">
-      <c r="A924" s="17"/>
+      <c r="A924" s="18"/>
       <c r="B924" s="8"/>
       <c r="D924" s="8"/>
       <c r="E924" s="8"/>
     </row>
     <row r="925">
-      <c r="A925" s="17"/>
+      <c r="A925" s="18"/>
       <c r="B925" s="8"/>
       <c r="D925" s="8"/>
       <c r="E925" s="8"/>
     </row>
     <row r="926">
-      <c r="A926" s="17"/>
+      <c r="A926" s="18"/>
       <c r="B926" s="8"/>
       <c r="D926" s="8"/>
       <c r="E926" s="8"/>
     </row>
     <row r="927">
-      <c r="A927" s="17"/>
+      <c r="A927" s="18"/>
       <c r="B927" s="8"/>
       <c r="D927" s="8"/>
       <c r="E927" s="8"/>
     </row>
     <row r="928">
-      <c r="A928" s="17"/>
+      <c r="A928" s="18"/>
       <c r="B928" s="8"/>
       <c r="D928" s="8"/>
       <c r="E928" s="8"/>
     </row>
     <row r="929">
-      <c r="A929" s="17"/>
+      <c r="A929" s="18"/>
       <c r="B929" s="8"/>
       <c r="D929" s="8"/>
       <c r="E929" s="8"/>
     </row>
     <row r="930">
-      <c r="A930" s="17"/>
+      <c r="A930" s="18"/>
       <c r="B930" s="8"/>
       <c r="D930" s="8"/>
       <c r="E930" s="8"/>
     </row>
     <row r="931">
-      <c r="A931" s="17"/>
+      <c r="A931" s="18"/>
       <c r="B931" s="8"/>
       <c r="D931" s="8"/>
       <c r="E931" s="8"/>
     </row>
     <row r="932">
-      <c r="A932" s="17"/>
+      <c r="A932" s="18"/>
       <c r="B932" s="8"/>
       <c r="D932" s="8"/>
       <c r="E932" s="8"/>
     </row>
     <row r="933">
-      <c r="A933" s="17"/>
+      <c r="A933" s="18"/>
       <c r="B933" s="8"/>
       <c r="D933" s="8"/>
       <c r="E933" s="8"/>
     </row>
     <row r="934">
-      <c r="A934" s="17"/>
+      <c r="A934" s="18"/>
       <c r="B934" s="8"/>
       <c r="D934" s="8"/>
       <c r="E934" s="8"/>
     </row>
     <row r="935">
-      <c r="A935" s="17"/>
+      <c r="A935" s="18"/>
       <c r="B935" s="8"/>
       <c r="D935" s="8"/>
       <c r="E935" s="8"/>
     </row>
     <row r="936">
-      <c r="A936" s="17"/>
+      <c r="A936" s="18"/>
       <c r="B936" s="8"/>
       <c r="D936" s="8"/>
       <c r="E936" s="8"/>
     </row>
     <row r="937">
-      <c r="A937" s="17"/>
+      <c r="A937" s="18"/>
       <c r="B937" s="8"/>
       <c r="D937" s="8"/>
       <c r="E937" s="8"/>
     </row>
     <row r="938">
-      <c r="A938" s="17"/>
+      <c r="A938" s="18"/>
       <c r="B938" s="8"/>
       <c r="D938" s="8"/>
       <c r="E938" s="8"/>
     </row>
     <row r="939">
-      <c r="A939" s="17"/>
+      <c r="A939" s="18"/>
       <c r="B939" s="8"/>
       <c r="D939" s="8"/>
       <c r="E939" s="8"/>
     </row>
     <row r="940">
-      <c r="A940" s="17"/>
+      <c r="A940" s="18"/>
       <c r="B940" s="8"/>
       <c r="D940" s="8"/>
       <c r="E940" s="8"/>
     </row>
     <row r="941">
-      <c r="A941" s="17"/>
+      <c r="A941" s="18"/>
       <c r="B941" s="8"/>
       <c r="D941" s="8"/>
       <c r="E941" s="8"/>
     </row>
     <row r="942">
-      <c r="A942" s="17"/>
+      <c r="A942" s="18"/>
       <c r="B942" s="8"/>
       <c r="D942" s="8"/>
       <c r="E942" s="8"/>
     </row>
     <row r="943">
-      <c r="A943" s="17"/>
+      <c r="A943" s="18"/>
       <c r="B943" s="8"/>
       <c r="D943" s="8"/>
       <c r="E943" s="8"/>
     </row>
     <row r="944">
-      <c r="A944" s="17"/>
+      <c r="A944" s="18"/>
       <c r="B944" s="8"/>
       <c r="D944" s="8"/>
       <c r="E944" s="8"/>
     </row>
     <row r="945">
-      <c r="A945" s="17"/>
+      <c r="A945" s="18"/>
       <c r="B945" s="8"/>
       <c r="D945" s="8"/>
       <c r="E945" s="8"/>
     </row>
     <row r="946">
-      <c r="A946" s="17"/>
+      <c r="A946" s="18"/>
       <c r="B946" s="8"/>
       <c r="D946" s="8"/>
       <c r="E946" s="8"/>
     </row>
     <row r="947">
-      <c r="A947" s="17"/>
+      <c r="A947" s="18"/>
       <c r="B947" s="8"/>
       <c r="D947" s="8"/>
       <c r="E947" s="8"/>
     </row>
     <row r="948">
-      <c r="A948" s="17"/>
+      <c r="A948" s="18"/>
       <c r="B948" s="8"/>
       <c r="D948" s="8"/>
       <c r="E948" s="8"/>
     </row>
     <row r="949">
-      <c r="A949" s="17"/>
+      <c r="A949" s="18"/>
       <c r="B949" s="8"/>
       <c r="D949" s="8"/>
       <c r="E949" s="8"/>
     </row>
     <row r="950">
-      <c r="A950" s="17"/>
+      <c r="A950" s="18"/>
       <c r="B950" s="8"/>
       <c r="D950" s="8"/>
       <c r="E950" s="8"/>
     </row>
     <row r="951">
-      <c r="A951" s="17"/>
+      <c r="A951" s="18"/>
       <c r="B951" s="8"/>
       <c r="D951" s="8"/>
       <c r="E951" s="8"/>
     </row>
     <row r="952">
-      <c r="A952" s="17"/>
+      <c r="A952" s="18"/>
       <c r="B952" s="8"/>
       <c r="D952" s="8"/>
       <c r="E952" s="8"/>
     </row>
     <row r="953">
-      <c r="A953" s="17"/>
+      <c r="A953" s="18"/>
       <c r="B953" s="8"/>
       <c r="D953" s="8"/>
       <c r="E953" s="8"/>
     </row>
     <row r="954">
-      <c r="A954" s="17"/>
+      <c r="A954" s="18"/>
       <c r="B954" s="8"/>
       <c r="D954" s="8"/>
       <c r="E954" s="8"/>
     </row>
     <row r="955">
-      <c r="A955" s="17"/>
+      <c r="A955" s="18"/>
       <c r="B955" s="8"/>
       <c r="D955" s="8"/>
       <c r="E955" s="8"/>
     </row>
     <row r="956">
-      <c r="A956" s="17"/>
+      <c r="A956" s="18"/>
       <c r="B956" s="8"/>
       <c r="D956" s="8"/>
       <c r="E956" s="8"/>
     </row>
     <row r="957">
-      <c r="A957" s="17"/>
+      <c r="A957" s="18"/>
       <c r="B957" s="8"/>
       <c r="D957" s="8"/>
       <c r="E957" s="8"/>
     </row>
     <row r="958">
-      <c r="A958" s="17"/>
+      <c r="A958" s="18"/>
       <c r="B958" s="8"/>
       <c r="D958" s="8"/>
       <c r="E958" s="8"/>
     </row>
     <row r="959">
-      <c r="A959" s="17"/>
+      <c r="A959" s="18"/>
       <c r="B959" s="8"/>
       <c r="D959" s="8"/>
       <c r="E959" s="8"/>
     </row>
     <row r="960">
-      <c r="A960" s="17"/>
+      <c r="A960" s="18"/>
       <c r="B960" s="8"/>
       <c r="D960" s="8"/>
       <c r="E960" s="8"/>
     </row>
     <row r="961">
-      <c r="A961" s="17"/>
+      <c r="A961" s="18"/>
       <c r="B961" s="8"/>
       <c r="D961" s="8"/>
       <c r="E961" s="8"/>
     </row>
     <row r="962">
-      <c r="A962" s="17"/>
+      <c r="A962" s="18"/>
       <c r="B962" s="8"/>
       <c r="D962" s="8"/>
       <c r="E962" s="8"/>
     </row>
     <row r="963">
-      <c r="A963" s="17"/>
+      <c r="A963" s="18"/>
       <c r="B963" s="8"/>
       <c r="D963" s="8"/>
       <c r="E963" s="8"/>
     </row>
     <row r="964">
-      <c r="A964" s="17"/>
+      <c r="A964" s="18"/>
       <c r="B964" s="8"/>
       <c r="D964" s="8"/>
       <c r="E964" s="8"/>
     </row>
     <row r="965">
-      <c r="A965" s="17"/>
+      <c r="A965" s="18"/>
       <c r="B965" s="8"/>
       <c r="D965" s="8"/>
       <c r="E965" s="8"/>
     </row>
     <row r="966">
-      <c r="A966" s="17"/>
+      <c r="A966" s="18"/>
       <c r="B966" s="8"/>
       <c r="D966" s="8"/>
       <c r="E966" s="8"/>
     </row>
     <row r="967">
-      <c r="A967" s="17"/>
+      <c r="A967" s="18"/>
       <c r="B967" s="8"/>
       <c r="D967" s="8"/>
       <c r="E967" s="8"/>
     </row>
     <row r="968">
-      <c r="A968" s="17"/>
+      <c r="A968" s="18"/>
       <c r="B968" s="8"/>
       <c r="D968" s="8"/>
       <c r="E968" s="8"/>
     </row>
     <row r="969">
-      <c r="A969" s="17"/>
+      <c r="A969" s="18"/>
       <c r="B969" s="8"/>
       <c r="D969" s="8"/>
       <c r="E969" s="8"/>
     </row>
     <row r="970">
-      <c r="A970" s="17"/>
+      <c r="A970" s="18"/>
       <c r="B970" s="8"/>
       <c r="D970" s="8"/>
       <c r="E970" s="8"/>
     </row>
     <row r="971">
-      <c r="A971" s="17"/>
+      <c r="A971" s="18"/>
       <c r="B971" s="8"/>
       <c r="D971" s="8"/>
       <c r="E971" s="8"/>
     </row>
     <row r="972">
-      <c r="A972" s="17"/>
+      <c r="A972" s="18"/>
       <c r="B972" s="8"/>
       <c r="D972" s="8"/>
       <c r="E972" s="8"/>
     </row>
     <row r="973">
-      <c r="A973" s="17"/>
+      <c r="A973" s="18"/>
       <c r="B973" s="8"/>
       <c r="D973" s="8"/>
       <c r="E973" s="8"/>
     </row>
     <row r="974">
-      <c r="A974" s="17"/>
+      <c r="A974" s="18"/>
       <c r="B974" s="8"/>
       <c r="D974" s="8"/>
       <c r="E974" s="8"/>
     </row>
     <row r="975">
-      <c r="A975" s="17"/>
+      <c r="A975" s="18"/>
       <c r="B975" s="8"/>
       <c r="D975" s="8"/>
       <c r="E975" s="8"/>
     </row>
     <row r="976">
-      <c r="A976" s="17"/>
+      <c r="A976" s="18"/>
       <c r="B976" s="8"/>
       <c r="D976" s="8"/>
       <c r="E976" s="8"/>
     </row>
     <row r="977">
-      <c r="A977" s="17"/>
+      <c r="A977" s="18"/>
       <c r="B977" s="8"/>
       <c r="D977" s="8"/>
       <c r="E977" s="8"/>
     </row>
     <row r="978">
-      <c r="A978" s="17"/>
+      <c r="A978" s="18"/>
       <c r="B978" s="8"/>
       <c r="D978" s="8"/>
       <c r="E978" s="8"/>
     </row>
     <row r="979">
-      <c r="A979" s="17"/>
+      <c r="A979" s="18"/>
       <c r="B979" s="8"/>
       <c r="D979" s="8"/>
       <c r="E979" s="8"/>
     </row>
     <row r="980">
-      <c r="A980" s="17"/>
+      <c r="A980" s="18"/>
       <c r="B980" s="8"/>
       <c r="D980" s="8"/>
       <c r="E980" s="8"/>
     </row>
     <row r="981">
-      <c r="A981" s="17"/>
+      <c r="A981" s="18"/>
       <c r="B981" s="8"/>
       <c r="D981" s="8"/>
       <c r="E981" s="8"/>
     </row>
     <row r="982">
-      <c r="A982" s="17"/>
+      <c r="A982" s="18"/>
       <c r="B982" s="8"/>
       <c r="D982" s="8"/>
       <c r="E982" s="8"/>
     </row>
     <row r="983">
-      <c r="A983" s="17"/>
+      <c r="A983" s="18"/>
       <c r="B983" s="8"/>
       <c r="D983" s="8"/>
       <c r="E983" s="8"/>
     </row>
     <row r="984">
-      <c r="A984" s="17"/>
+      <c r="A984" s="18"/>
       <c r="B984" s="8"/>
       <c r="D984" s="8"/>
       <c r="E984" s="8"/>
     </row>
     <row r="985">
-      <c r="A985" s="17"/>
+      <c r="A985" s="18"/>
       <c r="B985" s="8"/>
       <c r="D985" s="8"/>
       <c r="E985" s="8"/>
     </row>
     <row r="986">
-      <c r="A986" s="17"/>
+      <c r="A986" s="18"/>
       <c r="B986" s="8"/>
       <c r="D986" s="8"/>
       <c r="E986" s="8"/>
     </row>
     <row r="987">
-      <c r="A987" s="17"/>
+      <c r="A987" s="18"/>
       <c r="B987" s="8"/>
       <c r="D987" s="8"/>
       <c r="E987" s="8"/>
     </row>
     <row r="988">
-      <c r="A988" s="17"/>
+      <c r="A988" s="18"/>
       <c r="B988" s="8"/>
       <c r="D988" s="8"/>
       <c r="E988" s="8"/>
     </row>
     <row r="989">
-      <c r="A989" s="17"/>
+      <c r="A989" s="18"/>
       <c r="B989" s="8"/>
       <c r="D989" s="8"/>
       <c r="E989" s="8"/>
     </row>
     <row r="990">
-      <c r="A990" s="17"/>
+      <c r="A990" s="18"/>
       <c r="B990" s="8"/>
       <c r="D990" s="8"/>
       <c r="E990" s="8"/>
@@ -7652,7 +8294,8 @@
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/Comprobación preguntas competencia.xlsx
+++ b/Comprobación preguntas competencia.xlsx
@@ -143,12 +143,6 @@
 	-Mikel Emaldi Manrique</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11">
-      <text>
-        <t xml:space="preserve">Hay que solucionar el tema de Funding/FundingProgram primero.
-	-Mikel Emaldi Manrique</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="F10">
       <text>
         <t xml:space="preserve">A modificar cuando se arregle el tema de bibo:Patent.
@@ -172,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="183">
   <si>
     <t>id</t>
   </si>
@@ -191,6 +185,9 @@
   </si>
   <si>
     <t>Consulta SPARQL</t>
+  </si>
+  <si>
+    <t>Consulta SPARQL datos reales</t>
   </si>
   <si>
     <t xml:space="preserve">Como usuario requiero obtener un listado de los centros/estructuras de investigación que trabajan en un área/disciplina específica.
@@ -222,8 +219,22 @@
 PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
 PREFIX roh: &lt;http://purl.org/roh&gt;
 SELECT ?center WHERE { 
-	?center rdfs:subClassOf             foaf:Organization ;
-	               roh:hasKnowledgeArea &lt;http://someKnowledgeArea&gt; .
+        ?center rdfs:subClassOf             foaf:Organization ;
+                       roh:hasKnowledgeArea &lt;http://someKnowledgeArea&gt; .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX roh: &lt;http://purl.org/roh#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX foaf: &lt;http://xmlns.com/foaf/0.1/&gt;
+PREFIX unesco: &lt;http://purl.org/roh/unesco-individuals#&gt;
+PREFIX ro: &lt;http://purl.org/obo/owl/ro#&gt;
+SELECT ?centro WHERE {
+	?centro a roh:ResearchGroup ;
+  			roh:hasKnowledgeArea unesco:C00261 .
 }</t>
   </si>
   <si>
@@ -249,6 +260,20 @@
 	                       roh:hasKnowledgeArea &lt;http://someKnowledgeArea&gt; ;
                                                roh:hasPosition               ?position .
                        ?position vivo:relates                              ?center .
+}</t>
+  </si>
+  <si>
+    <t>PREFIX foaf: &lt;http://purl.org/roh/mirror/foaf#&gt;
+PREFIX unesco: &lt;http://purl.org/roh/unesco-individuals#&gt;
+PREFIX ro: &lt;http://purl.org/obo/owl/ro#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+SELECT ?researcher ?center ?positionClass
+WHERE {
+  ?researcher	roh:hasKnowledgeArea unesco:C00261 ;
+  				roh:hasPosition ?position .
+  ?position vivo:relates ?center ;
+  			a	?positionClass .
+  ?center a roh:ResearchGroup .
 }</t>
   </si>
   <si>
@@ -289,6 +314,14 @@
 SELECT ?center WHERE { 
 	?center          rdfs:subClassOf              foaf:Organization ;
                                                 roh:hasAccreditation      &lt;http://someAccreditation&gt; .
+}</t>
+  </si>
+  <si>
+    <t>SELECT ?center ?accreditationTitle
+WHERE {
+ ?center a roh:ResearchGroup ;
+         roh:hasAccreditation ?accreditation .
+ ?accreditation roh:title ?accreditationTitle
 }</t>
   </si>
   <si>
@@ -337,6 +370,23 @@
 }</t>
   </si>
   <si>
+    <t>PREFIX vivo: &lt;http://vivoweb.org/ontology/core#&gt;
+PREFIX roh: &lt;http://purl.org/roh#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+PREFIX bibo: &lt;http://purl.org/ontology/bibo/&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX foaf: &lt;http://purl.org/roh/mirror/foaf#&gt;
+PREFIX unesco: &lt;http://purl.org/roh/unesco-individuals#&gt;
+PREFIX ro: &lt;http://purl.org/obo/owl/ro#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+SELECT ?centro ?fundingProgram
+WHERE {
+  ?fundingAmount roh:grants ?centro .
+  ?funding obo:hasPart ?fundingAmount .
+  ?funding roh:fundedBy ?fundingProgram .
+}</t>
+  </si>
+  <si>
     <t>Como usuario requiero obtener un listado de la producción científica en un determinado rango de fechas de un centro/estructura de investigación en un área/disciplina. Para cada resultado se incluirán algunos metadatos importantes de la producción como, por ejemplo, DOI, año de publicación, etc.</t>
   </si>
   <si>
@@ -370,6 +420,9 @@
                          FILTER ((?date &gt; "fechaInicio"^^xsd:dateTime) &amp;&amp; (?date &lt; "fechaFin"^^xsd:dateTime))
 }
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hay que instalar el razonador en FUSEKI </t>
   </si>
   <si>
     <t>Como usuario requiero obtener una visualización en la que se recoja la distribución de la producción científica española, por ejemplo, de artículos publicados en revistas, según las comunidades autónomas en un rango de años.</t>
@@ -404,7 +457,44 @@
 }</t>
   </si>
   <si>
-    <t>Como usuario requiero comparar comunidades autónomas, universidades, grupos de investigación, etc. en determinados tópicos para identificar cuál es el más competitivo y por qué.</t>
+    <t>PREFIX vivo: &lt;http://purl.org/roh/mirror/vivo#&gt;
+PREFIX roh: &lt;http://purl.org/roh#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+PREFIX bibo: &lt;http://purl.org/roh/mirror/bibo#&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX foaf: &lt;http://purl.org/roh/mirror/foaf#&gt;
+PREFIX unesco: &lt;http://purl.org/roh/unesco-individuals#&gt;
+PREFIX ro: &lt;http://purl.org/obo/owl/ro#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX ero: &lt;http://purl.org/roh/mirror/obo/ero#&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX iao: &lt;http://purl.org/roh/mirror/obo/iao#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+SELECT
+(COUNT(DISTINCT ?publication) as ?publicationCount) ?location  
+WHERE {
+        ?publication         a iao:IAO_0000013 ;
+                              vivo:hasPublicationVenue        ?journal ;
+                        bibo:authorList        ?authorList .
+          ?journal        a bibo:Journal        ;
+                    vivo:dateIssued        ?dateTimeValue .            
+          ?authorList        ?order        ?author .
+          ?dateTimeValue        vivo:dateTime        ?dateTime .
+          ?author vivo:relatedBy        ?position ;
+                   a        foaf:Person .
+          ?position         a        ?positionClass        ;
+                                    vivo:relates        ?organization .
+          ?positionClass        rdfs:subClassOf        vivo:Position        .
+          ?organization        a ?organizationClass ;
+                         gn:locatedIn        ?location .
+} GROUP BY ?location</t>
+  </si>
+  <si>
+    <t>Queda mirar cómo sacar la comunidad autónoma de geonames con una única query</t>
+  </si>
+  <si>
+    <t>Como usuario requiero comparar comunidades autónomas, universidades, grupos de investigación, etc. en determinados tópicos para identificar cuál es el más competitivo y por qué.
+ADAPTACIÓN: dado un grupo sacar la producción científica (ResearchObjects) agrupados por tipo, es decir, publicaciones, patentes</t>
   </si>
   <si>
     <t>Pregunta muy poco clara. 
@@ -474,7 +564,35 @@
     <t>Tipo de proyecto: competitivo o no competitivo, Tipo de financiamiento: público o privado.</t>
   </si>
   <si>
-    <t>Como usuario académico no investigador necesito conocer el tamaño, experiencia y envejecimiento de un área de investigación a escala de universidad, regional, nacional.</t>
+    <t xml:space="preserve">PREFIX vivo: &lt;http://purl.org/roh/mirror/vivo#&gt;
+PREFIX roh: &lt;http://purl.org/roh#&gt;
+PREFIX obo: &lt;http://purl.obolibrary.org/obo/&gt;
+PREFIX bibo: &lt;http://purl.org/roh/mirror/bibo#&gt;
+PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX foaf: &lt;http://purl.org/roh/mirror/foaf#&gt;
+PREFIX unesco: &lt;http://purl.org/roh/unesco-individuals#&gt;
+PREFIX ro: &lt;http://purl.org/obo/owl/ro#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX ero: &lt;http://purl.org/roh/mirror/obo/ero#&gt;
+PREFIX gn: &lt;http://www.geonames.org/ontology#&gt;
+PREFIX iao: &lt;http://purl.org/roh/mirror/obo/iao#&gt;
+PREFIX dc: &lt;http://purl.org/dc/elements/1.1/&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+SELECT ?project ?knowledgeArea ?startTime ?endTime WHERE {
+	?project vivo:relates ?role ;
+    		roh:hasKnowledgeArea ?knowledgeArea ;
+  			vivo:dateTimeInterval	?dateTimeInterval .
+  	?dateTimeInterval vivo:start	?startDateTime ;
+                     	vivo:end	?endDateTime .
+  	?startDateTime vivo:dateTime	?startTime .
+  	?endDateTime	vivo:dateTime	?endTime .
+  	?role roh:roleOf	&lt;http://mysite/centro-investigacion-1&gt; .
+  FILTER (YEAR(?startTime) &lt;= "2019"^^xsd:integer &amp;&amp; YEAR(?endTime) &gt;= "2019"^^xsd:integer)
+}  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Como usuario académico no investigador necesito conocer el tamaño, experiencia y envejecimiento de un área de investigación a escala de universidad, regional, nacional.
+ADAPTACION: dada un área de conocimiento encontrar el research object más antiguo y reciente de una organización. </t>
   </si>
   <si>
     <t xml:space="preserve">Se puede ver, según un área de conocimiento, sus proyectos/organizaciones y a partir de ahí las fechas de los proyectos, o los datos que necesitemos. Por tamaño sería el número de entraddas en research_result de una organization y por envejecimiento periodo de tiempo desde que se obtuvo el último resultado </t>
@@ -492,7 +610,8 @@
 }</t>
   </si>
   <si>
-    <t>Como usuario necesito conocer el porcentaje de participación de un centro/estructura de investigación en proyectos nacionales o europeos.</t>
+    <t>Como usuario necesito conocer el porcentaje de participación de un centro/estructura de investigación en proyectos nacionales o europeos.
+ADAPTACION: listas proyectos agrupados por ámbito geográfico</t>
   </si>
   <si>
     <t>Se puede, a través de Organization y luego Project &gt; Funder, obtener el área geográfica y de ahí calcular estadísticas</t>
@@ -501,7 +620,8 @@
     <t>Añadido geographicalScope a Organization para así poder discernir ámbito geográfico de Funders (subclases) u otras entidades (partners) con las que colabora una organización</t>
   </si>
   <si>
-    <t>Como investigador, personal no investigador de la universidad requiero insertar/modificar los datos relacionados con los proyectos de investigación, incluyendo los entregables que se hayan generado en la fase de propuesta. El usuario tendrá acceso a esta información según el nivel de acceso que se le haya proporcionado previamente según su rol, según niveles de confidencialidad de ser el caso. Entre los datos que se proporcionarán por cada proyecto se tendrá al menos:</t>
+    <t>Como investigador, personal no investigador de la universidad requiero insertar/modificar los datos relacionados con los proyectos de investigación, incluyendo los entregables que se hayan generado en la fase de propuesta. El usuario tendrá acceso a esta información según el nivel de acceso que se le haya proporcionado previamente según su rol, según niveles de confidencialidad de ser el caso. Entre los datos que se proporcionarán por cada proyecto se tendrá al menos:
+ADAPTACIÓN: dado un proyecto listar los documentos de su dossier</t>
   </si>
   <si>
     <t>No hay sistema de roles/permisos para acceso granular</t>
@@ -563,7 +683,8 @@
 }</t>
   </si>
   <si>
-    <t>Identificar proyectos con temática y objetivos científicos similares. En este caso, el usuario podrá acceder a visualizaciones comparativas de la información de proyectos similares.</t>
+    <t xml:space="preserve">Identificar proyectos con temática y objetivos científicos similares. En este caso, el usuario podrá acceder a visualizaciones comparativas de la información de proyectos similares.
+ADAPTACIÓN: listar proyectos con el mismo subject area o con subject areas relacionadas por parentesco, mirando en el árbol </t>
   </si>
   <si>
     <t>No existe el concepto de objetivos científicos (resuelto con researchLines de un proyecto), pero por lo demás es simplemente hacer una consulta de dos o más proyectos y ponerlos uno al lado del otro para comparar</t>
@@ -573,13 +694,15 @@
   </si>
   <si>
     <t xml:space="preserve">Como usuario necesito una visualización que me permita analizar la evolución de un investigador, conjunto de investigadores o líneas de investigación a través de los resultados de los proyectos realizados. Se podrá hacer una selección de los proyectos a incluir. El usuario podrá acceder a visualizaciones comparativas de la información de investigadores, conjuntos de investigadores o líneas de investigación seleccionados.
+ADAPTACIÓN: Dada una persona listar proyectos en los que ha intervenido, research objects a los que ha contribuido, filtrados por periodo y/o organización
 </t>
   </si>
   <si>
     <t>Pregunta poco concreta. Se puede obtener una lista de resultados por proyecto (ResearchObject). Se podría hacer una comparativa agrupando por años los totales de proyectos, publicaciones de un persona, grupo de personas u organización</t>
   </si>
   <si>
-    <t>Como usuario necesito obtener el listado de indicadores con su respectivo valor y unidad de medida (porcentaje, número, etc.) calculados en un periodo de tiempo, ya sea para toda la universidad o para cada centro/estructura de investigación de cada universidad.</t>
+    <t>Como usuario necesito obtener el listado de indicadores con su respectivo valor y unidad de medida (porcentaje, número, etc.) calculados en un periodo de tiempo, ya sea para toda la universidad o para cada centro/estructura de investigación de cada universidad.
+ADAPTACIÓN: dada una organización, en un periodo de tiempo, listar research projects o proyectos</t>
   </si>
   <si>
     <t>Todos los research objects, proyectos activies están acotadas por periodos temporales. Some indicators will be calculated by applying queries to the ROH that count results in a time range, whilst others will query directry the entity Metric</t>
@@ -597,13 +720,15 @@
     <t>Los datos que permitan hacer esta predicción están en la ontología, pero habría que hacer un algoritmo basado en redes bayesianas por ejemplo para poder hacer estos cálculos</t>
   </si>
   <si>
-    <t>Como usuario necesito detectar tendencias en áreas y líneas investigación a partir de los datos disponibles en Hércules.</t>
+    <t>Como usuario necesito detectar tendencias en áreas y líneas investigación a partir de los datos disponibles en Hércules.
+ADAPTACIÓN: listar las áreas de conocimiento más abordadas por una organización en proyectos o publicaciones en un periodo de tiempo</t>
   </si>
   <si>
     <t>Se podrían realizar consultas que obtuvieran totales en determinados resultados de investigación en diferentes periodos del tiempo, con los que detectar tendencias</t>
   </si>
   <si>
-    <t>Como usuario necesito cuantificar la contribución de cada investigador, línea de investigación, área de conocimiento, centro de investigación, comunidad autónoma, etc. a cada indicador.</t>
+    <t>Como usuario necesito cuantificar la contribución de cada investigador, línea de investigación, área de conocimiento, centro de investigación, comunidad autónoma, etc. a cada indicador.
+ADAPTACIÓN: contar research objects de diferentes tipos o proyectos a nivel persona, línea, área de conocimeinto u organización</t>
   </si>
   <si>
     <t>Se podría hacer</t>
@@ -624,7 +749,8 @@
     <t xml:space="preserve">Se puede resolver como un conjunto de consultos. Primero se realizarían consultas más genéricas en diferentes ámbitos geográficos, o en diferente nivel de organización dentro de una universidad, y se compararían los valores obtenidos a nivel global con cada una de las especializaciones, más concretas. </t>
   </si>
   <si>
-    <t xml:space="preserve">Como decisor tengo interés en conocer el perfil y evolución de la relación de investigación y transferencia de una empresa con un conjunto de centros de investigación en un período de tiempo.  </t>
+    <t>Como decisor tengo interés en conocer el perfil y evolución de la relación de investigación y transferencia de una empresa con un conjunto de centros de investigación en un período de tiempo.  
+ADAPTACIÓN: data una empresa encontrar los proyectos en los que ha colaborado con los grupos de una universidad</t>
   </si>
   <si>
     <t>Dada una organización es posible extraer todas sus interacciones a través de participación en proyectos y resultados de investigación con diferentes universidades. Todos los proyectos están anotados por el rango temporal en el que se ejecutan</t>
@@ -660,7 +786,16 @@
     <t>Necesidad de tener rol organizador, todos los tipos de roles que un investigador puede tener en una conferencia</t>
   </si>
   <si>
-    <t>Obtener el listado de patentes, diseños industriales, etc. que haya registrado como titular o cotitular X o Y persona, Z o K institución</t>
+    <r>
+      <t xml:space="preserve">Obtener el listado de patentes, diseños industriales, etc. que haya registrado como titular o cotitular X o Y persona, Z o K institución
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>DUDA: tenemos que marcar las patentes según organización. Cómo recuperarlo a nivel de organización</t>
+    </r>
   </si>
   <si>
     <t>A través de la entidad Participation puede obtenerse tal resultado</t>
@@ -719,7 +854,16 @@
 </t>
   </si>
   <si>
-    <t>Obtener el listado de startup o spin-off que he fundado o de las que he sido socio</t>
+    <r>
+      <t xml:space="preserve">Obtener el listado de startup o spin-off que he fundado o de las que he sido socio
+</t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FFFF0000"/>
+      </rPr>
+      <t>DUDA: no lo hemos modelado todavía</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Ahora mismo el modelo no recoge esto. </t>
@@ -765,7 +909,8 @@
 }</t>
   </si>
   <si>
-    <t>Saber si soy apto para solicitar una evaluación relativa al nuevo sexenio de transferencia del conocimiento e innovación  o alguna de las evaluaciones que realiza la ANECA .</t>
+    <t>Saber si soy apto para solicitar una evaluación relativa al nuevo sexenio de transferencia del conocimiento e innovación  o alguna de las evaluaciones que realiza la ANECA .
+ADAPTACIÓN: dado un periodo de 6 años devuelveme el número de academic articles con factor de impacto y determina si es mayor 5</t>
   </si>
   <si>
     <t>A través de la propiedad hasPublicationMetric de Periodical (publicación en revista indexada) se puede acceder al cuartil y factor de impacto de tal publicación y los rankings en diferentes temáticas</t>
@@ -774,7 +919,8 @@
     <t>Añadido PublicationMetric subclase de Metric, que tiene atributos quartile, impact factor y ranks y está ligada a Periodical a través de hasPublicationMetric</t>
   </si>
   <si>
-    <t>Introducir ofertas tecnológicas dirigidas a empresas, para lo cual tendré que describir la oferta, asociarle un nivel de madurez (TRL) y asociar evidencias que soporten el nivel de madurez asignado.</t>
+    <t>Introducir ofertas tecnológicas dirigidas a empresas, para lo cual tendré que describir la oferta, asociarle un nivel de madurez (TRL) y asociar evidencias que soporten el nivel de madurez asignado.
+ADAPTACIÓN: propuestas dirigidas a una empresa e incluso detalles económicos de la misma</t>
   </si>
   <si>
     <t>No está contemplado</t>
@@ -783,13 +929,15 @@
     <t>Ministerio y Gobiernos regionales</t>
   </si>
   <si>
-    <t>Puedo ver el avance justificación técnica y económica de proyectos nacionales/regionales en colaboración entre universidades (agregado y detallado por categoría de gasto)?</t>
+    <t>Puedo ver el avance justificación técnica y económica de proyectos nacionales/regionales en colaboración entre universidades (agregado y detallado por categoría de gasto)?
+ADAPTACIÓN: listar los documentos justificación asociados a un proyecto y además fechas de justificación y también podríamos listar gastos</t>
   </si>
   <si>
     <t>No está contemplado, aunque sí podemos obtener todos los gastos de un proyecto en el tiempo</t>
   </si>
   <si>
-    <t>Estadísticas: ¿Puedo hacer un ranking de universidades que más fondos han obtenido por temática a nivel nacional o regional?</t>
+    <t xml:space="preserve">Estadísticas: ¿Puedo hacer un ranking de universidades que más fondos han obtenido por temática a nivel nacional o regional?
+ADAPTACIÓN: listar los grupos ordenados por financiación recibida en un periodo que pertenecen a una organización </t>
   </si>
   <si>
     <t>Se puede hacer si hay estandarización en cuanto a las temáticas</t>
@@ -1115,7 +1263,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1144,6 +1292,7 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font/>
     <font>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -1152,10 +1301,6 @@
     <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font/>
-    <font>
-      <b/>
     </font>
   </fonts>
   <fills count="3">
@@ -1178,7 +1323,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1210,16 +1355,13 @@
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
@@ -1228,7 +1370,6 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1488,6 +1629,8 @@
     <col customWidth="1" min="4" max="4" width="58.71"/>
     <col customWidth="1" min="5" max="5" width="63.14"/>
     <col customWidth="1" min="6" max="6" width="94.71"/>
+    <col customWidth="1" min="7" max="7" width="56.57"/>
+    <col customWidth="1" min="8" max="8" width="31.29"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1509,7 +1652,9 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1537,17 +1682,20 @@
         <v>1.0</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="8"/>
       <c r="F2" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1555,19 +1703,22 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="4">
@@ -1575,16 +1726,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -1592,19 +1743,22 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6">
@@ -1612,17 +1766,20 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="7" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -1630,19 +1787,22 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
@@ -1650,19 +1810,25 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9">
@@ -1670,16 +1836,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10">
@@ -1687,19 +1853,19 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11">
@@ -1707,16 +1873,19 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>42</v>
+        <v>50</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12">
@@ -1724,17 +1893,17 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="E12" s="8"/>
       <c r="F12" s="7" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13">
@@ -1742,16 +1911,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14">
@@ -1759,16 +1928,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
@@ -1776,19 +1945,19 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
@@ -1796,30 +1965,30 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
         <v>16.0</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>58</v>
+      <c r="B17" s="11" t="s">
+        <v>67</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E17" s="8"/>
     </row>
@@ -1829,13 +1998,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="E18" s="8"/>
     </row>
@@ -1845,13 +2014,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E19" s="8"/>
     </row>
@@ -1861,13 +2030,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E20" s="8"/>
     </row>
@@ -1877,13 +2046,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="E21" s="8"/>
     </row>
@@ -1893,16 +2062,16 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="E22" s="6" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23">
@@ -1911,13 +2080,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="E23" s="8"/>
     </row>
@@ -1927,13 +2096,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="E24" s="8"/>
     </row>
@@ -1943,13 +2112,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="E25" s="8"/>
     </row>
@@ -1959,19 +2128,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>79</v>
+        <v>87</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -1980,16 +2149,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -1998,17 +2167,17 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E28" s="12"/>
+        <v>94</v>
+      </c>
+      <c r="E28" s="6"/>
       <c r="F28" s="7" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -2017,17 +2186,17 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="E29" s="8"/>
-      <c r="F29" s="13" t="s">
-        <v>89</v>
+      <c r="F29" s="7" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -2036,17 +2205,17 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E30" s="8"/>
-      <c r="F30" s="13" t="s">
-        <v>92</v>
+      <c r="F30" s="7" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31">
@@ -2055,16 +2224,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="E31" s="6" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -2073,16 +2242,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33">
@@ -2091,17 +2260,17 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="E33" s="8"/>
       <c r="F33" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -2110,16 +2279,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="E34" s="6" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35">
@@ -2128,47 +2297,47 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E35" s="8"/>
     </row>
     <row r="36">
       <c r="A36" s="5"/>
-      <c r="B36" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="15"/>
-      <c r="I36" s="15"/>
-      <c r="J36" s="15"/>
-      <c r="K36" s="15"/>
-      <c r="L36" s="15"/>
-      <c r="M36" s="15"/>
-      <c r="N36" s="15"/>
-      <c r="O36" s="15"/>
-      <c r="P36" s="15"/>
-      <c r="Q36" s="15"/>
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
-      <c r="T36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="15"/>
-      <c r="Y36" s="15"/>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
+      <c r="B36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+      <c r="T36" s="14"/>
+      <c r="U36" s="14"/>
+      <c r="V36" s="14"/>
+      <c r="W36" s="14"/>
+      <c r="X36" s="14"/>
+      <c r="Y36" s="14"/>
+      <c r="Z36" s="14"/>
+      <c r="AA36" s="14"/>
+      <c r="AB36" s="14"/>
     </row>
     <row r="37">
       <c r="A37" s="5">
@@ -2176,13 +2345,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="E37" s="8"/>
     </row>
@@ -2192,19 +2361,19 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="E38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="39">
@@ -2213,13 +2382,13 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40">
@@ -2228,14 +2397,14 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="6" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41">
@@ -2244,19 +2413,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="E41" s="6" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="42">
@@ -2265,13 +2434,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E42" s="8"/>
     </row>
@@ -2281,47 +2450,47 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E43" s="8"/>
     </row>
     <row r="44">
       <c r="A44" s="5"/>
-      <c r="B44" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="15"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
-      <c r="H44" s="15"/>
-      <c r="I44" s="15"/>
-      <c r="J44" s="15"/>
-      <c r="K44" s="15"/>
-      <c r="L44" s="15"/>
-      <c r="M44" s="15"/>
-      <c r="N44" s="15"/>
-      <c r="O44" s="15"/>
-      <c r="P44" s="15"/>
-      <c r="Q44" s="15"/>
-      <c r="R44" s="15"/>
-      <c r="S44" s="15"/>
-      <c r="T44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="V44" s="15"/>
-      <c r="W44" s="15"/>
-      <c r="X44" s="15"/>
-      <c r="Y44" s="15"/>
-      <c r="Z44" s="15"/>
-      <c r="AA44" s="15"/>
-      <c r="AB44" s="15"/>
+      <c r="B44" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="14"/>
+      <c r="L44" s="14"/>
+      <c r="M44" s="14"/>
+      <c r="N44" s="14"/>
+      <c r="O44" s="14"/>
+      <c r="P44" s="14"/>
+      <c r="Q44" s="14"/>
+      <c r="R44" s="14"/>
+      <c r="S44" s="14"/>
+      <c r="T44" s="14"/>
+      <c r="U44" s="14"/>
+      <c r="V44" s="14"/>
+      <c r="W44" s="14"/>
+      <c r="X44" s="14"/>
+      <c r="Y44" s="14"/>
+      <c r="Z44" s="14"/>
+      <c r="AA44" s="14"/>
+      <c r="AB44" s="14"/>
     </row>
     <row r="45">
       <c r="A45" s="5">
@@ -2329,16 +2498,16 @@
         <v>42</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="E45" s="6" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
       <c r="F45" s="8"/>
     </row>
@@ -2348,16 +2517,16 @@
         <v>43</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="E46" s="6" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47">
@@ -2366,13 +2535,13 @@
         <v>44</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="E47" s="8"/>
     </row>
@@ -2382,50 +2551,50 @@
         <v>45</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="6" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="5"/>
-      <c r="B49" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C49" s="15"/>
-      <c r="D49" s="16"/>
-      <c r="E49" s="16"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="15"/>
-      <c r="H49" s="15"/>
-      <c r="I49" s="15"/>
-      <c r="J49" s="15"/>
-      <c r="K49" s="15"/>
-      <c r="L49" s="15"/>
-      <c r="M49" s="15"/>
-      <c r="N49" s="15"/>
-      <c r="O49" s="15"/>
-      <c r="P49" s="15"/>
-      <c r="Q49" s="15"/>
-      <c r="R49" s="15"/>
-      <c r="S49" s="15"/>
-      <c r="T49" s="15"/>
-      <c r="U49" s="15"/>
-      <c r="V49" s="15"/>
-      <c r="W49" s="15"/>
-      <c r="X49" s="15"/>
-      <c r="Y49" s="15"/>
-      <c r="Z49" s="15"/>
-      <c r="AA49" s="15"/>
-      <c r="AB49" s="15"/>
+      <c r="B49" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49" s="14"/>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="14"/>
+      <c r="J49" s="14"/>
+      <c r="K49" s="14"/>
+      <c r="L49" s="14"/>
+      <c r="M49" s="14"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
+      <c r="R49" s="14"/>
+      <c r="S49" s="14"/>
+      <c r="T49" s="14"/>
+      <c r="U49" s="14"/>
+      <c r="V49" s="14"/>
+      <c r="W49" s="14"/>
+      <c r="X49" s="14"/>
+      <c r="Y49" s="14"/>
+      <c r="Z49" s="14"/>
+      <c r="AA49" s="14"/>
+      <c r="AB49" s="14"/>
     </row>
     <row r="50">
       <c r="A50" s="5">
@@ -2433,19 +2602,19 @@
         <v>46</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="51">
@@ -2454,23 +2623,23 @@
         <v>47</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="5"/>
-      <c r="B52" s="14" t="s">
-        <v>146</v>
+      <c r="B52" s="13" t="s">
+        <v>155</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
@@ -2481,13 +2650,13 @@
         <v>48</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C53" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="E53" s="8"/>
     </row>
@@ -2497,17 +2666,17 @@
         <v>49</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="C54" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="E54" s="6"/>
       <c r="F54" s="7" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55">
@@ -2516,16 +2685,16 @@
         <v>50</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C55" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="E55" s="6" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56">
@@ -2534,13 +2703,13 @@
         <v>51</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="C56" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="E56" s="8"/>
     </row>
@@ -2550,17 +2719,17 @@
         <v>52</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="C57" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="E57" s="8"/>
       <c r="F57" s="7" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58">
@@ -2569,19 +2738,19 @@
         <v>53</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="C58" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="E58" s="6" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
     </row>
     <row r="59">
@@ -2590,13 +2759,13 @@
         <v>54</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E59" s="8"/>
     </row>
@@ -2606,16 +2775,16 @@
         <v>55</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="E60" s="6" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61">
@@ -2624,17 +2793,17 @@
         <v>56</v>
       </c>
       <c r="B61" s="6" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C61" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="6" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62">
@@ -2643,13 +2812,13 @@
         <v>57</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="C62" s="7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="E62" s="8"/>
     </row>
@@ -2825,5455 +2994,5455 @@
       <c r="E81" s="8"/>
     </row>
     <row r="82">
-      <c r="A82" s="18"/>
+      <c r="A82" s="16"/>
       <c r="B82" s="8"/>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83">
-      <c r="A83" s="18"/>
+      <c r="A83" s="16"/>
       <c r="B83" s="8"/>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84">
-      <c r="A84" s="18"/>
+      <c r="A84" s="16"/>
       <c r="B84" s="8"/>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85">
-      <c r="A85" s="18"/>
+      <c r="A85" s="16"/>
       <c r="B85" s="8"/>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
     </row>
     <row r="86">
-      <c r="A86" s="18"/>
+      <c r="A86" s="16"/>
       <c r="B86" s="8"/>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
     </row>
     <row r="87">
-      <c r="A87" s="18"/>
+      <c r="A87" s="16"/>
       <c r="B87" s="8"/>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
     </row>
     <row r="88">
-      <c r="A88" s="18"/>
+      <c r="A88" s="16"/>
       <c r="B88" s="8"/>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
     </row>
     <row r="89">
-      <c r="A89" s="18"/>
+      <c r="A89" s="16"/>
       <c r="B89" s="8"/>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
     </row>
     <row r="90">
-      <c r="A90" s="18"/>
+      <c r="A90" s="16"/>
       <c r="B90" s="8"/>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
     </row>
     <row r="91">
-      <c r="A91" s="18"/>
+      <c r="A91" s="16"/>
       <c r="B91" s="8"/>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
     </row>
     <row r="92">
-      <c r="A92" s="18"/>
+      <c r="A92" s="16"/>
       <c r="B92" s="8"/>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
     </row>
     <row r="93">
-      <c r="A93" s="18"/>
+      <c r="A93" s="16"/>
       <c r="B93" s="8"/>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
     </row>
     <row r="94">
-      <c r="A94" s="18"/>
+      <c r="A94" s="16"/>
       <c r="B94" s="8"/>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
     </row>
     <row r="95">
-      <c r="A95" s="18"/>
+      <c r="A95" s="16"/>
       <c r="B95" s="8"/>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
     </row>
     <row r="96">
-      <c r="A96" s="18"/>
+      <c r="A96" s="16"/>
       <c r="B96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
     </row>
     <row r="97">
-      <c r="A97" s="18"/>
+      <c r="A97" s="16"/>
       <c r="B97" s="8"/>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
     </row>
     <row r="98">
-      <c r="A98" s="18"/>
+      <c r="A98" s="16"/>
       <c r="B98" s="8"/>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
     </row>
     <row r="99">
-      <c r="A99" s="18"/>
+      <c r="A99" s="16"/>
       <c r="B99" s="8"/>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
     </row>
     <row r="100">
-      <c r="A100" s="18"/>
+      <c r="A100" s="16"/>
       <c r="B100" s="8"/>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
     </row>
     <row r="101">
-      <c r="A101" s="18"/>
+      <c r="A101" s="16"/>
       <c r="B101" s="8"/>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
     </row>
     <row r="102">
-      <c r="A102" s="18"/>
+      <c r="A102" s="16"/>
       <c r="B102" s="8"/>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
     </row>
     <row r="103">
-      <c r="A103" s="18"/>
+      <c r="A103" s="16"/>
       <c r="B103" s="8"/>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
     </row>
     <row r="104">
-      <c r="A104" s="18"/>
+      <c r="A104" s="16"/>
       <c r="B104" s="8"/>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
     </row>
     <row r="105">
-      <c r="A105" s="18"/>
+      <c r="A105" s="16"/>
       <c r="B105" s="8"/>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
     </row>
     <row r="106">
-      <c r="A106" s="18"/>
+      <c r="A106" s="16"/>
       <c r="B106" s="8"/>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
     </row>
     <row r="107">
-      <c r="A107" s="18"/>
+      <c r="A107" s="16"/>
       <c r="B107" s="8"/>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
     </row>
     <row r="108">
-      <c r="A108" s="18"/>
+      <c r="A108" s="16"/>
       <c r="B108" s="8"/>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
     </row>
     <row r="109">
-      <c r="A109" s="18"/>
+      <c r="A109" s="16"/>
       <c r="B109" s="8"/>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
     </row>
     <row r="110">
-      <c r="A110" s="18"/>
+      <c r="A110" s="16"/>
       <c r="B110" s="8"/>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
     </row>
     <row r="111">
-      <c r="A111" s="18"/>
+      <c r="A111" s="16"/>
       <c r="B111" s="8"/>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
     </row>
     <row r="112">
-      <c r="A112" s="18"/>
+      <c r="A112" s="16"/>
       <c r="B112" s="8"/>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
     </row>
     <row r="113">
-      <c r="A113" s="18"/>
+      <c r="A113" s="16"/>
       <c r="B113" s="8"/>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
     </row>
     <row r="114">
-      <c r="A114" s="18"/>
+      <c r="A114" s="16"/>
       <c r="B114" s="8"/>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
     </row>
     <row r="115">
-      <c r="A115" s="18"/>
+      <c r="A115" s="16"/>
       <c r="B115" s="8"/>
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
     </row>
     <row r="116">
-      <c r="A116" s="18"/>
+      <c r="A116" s="16"/>
       <c r="B116" s="8"/>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
     </row>
     <row r="117">
-      <c r="A117" s="18"/>
+      <c r="A117" s="16"/>
       <c r="B117" s="8"/>
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
     </row>
     <row r="118">
-      <c r="A118" s="18"/>
+      <c r="A118" s="16"/>
       <c r="B118" s="8"/>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
     </row>
     <row r="119">
-      <c r="A119" s="18"/>
+      <c r="A119" s="16"/>
       <c r="B119" s="8"/>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
     </row>
     <row r="120">
-      <c r="A120" s="18"/>
+      <c r="A120" s="16"/>
       <c r="B120" s="8"/>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
     </row>
     <row r="121">
-      <c r="A121" s="18"/>
+      <c r="A121" s="16"/>
       <c r="B121" s="8"/>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
     </row>
     <row r="122">
-      <c r="A122" s="18"/>
+      <c r="A122" s="16"/>
       <c r="B122" s="8"/>
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
     </row>
     <row r="123">
-      <c r="A123" s="18"/>
+      <c r="A123" s="16"/>
       <c r="B123" s="8"/>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
     </row>
     <row r="124">
-      <c r="A124" s="18"/>
+      <c r="A124" s="16"/>
       <c r="B124" s="8"/>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
     </row>
     <row r="125">
-      <c r="A125" s="18"/>
+      <c r="A125" s="16"/>
       <c r="B125" s="8"/>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
     </row>
     <row r="126">
-      <c r="A126" s="18"/>
+      <c r="A126" s="16"/>
       <c r="B126" s="8"/>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
     </row>
     <row r="127">
-      <c r="A127" s="18"/>
+      <c r="A127" s="16"/>
       <c r="B127" s="8"/>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
     </row>
     <row r="128">
-      <c r="A128" s="18"/>
+      <c r="A128" s="16"/>
       <c r="B128" s="8"/>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
     </row>
     <row r="129">
-      <c r="A129" s="18"/>
+      <c r="A129" s="16"/>
       <c r="B129" s="8"/>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
     </row>
     <row r="130">
-      <c r="A130" s="18"/>
+      <c r="A130" s="16"/>
       <c r="B130" s="8"/>
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
     </row>
     <row r="131">
-      <c r="A131" s="18"/>
+      <c r="A131" s="16"/>
       <c r="B131" s="8"/>
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
     </row>
     <row r="132">
-      <c r="A132" s="18"/>
+      <c r="A132" s="16"/>
       <c r="B132" s="8"/>
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
     </row>
     <row r="133">
-      <c r="A133" s="18"/>
+      <c r="A133" s="16"/>
       <c r="B133" s="8"/>
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
     </row>
     <row r="134">
-      <c r="A134" s="18"/>
+      <c r="A134" s="16"/>
       <c r="B134" s="8"/>
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
     </row>
     <row r="135">
-      <c r="A135" s="18"/>
+      <c r="A135" s="16"/>
       <c r="B135" s="8"/>
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
     </row>
     <row r="136">
-      <c r="A136" s="18"/>
+      <c r="A136" s="16"/>
       <c r="B136" s="8"/>
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
     </row>
     <row r="137">
-      <c r="A137" s="18"/>
+      <c r="A137" s="16"/>
       <c r="B137" s="8"/>
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
     </row>
     <row r="138">
-      <c r="A138" s="18"/>
+      <c r="A138" s="16"/>
       <c r="B138" s="8"/>
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
     </row>
     <row r="139">
-      <c r="A139" s="18"/>
+      <c r="A139" s="16"/>
       <c r="B139" s="8"/>
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
     </row>
     <row r="140">
-      <c r="A140" s="18"/>
+      <c r="A140" s="16"/>
       <c r="B140" s="8"/>
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
     </row>
     <row r="141">
-      <c r="A141" s="18"/>
+      <c r="A141" s="16"/>
       <c r="B141" s="8"/>
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
     </row>
     <row r="142">
-      <c r="A142" s="18"/>
+      <c r="A142" s="16"/>
       <c r="B142" s="8"/>
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
     </row>
     <row r="143">
-      <c r="A143" s="18"/>
+      <c r="A143" s="16"/>
       <c r="B143" s="8"/>
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
     </row>
     <row r="144">
-      <c r="A144" s="18"/>
+      <c r="A144" s="16"/>
       <c r="B144" s="8"/>
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
     </row>
     <row r="145">
-      <c r="A145" s="18"/>
+      <c r="A145" s="16"/>
       <c r="B145" s="8"/>
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
     </row>
     <row r="146">
-      <c r="A146" s="18"/>
+      <c r="A146" s="16"/>
       <c r="B146" s="8"/>
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
     </row>
     <row r="147">
-      <c r="A147" s="18"/>
+      <c r="A147" s="16"/>
       <c r="B147" s="8"/>
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
     </row>
     <row r="148">
-      <c r="A148" s="18"/>
+      <c r="A148" s="16"/>
       <c r="B148" s="8"/>
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
     </row>
     <row r="149">
-      <c r="A149" s="18"/>
+      <c r="A149" s="16"/>
       <c r="B149" s="8"/>
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
     </row>
     <row r="150">
-      <c r="A150" s="18"/>
+      <c r="A150" s="16"/>
       <c r="B150" s="8"/>
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
     </row>
     <row r="151">
-      <c r="A151" s="18"/>
+      <c r="A151" s="16"/>
       <c r="B151" s="8"/>
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
     </row>
     <row r="152">
-      <c r="A152" s="18"/>
+      <c r="A152" s="16"/>
       <c r="B152" s="8"/>
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
     </row>
     <row r="153">
-      <c r="A153" s="18"/>
+      <c r="A153" s="16"/>
       <c r="B153" s="8"/>
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
     </row>
     <row r="154">
-      <c r="A154" s="18"/>
+      <c r="A154" s="16"/>
       <c r="B154" s="8"/>
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
     </row>
     <row r="155">
-      <c r="A155" s="18"/>
+      <c r="A155" s="16"/>
       <c r="B155" s="8"/>
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
     </row>
     <row r="156">
-      <c r="A156" s="18"/>
+      <c r="A156" s="16"/>
       <c r="B156" s="8"/>
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
     </row>
     <row r="157">
-      <c r="A157" s="18"/>
+      <c r="A157" s="16"/>
       <c r="B157" s="8"/>
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
     </row>
     <row r="158">
-      <c r="A158" s="18"/>
+      <c r="A158" s="16"/>
       <c r="B158" s="8"/>
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
     </row>
     <row r="159">
-      <c r="A159" s="18"/>
+      <c r="A159" s="16"/>
       <c r="B159" s="8"/>
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
     </row>
     <row r="160">
-      <c r="A160" s="18"/>
+      <c r="A160" s="16"/>
       <c r="B160" s="8"/>
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
     </row>
     <row r="161">
-      <c r="A161" s="18"/>
+      <c r="A161" s="16"/>
       <c r="B161" s="8"/>
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
     </row>
     <row r="162">
-      <c r="A162" s="18"/>
+      <c r="A162" s="16"/>
       <c r="B162" s="8"/>
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
     </row>
     <row r="163">
-      <c r="A163" s="18"/>
+      <c r="A163" s="16"/>
       <c r="B163" s="8"/>
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
     </row>
     <row r="164">
-      <c r="A164" s="18"/>
+      <c r="A164" s="16"/>
       <c r="B164" s="8"/>
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
     </row>
     <row r="165">
-      <c r="A165" s="18"/>
+      <c r="A165" s="16"/>
       <c r="B165" s="8"/>
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
     </row>
     <row r="166">
-      <c r="A166" s="18"/>
+      <c r="A166" s="16"/>
       <c r="B166" s="8"/>
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
     </row>
     <row r="167">
-      <c r="A167" s="18"/>
+      <c r="A167" s="16"/>
       <c r="B167" s="8"/>
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
     </row>
     <row r="168">
-      <c r="A168" s="18"/>
+      <c r="A168" s="16"/>
       <c r="B168" s="8"/>
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
     </row>
     <row r="169">
-      <c r="A169" s="18"/>
+      <c r="A169" s="16"/>
       <c r="B169" s="8"/>
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
     </row>
     <row r="170">
-      <c r="A170" s="18"/>
+      <c r="A170" s="16"/>
       <c r="B170" s="8"/>
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
     </row>
     <row r="171">
-      <c r="A171" s="18"/>
+      <c r="A171" s="16"/>
       <c r="B171" s="8"/>
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
     </row>
     <row r="172">
-      <c r="A172" s="18"/>
+      <c r="A172" s="16"/>
       <c r="B172" s="8"/>
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
     </row>
     <row r="173">
-      <c r="A173" s="18"/>
+      <c r="A173" s="16"/>
       <c r="B173" s="8"/>
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
     </row>
     <row r="174">
-      <c r="A174" s="18"/>
+      <c r="A174" s="16"/>
       <c r="B174" s="8"/>
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
     </row>
     <row r="175">
-      <c r="A175" s="18"/>
+      <c r="A175" s="16"/>
       <c r="B175" s="8"/>
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
     </row>
     <row r="176">
-      <c r="A176" s="18"/>
+      <c r="A176" s="16"/>
       <c r="B176" s="8"/>
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
     </row>
     <row r="177">
-      <c r="A177" s="18"/>
+      <c r="A177" s="16"/>
       <c r="B177" s="8"/>
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
     </row>
     <row r="178">
-      <c r="A178" s="18"/>
+      <c r="A178" s="16"/>
       <c r="B178" s="8"/>
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
     </row>
     <row r="179">
-      <c r="A179" s="18"/>
+      <c r="A179" s="16"/>
       <c r="B179" s="8"/>
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
     </row>
     <row r="180">
-      <c r="A180" s="18"/>
+      <c r="A180" s="16"/>
       <c r="B180" s="8"/>
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
     </row>
     <row r="181">
-      <c r="A181" s="18"/>
+      <c r="A181" s="16"/>
       <c r="B181" s="8"/>
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
     </row>
     <row r="182">
-      <c r="A182" s="18"/>
+      <c r="A182" s="16"/>
       <c r="B182" s="8"/>
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
     </row>
     <row r="183">
-      <c r="A183" s="18"/>
+      <c r="A183" s="16"/>
       <c r="B183" s="8"/>
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
     </row>
     <row r="184">
-      <c r="A184" s="18"/>
+      <c r="A184" s="16"/>
       <c r="B184" s="8"/>
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
     </row>
     <row r="185">
-      <c r="A185" s="18"/>
+      <c r="A185" s="16"/>
       <c r="B185" s="8"/>
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
     </row>
     <row r="186">
-      <c r="A186" s="18"/>
+      <c r="A186" s="16"/>
       <c r="B186" s="8"/>
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
     </row>
     <row r="187">
-      <c r="A187" s="18"/>
+      <c r="A187" s="16"/>
       <c r="B187" s="8"/>
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
     </row>
     <row r="188">
-      <c r="A188" s="18"/>
+      <c r="A188" s="16"/>
       <c r="B188" s="8"/>
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
     </row>
     <row r="189">
-      <c r="A189" s="18"/>
+      <c r="A189" s="16"/>
       <c r="B189" s="8"/>
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
     </row>
     <row r="190">
-      <c r="A190" s="18"/>
+      <c r="A190" s="16"/>
       <c r="B190" s="8"/>
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
     </row>
     <row r="191">
-      <c r="A191" s="18"/>
+      <c r="A191" s="16"/>
       <c r="B191" s="8"/>
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
     </row>
     <row r="192">
-      <c r="A192" s="18"/>
+      <c r="A192" s="16"/>
       <c r="B192" s="8"/>
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
     </row>
     <row r="193">
-      <c r="A193" s="18"/>
+      <c r="A193" s="16"/>
       <c r="B193" s="8"/>
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
     </row>
     <row r="194">
-      <c r="A194" s="18"/>
+      <c r="A194" s="16"/>
       <c r="B194" s="8"/>
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
     </row>
     <row r="195">
-      <c r="A195" s="18"/>
+      <c r="A195" s="16"/>
       <c r="B195" s="8"/>
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
     </row>
     <row r="196">
-      <c r="A196" s="18"/>
+      <c r="A196" s="16"/>
       <c r="B196" s="8"/>
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
     </row>
     <row r="197">
-      <c r="A197" s="18"/>
+      <c r="A197" s="16"/>
       <c r="B197" s="8"/>
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
     </row>
     <row r="198">
-      <c r="A198" s="18"/>
+      <c r="A198" s="16"/>
       <c r="B198" s="8"/>
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
     </row>
     <row r="199">
-      <c r="A199" s="18"/>
+      <c r="A199" s="16"/>
       <c r="B199" s="8"/>
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
     </row>
     <row r="200">
-      <c r="A200" s="18"/>
+      <c r="A200" s="16"/>
       <c r="B200" s="8"/>
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
     </row>
     <row r="201">
-      <c r="A201" s="18"/>
+      <c r="A201" s="16"/>
       <c r="B201" s="8"/>
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
     </row>
     <row r="202">
-      <c r="A202" s="18"/>
+      <c r="A202" s="16"/>
       <c r="B202" s="8"/>
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
     </row>
     <row r="203">
-      <c r="A203" s="18"/>
+      <c r="A203" s="16"/>
       <c r="B203" s="8"/>
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
     </row>
     <row r="204">
-      <c r="A204" s="18"/>
+      <c r="A204" s="16"/>
       <c r="B204" s="8"/>
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
     </row>
     <row r="205">
-      <c r="A205" s="18"/>
+      <c r="A205" s="16"/>
       <c r="B205" s="8"/>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
     </row>
     <row r="206">
-      <c r="A206" s="18"/>
+      <c r="A206" s="16"/>
       <c r="B206" s="8"/>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
     </row>
     <row r="207">
-      <c r="A207" s="18"/>
+      <c r="A207" s="16"/>
       <c r="B207" s="8"/>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
     </row>
     <row r="208">
-      <c r="A208" s="18"/>
+      <c r="A208" s="16"/>
       <c r="B208" s="8"/>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
     </row>
     <row r="209">
-      <c r="A209" s="18"/>
+      <c r="A209" s="16"/>
       <c r="B209" s="8"/>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
     </row>
     <row r="210">
-      <c r="A210" s="18"/>
+      <c r="A210" s="16"/>
       <c r="B210" s="8"/>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
     </row>
     <row r="211">
-      <c r="A211" s="18"/>
+      <c r="A211" s="16"/>
       <c r="B211" s="8"/>
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
     </row>
     <row r="212">
-      <c r="A212" s="18"/>
+      <c r="A212" s="16"/>
       <c r="B212" s="8"/>
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
     </row>
     <row r="213">
-      <c r="A213" s="18"/>
+      <c r="A213" s="16"/>
       <c r="B213" s="8"/>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
     </row>
     <row r="214">
-      <c r="A214" s="18"/>
+      <c r="A214" s="16"/>
       <c r="B214" s="8"/>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
     </row>
     <row r="215">
-      <c r="A215" s="18"/>
+      <c r="A215" s="16"/>
       <c r="B215" s="8"/>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
     </row>
     <row r="216">
-      <c r="A216" s="18"/>
+      <c r="A216" s="16"/>
       <c r="B216" s="8"/>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
     </row>
     <row r="217">
-      <c r="A217" s="18"/>
+      <c r="A217" s="16"/>
       <c r="B217" s="8"/>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
     </row>
     <row r="218">
-      <c r="A218" s="18"/>
+      <c r="A218" s="16"/>
       <c r="B218" s="8"/>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
     </row>
     <row r="219">
-      <c r="A219" s="18"/>
+      <c r="A219" s="16"/>
       <c r="B219" s="8"/>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
     </row>
     <row r="220">
-      <c r="A220" s="18"/>
+      <c r="A220" s="16"/>
       <c r="B220" s="8"/>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
     </row>
     <row r="221">
-      <c r="A221" s="18"/>
+      <c r="A221" s="16"/>
       <c r="B221" s="8"/>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
     </row>
     <row r="222">
-      <c r="A222" s="18"/>
+      <c r="A222" s="16"/>
       <c r="B222" s="8"/>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
     </row>
     <row r="223">
-      <c r="A223" s="18"/>
+      <c r="A223" s="16"/>
       <c r="B223" s="8"/>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
     </row>
     <row r="224">
-      <c r="A224" s="18"/>
+      <c r="A224" s="16"/>
       <c r="B224" s="8"/>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
     </row>
     <row r="225">
-      <c r="A225" s="18"/>
+      <c r="A225" s="16"/>
       <c r="B225" s="8"/>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
     </row>
     <row r="226">
-      <c r="A226" s="18"/>
+      <c r="A226" s="16"/>
       <c r="B226" s="8"/>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
     </row>
     <row r="227">
-      <c r="A227" s="18"/>
+      <c r="A227" s="16"/>
       <c r="B227" s="8"/>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
     </row>
     <row r="228">
-      <c r="A228" s="18"/>
+      <c r="A228" s="16"/>
       <c r="B228" s="8"/>
       <c r="D228" s="8"/>
       <c r="E228" s="8"/>
     </row>
     <row r="229">
-      <c r="A229" s="18"/>
+      <c r="A229" s="16"/>
       <c r="B229" s="8"/>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
     </row>
     <row r="230">
-      <c r="A230" s="18"/>
+      <c r="A230" s="16"/>
       <c r="B230" s="8"/>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
     </row>
     <row r="231">
-      <c r="A231" s="18"/>
+      <c r="A231" s="16"/>
       <c r="B231" s="8"/>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
     </row>
     <row r="232">
-      <c r="A232" s="18"/>
+      <c r="A232" s="16"/>
       <c r="B232" s="8"/>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
     </row>
     <row r="233">
-      <c r="A233" s="18"/>
+      <c r="A233" s="16"/>
       <c r="B233" s="8"/>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
     </row>
     <row r="234">
-      <c r="A234" s="18"/>
+      <c r="A234" s="16"/>
       <c r="B234" s="8"/>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
     </row>
     <row r="235">
-      <c r="A235" s="18"/>
+      <c r="A235" s="16"/>
       <c r="B235" s="8"/>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
     </row>
     <row r="236">
-      <c r="A236" s="18"/>
+      <c r="A236" s="16"/>
       <c r="B236" s="8"/>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
     </row>
     <row r="237">
-      <c r="A237" s="18"/>
+      <c r="A237" s="16"/>
       <c r="B237" s="8"/>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
     </row>
     <row r="238">
-      <c r="A238" s="18"/>
+      <c r="A238" s="16"/>
       <c r="B238" s="8"/>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
     </row>
     <row r="239">
-      <c r="A239" s="18"/>
+      <c r="A239" s="16"/>
       <c r="B239" s="8"/>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
     </row>
     <row r="240">
-      <c r="A240" s="18"/>
+      <c r="A240" s="16"/>
       <c r="B240" s="8"/>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
     </row>
     <row r="241">
-      <c r="A241" s="18"/>
+      <c r="A241" s="16"/>
       <c r="B241" s="8"/>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
     </row>
     <row r="242">
-      <c r="A242" s="18"/>
+      <c r="A242" s="16"/>
       <c r="B242" s="8"/>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
     </row>
     <row r="243">
-      <c r="A243" s="18"/>
+      <c r="A243" s="16"/>
       <c r="B243" s="8"/>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
     </row>
     <row r="244">
-      <c r="A244" s="18"/>
+      <c r="A244" s="16"/>
       <c r="B244" s="8"/>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
     </row>
     <row r="245">
-      <c r="A245" s="18"/>
+      <c r="A245" s="16"/>
       <c r="B245" s="8"/>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
     </row>
     <row r="246">
-      <c r="A246" s="18"/>
+      <c r="A246" s="16"/>
       <c r="B246" s="8"/>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
     </row>
     <row r="247">
-      <c r="A247" s="18"/>
+      <c r="A247" s="16"/>
       <c r="B247" s="8"/>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
     </row>
     <row r="248">
-      <c r="A248" s="18"/>
+      <c r="A248" s="16"/>
       <c r="B248" s="8"/>
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
     </row>
     <row r="249">
-      <c r="A249" s="18"/>
+      <c r="A249" s="16"/>
       <c r="B249" s="8"/>
       <c r="D249" s="8"/>
       <c r="E249" s="8"/>
     </row>
     <row r="250">
-      <c r="A250" s="18"/>
+      <c r="A250" s="16"/>
       <c r="B250" s="8"/>
       <c r="D250" s="8"/>
       <c r="E250" s="8"/>
     </row>
     <row r="251">
-      <c r="A251" s="18"/>
+      <c r="A251" s="16"/>
       <c r="B251" s="8"/>
       <c r="D251" s="8"/>
       <c r="E251" s="8"/>
     </row>
     <row r="252">
-      <c r="A252" s="18"/>
+      <c r="A252" s="16"/>
       <c r="B252" s="8"/>
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
     </row>
     <row r="253">
-      <c r="A253" s="18"/>
+      <c r="A253" s="16"/>
       <c r="B253" s="8"/>
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
     </row>
     <row r="254">
-      <c r="A254" s="18"/>
+      <c r="A254" s="16"/>
       <c r="B254" s="8"/>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
     </row>
     <row r="255">
-      <c r="A255" s="18"/>
+      <c r="A255" s="16"/>
       <c r="B255" s="8"/>
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
     </row>
     <row r="256">
-      <c r="A256" s="18"/>
+      <c r="A256" s="16"/>
       <c r="B256" s="8"/>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
     </row>
     <row r="257">
-      <c r="A257" s="18"/>
+      <c r="A257" s="16"/>
       <c r="B257" s="8"/>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
     </row>
     <row r="258">
-      <c r="A258" s="18"/>
+      <c r="A258" s="16"/>
       <c r="B258" s="8"/>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
     </row>
     <row r="259">
-      <c r="A259" s="18"/>
+      <c r="A259" s="16"/>
       <c r="B259" s="8"/>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
     </row>
     <row r="260">
-      <c r="A260" s="18"/>
+      <c r="A260" s="16"/>
       <c r="B260" s="8"/>
       <c r="D260" s="8"/>
       <c r="E260" s="8"/>
     </row>
     <row r="261">
-      <c r="A261" s="18"/>
+      <c r="A261" s="16"/>
       <c r="B261" s="8"/>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
     </row>
     <row r="262">
-      <c r="A262" s="18"/>
+      <c r="A262" s="16"/>
       <c r="B262" s="8"/>
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
     </row>
     <row r="263">
-      <c r="A263" s="18"/>
+      <c r="A263" s="16"/>
       <c r="B263" s="8"/>
       <c r="D263" s="8"/>
       <c r="E263" s="8"/>
     </row>
     <row r="264">
-      <c r="A264" s="18"/>
+      <c r="A264" s="16"/>
       <c r="B264" s="8"/>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
     </row>
     <row r="265">
-      <c r="A265" s="18"/>
+      <c r="A265" s="16"/>
       <c r="B265" s="8"/>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
     </row>
     <row r="266">
-      <c r="A266" s="18"/>
+      <c r="A266" s="16"/>
       <c r="B266" s="8"/>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
     </row>
     <row r="267">
-      <c r="A267" s="18"/>
+      <c r="A267" s="16"/>
       <c r="B267" s="8"/>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
     </row>
     <row r="268">
-      <c r="A268" s="18"/>
+      <c r="A268" s="16"/>
       <c r="B268" s="8"/>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
     </row>
     <row r="269">
-      <c r="A269" s="18"/>
+      <c r="A269" s="16"/>
       <c r="B269" s="8"/>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
     </row>
     <row r="270">
-      <c r="A270" s="18"/>
+      <c r="A270" s="16"/>
       <c r="B270" s="8"/>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
     </row>
     <row r="271">
-      <c r="A271" s="18"/>
+      <c r="A271" s="16"/>
       <c r="B271" s="8"/>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
     </row>
     <row r="272">
-      <c r="A272" s="18"/>
+      <c r="A272" s="16"/>
       <c r="B272" s="8"/>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
     </row>
     <row r="273">
-      <c r="A273" s="18"/>
+      <c r="A273" s="16"/>
       <c r="B273" s="8"/>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
     </row>
     <row r="274">
-      <c r="A274" s="18"/>
+      <c r="A274" s="16"/>
       <c r="B274" s="8"/>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
     </row>
     <row r="275">
-      <c r="A275" s="18"/>
+      <c r="A275" s="16"/>
       <c r="B275" s="8"/>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
     </row>
     <row r="276">
-      <c r="A276" s="18"/>
+      <c r="A276" s="16"/>
       <c r="B276" s="8"/>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
     </row>
     <row r="277">
-      <c r="A277" s="18"/>
+      <c r="A277" s="16"/>
       <c r="B277" s="8"/>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
     </row>
     <row r="278">
-      <c r="A278" s="18"/>
+      <c r="A278" s="16"/>
       <c r="B278" s="8"/>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
     </row>
     <row r="279">
-      <c r="A279" s="18"/>
+      <c r="A279" s="16"/>
       <c r="B279" s="8"/>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
     </row>
     <row r="280">
-      <c r="A280" s="18"/>
+      <c r="A280" s="16"/>
       <c r="B280" s="8"/>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
     </row>
     <row r="281">
-      <c r="A281" s="18"/>
+      <c r="A281" s="16"/>
       <c r="B281" s="8"/>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
     </row>
     <row r="282">
-      <c r="A282" s="18"/>
+      <c r="A282" s="16"/>
       <c r="B282" s="8"/>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
     </row>
     <row r="283">
-      <c r="A283" s="18"/>
+      <c r="A283" s="16"/>
       <c r="B283" s="8"/>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
     </row>
     <row r="284">
-      <c r="A284" s="18"/>
+      <c r="A284" s="16"/>
       <c r="B284" s="8"/>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
     </row>
     <row r="285">
-      <c r="A285" s="18"/>
+      <c r="A285" s="16"/>
       <c r="B285" s="8"/>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
     </row>
     <row r="286">
-      <c r="A286" s="18"/>
+      <c r="A286" s="16"/>
       <c r="B286" s="8"/>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
     </row>
     <row r="287">
-      <c r="A287" s="18"/>
+      <c r="A287" s="16"/>
       <c r="B287" s="8"/>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
     </row>
     <row r="288">
-      <c r="A288" s="18"/>
+      <c r="A288" s="16"/>
       <c r="B288" s="8"/>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
     </row>
     <row r="289">
-      <c r="A289" s="18"/>
+      <c r="A289" s="16"/>
       <c r="B289" s="8"/>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
     </row>
     <row r="290">
-      <c r="A290" s="18"/>
+      <c r="A290" s="16"/>
       <c r="B290" s="8"/>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
     </row>
     <row r="291">
-      <c r="A291" s="18"/>
+      <c r="A291" s="16"/>
       <c r="B291" s="8"/>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
     </row>
     <row r="292">
-      <c r="A292" s="18"/>
+      <c r="A292" s="16"/>
       <c r="B292" s="8"/>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
     </row>
     <row r="293">
-      <c r="A293" s="18"/>
+      <c r="A293" s="16"/>
       <c r="B293" s="8"/>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
     </row>
     <row r="294">
-      <c r="A294" s="18"/>
+      <c r="A294" s="16"/>
       <c r="B294" s="8"/>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
     </row>
     <row r="295">
-      <c r="A295" s="18"/>
+      <c r="A295" s="16"/>
       <c r="B295" s="8"/>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
     </row>
     <row r="296">
-      <c r="A296" s="18"/>
+      <c r="A296" s="16"/>
       <c r="B296" s="8"/>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
     </row>
     <row r="297">
-      <c r="A297" s="18"/>
+      <c r="A297" s="16"/>
       <c r="B297" s="8"/>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
     </row>
     <row r="298">
-      <c r="A298" s="18"/>
+      <c r="A298" s="16"/>
       <c r="B298" s="8"/>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
     </row>
     <row r="299">
-      <c r="A299" s="18"/>
+      <c r="A299" s="16"/>
       <c r="B299" s="8"/>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
     </row>
     <row r="300">
-      <c r="A300" s="18"/>
+      <c r="A300" s="16"/>
       <c r="B300" s="8"/>
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
     </row>
     <row r="301">
-      <c r="A301" s="18"/>
+      <c r="A301" s="16"/>
       <c r="B301" s="8"/>
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
     </row>
     <row r="302">
-      <c r="A302" s="18"/>
+      <c r="A302" s="16"/>
       <c r="B302" s="8"/>
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
     </row>
     <row r="303">
-      <c r="A303" s="18"/>
+      <c r="A303" s="16"/>
       <c r="B303" s="8"/>
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
     </row>
     <row r="304">
-      <c r="A304" s="18"/>
+      <c r="A304" s="16"/>
       <c r="B304" s="8"/>
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
     </row>
     <row r="305">
-      <c r="A305" s="18"/>
+      <c r="A305" s="16"/>
       <c r="B305" s="8"/>
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
     </row>
     <row r="306">
-      <c r="A306" s="18"/>
+      <c r="A306" s="16"/>
       <c r="B306" s="8"/>
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
     </row>
     <row r="307">
-      <c r="A307" s="18"/>
+      <c r="A307" s="16"/>
       <c r="B307" s="8"/>
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
     </row>
     <row r="308">
-      <c r="A308" s="18"/>
+      <c r="A308" s="16"/>
       <c r="B308" s="8"/>
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
     </row>
     <row r="309">
-      <c r="A309" s="18"/>
+      <c r="A309" s="16"/>
       <c r="B309" s="8"/>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
     </row>
     <row r="310">
-      <c r="A310" s="18"/>
+      <c r="A310" s="16"/>
       <c r="B310" s="8"/>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
     </row>
     <row r="311">
-      <c r="A311" s="18"/>
+      <c r="A311" s="16"/>
       <c r="B311" s="8"/>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
     </row>
     <row r="312">
-      <c r="A312" s="18"/>
+      <c r="A312" s="16"/>
       <c r="B312" s="8"/>
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
     </row>
     <row r="313">
-      <c r="A313" s="18"/>
+      <c r="A313" s="16"/>
       <c r="B313" s="8"/>
       <c r="D313" s="8"/>
       <c r="E313" s="8"/>
     </row>
     <row r="314">
-      <c r="A314" s="18"/>
+      <c r="A314" s="16"/>
       <c r="B314" s="8"/>
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
     </row>
     <row r="315">
-      <c r="A315" s="18"/>
+      <c r="A315" s="16"/>
       <c r="B315" s="8"/>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
     </row>
     <row r="316">
-      <c r="A316" s="18"/>
+      <c r="A316" s="16"/>
       <c r="B316" s="8"/>
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
     </row>
     <row r="317">
-      <c r="A317" s="18"/>
+      <c r="A317" s="16"/>
       <c r="B317" s="8"/>
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
     </row>
     <row r="318">
-      <c r="A318" s="18"/>
+      <c r="A318" s="16"/>
       <c r="B318" s="8"/>
       <c r="D318" s="8"/>
       <c r="E318" s="8"/>
     </row>
     <row r="319">
-      <c r="A319" s="18"/>
+      <c r="A319" s="16"/>
       <c r="B319" s="8"/>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
     </row>
     <row r="320">
-      <c r="A320" s="18"/>
+      <c r="A320" s="16"/>
       <c r="B320" s="8"/>
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
     </row>
     <row r="321">
-      <c r="A321" s="18"/>
+      <c r="A321" s="16"/>
       <c r="B321" s="8"/>
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
     </row>
     <row r="322">
-      <c r="A322" s="18"/>
+      <c r="A322" s="16"/>
       <c r="B322" s="8"/>
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
     </row>
     <row r="323">
-      <c r="A323" s="18"/>
+      <c r="A323" s="16"/>
       <c r="B323" s="8"/>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
     </row>
     <row r="324">
-      <c r="A324" s="18"/>
+      <c r="A324" s="16"/>
       <c r="B324" s="8"/>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
     </row>
     <row r="325">
-      <c r="A325" s="18"/>
+      <c r="A325" s="16"/>
       <c r="B325" s="8"/>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
     </row>
     <row r="326">
-      <c r="A326" s="18"/>
+      <c r="A326" s="16"/>
       <c r="B326" s="8"/>
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
     </row>
     <row r="327">
-      <c r="A327" s="18"/>
+      <c r="A327" s="16"/>
       <c r="B327" s="8"/>
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
     </row>
     <row r="328">
-      <c r="A328" s="18"/>
+      <c r="A328" s="16"/>
       <c r="B328" s="8"/>
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
     </row>
     <row r="329">
-      <c r="A329" s="18"/>
+      <c r="A329" s="16"/>
       <c r="B329" s="8"/>
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
     </row>
     <row r="330">
-      <c r="A330" s="18"/>
+      <c r="A330" s="16"/>
       <c r="B330" s="8"/>
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
     </row>
     <row r="331">
-      <c r="A331" s="18"/>
+      <c r="A331" s="16"/>
       <c r="B331" s="8"/>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
     </row>
     <row r="332">
-      <c r="A332" s="18"/>
+      <c r="A332" s="16"/>
       <c r="B332" s="8"/>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
     </row>
     <row r="333">
-      <c r="A333" s="18"/>
+      <c r="A333" s="16"/>
       <c r="B333" s="8"/>
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
     </row>
     <row r="334">
-      <c r="A334" s="18"/>
+      <c r="A334" s="16"/>
       <c r="B334" s="8"/>
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
     </row>
     <row r="335">
-      <c r="A335" s="18"/>
+      <c r="A335" s="16"/>
       <c r="B335" s="8"/>
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
     </row>
     <row r="336">
-      <c r="A336" s="18"/>
+      <c r="A336" s="16"/>
       <c r="B336" s="8"/>
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
     </row>
     <row r="337">
-      <c r="A337" s="18"/>
+      <c r="A337" s="16"/>
       <c r="B337" s="8"/>
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
     </row>
     <row r="338">
-      <c r="A338" s="18"/>
+      <c r="A338" s="16"/>
       <c r="B338" s="8"/>
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
     </row>
     <row r="339">
-      <c r="A339" s="18"/>
+      <c r="A339" s="16"/>
       <c r="B339" s="8"/>
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
     </row>
     <row r="340">
-      <c r="A340" s="18"/>
+      <c r="A340" s="16"/>
       <c r="B340" s="8"/>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
     </row>
     <row r="341">
-      <c r="A341" s="18"/>
+      <c r="A341" s="16"/>
       <c r="B341" s="8"/>
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
     </row>
     <row r="342">
-      <c r="A342" s="18"/>
+      <c r="A342" s="16"/>
       <c r="B342" s="8"/>
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
     </row>
     <row r="343">
-      <c r="A343" s="18"/>
+      <c r="A343" s="16"/>
       <c r="B343" s="8"/>
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
     </row>
     <row r="344">
-      <c r="A344" s="18"/>
+      <c r="A344" s="16"/>
       <c r="B344" s="8"/>
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
     </row>
     <row r="345">
-      <c r="A345" s="18"/>
+      <c r="A345" s="16"/>
       <c r="B345" s="8"/>
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
     </row>
     <row r="346">
-      <c r="A346" s="18"/>
+      <c r="A346" s="16"/>
       <c r="B346" s="8"/>
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
     </row>
     <row r="347">
-      <c r="A347" s="18"/>
+      <c r="A347" s="16"/>
       <c r="B347" s="8"/>
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
     </row>
     <row r="348">
-      <c r="A348" s="18"/>
+      <c r="A348" s="16"/>
       <c r="B348" s="8"/>
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
     </row>
     <row r="349">
-      <c r="A349" s="18"/>
+      <c r="A349" s="16"/>
       <c r="B349" s="8"/>
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
     </row>
     <row r="350">
-      <c r="A350" s="18"/>
+      <c r="A350" s="16"/>
       <c r="B350" s="8"/>
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
     </row>
     <row r="351">
-      <c r="A351" s="18"/>
+      <c r="A351" s="16"/>
       <c r="B351" s="8"/>
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
     </row>
     <row r="352">
-      <c r="A352" s="18"/>
+      <c r="A352" s="16"/>
       <c r="B352" s="8"/>
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
     </row>
     <row r="353">
-      <c r="A353" s="18"/>
+      <c r="A353" s="16"/>
       <c r="B353" s="8"/>
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
     </row>
     <row r="354">
-      <c r="A354" s="18"/>
+      <c r="A354" s="16"/>
       <c r="B354" s="8"/>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
     </row>
     <row r="355">
-      <c r="A355" s="18"/>
+      <c r="A355" s="16"/>
       <c r="B355" s="8"/>
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
     </row>
     <row r="356">
-      <c r="A356" s="18"/>
+      <c r="A356" s="16"/>
       <c r="B356" s="8"/>
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
     </row>
     <row r="357">
-      <c r="A357" s="18"/>
+      <c r="A357" s="16"/>
       <c r="B357" s="8"/>
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
     </row>
     <row r="358">
-      <c r="A358" s="18"/>
+      <c r="A358" s="16"/>
       <c r="B358" s="8"/>
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
     </row>
     <row r="359">
-      <c r="A359" s="18"/>
+      <c r="A359" s="16"/>
       <c r="B359" s="8"/>
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
     </row>
     <row r="360">
-      <c r="A360" s="18"/>
+      <c r="A360" s="16"/>
       <c r="B360" s="8"/>
       <c r="D360" s="8"/>
       <c r="E360" s="8"/>
     </row>
     <row r="361">
-      <c r="A361" s="18"/>
+      <c r="A361" s="16"/>
       <c r="B361" s="8"/>
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
     </row>
     <row r="362">
-      <c r="A362" s="18"/>
+      <c r="A362" s="16"/>
       <c r="B362" s="8"/>
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
     </row>
     <row r="363">
-      <c r="A363" s="18"/>
+      <c r="A363" s="16"/>
       <c r="B363" s="8"/>
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
     </row>
     <row r="364">
-      <c r="A364" s="18"/>
+      <c r="A364" s="16"/>
       <c r="B364" s="8"/>
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
     </row>
     <row r="365">
-      <c r="A365" s="18"/>
+      <c r="A365" s="16"/>
       <c r="B365" s="8"/>
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
     </row>
     <row r="366">
-      <c r="A366" s="18"/>
+      <c r="A366" s="16"/>
       <c r="B366" s="8"/>
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
     </row>
     <row r="367">
-      <c r="A367" s="18"/>
+      <c r="A367" s="16"/>
       <c r="B367" s="8"/>
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
     </row>
     <row r="368">
-      <c r="A368" s="18"/>
+      <c r="A368" s="16"/>
       <c r="B368" s="8"/>
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
     </row>
     <row r="369">
-      <c r="A369" s="18"/>
+      <c r="A369" s="16"/>
       <c r="B369" s="8"/>
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
     </row>
     <row r="370">
-      <c r="A370" s="18"/>
+      <c r="A370" s="16"/>
       <c r="B370" s="8"/>
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
     </row>
     <row r="371">
-      <c r="A371" s="18"/>
+      <c r="A371" s="16"/>
       <c r="B371" s="8"/>
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
     </row>
     <row r="372">
-      <c r="A372" s="18"/>
+      <c r="A372" s="16"/>
       <c r="B372" s="8"/>
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
     </row>
     <row r="373">
-      <c r="A373" s="18"/>
+      <c r="A373" s="16"/>
       <c r="B373" s="8"/>
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
     </row>
     <row r="374">
-      <c r="A374" s="18"/>
+      <c r="A374" s="16"/>
       <c r="B374" s="8"/>
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
     </row>
     <row r="375">
-      <c r="A375" s="18"/>
+      <c r="A375" s="16"/>
       <c r="B375" s="8"/>
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
     </row>
     <row r="376">
-      <c r="A376" s="18"/>
+      <c r="A376" s="16"/>
       <c r="B376" s="8"/>
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
     </row>
     <row r="377">
-      <c r="A377" s="18"/>
+      <c r="A377" s="16"/>
       <c r="B377" s="8"/>
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
     </row>
     <row r="378">
-      <c r="A378" s="18"/>
+      <c r="A378" s="16"/>
       <c r="B378" s="8"/>
       <c r="D378" s="8"/>
       <c r="E378" s="8"/>
     </row>
     <row r="379">
-      <c r="A379" s="18"/>
+      <c r="A379" s="16"/>
       <c r="B379" s="8"/>
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
     </row>
     <row r="380">
-      <c r="A380" s="18"/>
+      <c r="A380" s="16"/>
       <c r="B380" s="8"/>
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
     </row>
     <row r="381">
-      <c r="A381" s="18"/>
+      <c r="A381" s="16"/>
       <c r="B381" s="8"/>
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
     </row>
     <row r="382">
-      <c r="A382" s="18"/>
+      <c r="A382" s="16"/>
       <c r="B382" s="8"/>
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
     </row>
     <row r="383">
-      <c r="A383" s="18"/>
+      <c r="A383" s="16"/>
       <c r="B383" s="8"/>
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
     </row>
     <row r="384">
-      <c r="A384" s="18"/>
+      <c r="A384" s="16"/>
       <c r="B384" s="8"/>
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
     </row>
     <row r="385">
-      <c r="A385" s="18"/>
+      <c r="A385" s="16"/>
       <c r="B385" s="8"/>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
     </row>
     <row r="386">
-      <c r="A386" s="18"/>
+      <c r="A386" s="16"/>
       <c r="B386" s="8"/>
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
     </row>
     <row r="387">
-      <c r="A387" s="18"/>
+      <c r="A387" s="16"/>
       <c r="B387" s="8"/>
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
     </row>
     <row r="388">
-      <c r="A388" s="18"/>
+      <c r="A388" s="16"/>
       <c r="B388" s="8"/>
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
     </row>
     <row r="389">
-      <c r="A389" s="18"/>
+      <c r="A389" s="16"/>
       <c r="B389" s="8"/>
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
     </row>
     <row r="390">
-      <c r="A390" s="18"/>
+      <c r="A390" s="16"/>
       <c r="B390" s="8"/>
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
     </row>
     <row r="391">
-      <c r="A391" s="18"/>
+      <c r="A391" s="16"/>
       <c r="B391" s="8"/>
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
     </row>
     <row r="392">
-      <c r="A392" s="18"/>
+      <c r="A392" s="16"/>
       <c r="B392" s="8"/>
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
     </row>
     <row r="393">
-      <c r="A393" s="18"/>
+      <c r="A393" s="16"/>
       <c r="B393" s="8"/>
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
     </row>
     <row r="394">
-      <c r="A394" s="18"/>
+      <c r="A394" s="16"/>
       <c r="B394" s="8"/>
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
     </row>
     <row r="395">
-      <c r="A395" s="18"/>
+      <c r="A395" s="16"/>
       <c r="B395" s="8"/>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
     </row>
     <row r="396">
-      <c r="A396" s="18"/>
+      <c r="A396" s="16"/>
       <c r="B396" s="8"/>
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
     </row>
     <row r="397">
-      <c r="A397" s="18"/>
+      <c r="A397" s="16"/>
       <c r="B397" s="8"/>
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
     </row>
     <row r="398">
-      <c r="A398" s="18"/>
+      <c r="A398" s="16"/>
       <c r="B398" s="8"/>
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
     </row>
     <row r="399">
-      <c r="A399" s="18"/>
+      <c r="A399" s="16"/>
       <c r="B399" s="8"/>
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
     </row>
     <row r="400">
-      <c r="A400" s="18"/>
+      <c r="A400" s="16"/>
       <c r="B400" s="8"/>
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
     </row>
     <row r="401">
-      <c r="A401" s="18"/>
+      <c r="A401" s="16"/>
       <c r="B401" s="8"/>
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
     </row>
     <row r="402">
-      <c r="A402" s="18"/>
+      <c r="A402" s="16"/>
       <c r="B402" s="8"/>
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
     </row>
     <row r="403">
-      <c r="A403" s="18"/>
+      <c r="A403" s="16"/>
       <c r="B403" s="8"/>
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
     </row>
     <row r="404">
-      <c r="A404" s="18"/>
+      <c r="A404" s="16"/>
       <c r="B404" s="8"/>
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
     </row>
     <row r="405">
-      <c r="A405" s="18"/>
+      <c r="A405" s="16"/>
       <c r="B405" s="8"/>
       <c r="D405" s="8"/>
       <c r="E405" s="8"/>
     </row>
     <row r="406">
-      <c r="A406" s="18"/>
+      <c r="A406" s="16"/>
       <c r="B406" s="8"/>
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
     </row>
     <row r="407">
-      <c r="A407" s="18"/>
+      <c r="A407" s="16"/>
       <c r="B407" s="8"/>
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
     </row>
     <row r="408">
-      <c r="A408" s="18"/>
+      <c r="A408" s="16"/>
       <c r="B408" s="8"/>
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
     </row>
     <row r="409">
-      <c r="A409" s="18"/>
+      <c r="A409" s="16"/>
       <c r="B409" s="8"/>
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
     </row>
     <row r="410">
-      <c r="A410" s="18"/>
+      <c r="A410" s="16"/>
       <c r="B410" s="8"/>
       <c r="D410" s="8"/>
       <c r="E410" s="8"/>
     </row>
     <row r="411">
-      <c r="A411" s="18"/>
+      <c r="A411" s="16"/>
       <c r="B411" s="8"/>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
     </row>
     <row r="412">
-      <c r="A412" s="18"/>
+      <c r="A412" s="16"/>
       <c r="B412" s="8"/>
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
     </row>
     <row r="413">
-      <c r="A413" s="18"/>
+      <c r="A413" s="16"/>
       <c r="B413" s="8"/>
       <c r="D413" s="8"/>
       <c r="E413" s="8"/>
     </row>
     <row r="414">
-      <c r="A414" s="18"/>
+      <c r="A414" s="16"/>
       <c r="B414" s="8"/>
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
     </row>
     <row r="415">
-      <c r="A415" s="18"/>
+      <c r="A415" s="16"/>
       <c r="B415" s="8"/>
       <c r="D415" s="8"/>
       <c r="E415" s="8"/>
     </row>
     <row r="416">
-      <c r="A416" s="18"/>
+      <c r="A416" s="16"/>
       <c r="B416" s="8"/>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
     </row>
     <row r="417">
-      <c r="A417" s="18"/>
+      <c r="A417" s="16"/>
       <c r="B417" s="8"/>
       <c r="D417" s="8"/>
       <c r="E417" s="8"/>
     </row>
     <row r="418">
-      <c r="A418" s="18"/>
+      <c r="A418" s="16"/>
       <c r="B418" s="8"/>
       <c r="D418" s="8"/>
       <c r="E418" s="8"/>
     </row>
     <row r="419">
-      <c r="A419" s="18"/>
+      <c r="A419" s="16"/>
       <c r="B419" s="8"/>
       <c r="D419" s="8"/>
       <c r="E419" s="8"/>
     </row>
     <row r="420">
-      <c r="A420" s="18"/>
+      <c r="A420" s="16"/>
       <c r="B420" s="8"/>
       <c r="D420" s="8"/>
       <c r="E420" s="8"/>
     </row>
     <row r="421">
-      <c r="A421" s="18"/>
+      <c r="A421" s="16"/>
       <c r="B421" s="8"/>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
     </row>
     <row r="422">
-      <c r="A422" s="18"/>
+      <c r="A422" s="16"/>
       <c r="B422" s="8"/>
       <c r="D422" s="8"/>
       <c r="E422" s="8"/>
     </row>
     <row r="423">
-      <c r="A423" s="18"/>
+      <c r="A423" s="16"/>
       <c r="B423" s="8"/>
       <c r="D423" s="8"/>
       <c r="E423" s="8"/>
     </row>
     <row r="424">
-      <c r="A424" s="18"/>
+      <c r="A424" s="16"/>
       <c r="B424" s="8"/>
       <c r="D424" s="8"/>
       <c r="E424" s="8"/>
     </row>
     <row r="425">
-      <c r="A425" s="18"/>
+      <c r="A425" s="16"/>
       <c r="B425" s="8"/>
       <c r="D425" s="8"/>
       <c r="E425" s="8"/>
     </row>
     <row r="426">
-      <c r="A426" s="18"/>
+      <c r="A426" s="16"/>
       <c r="B426" s="8"/>
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
     </row>
     <row r="427">
-      <c r="A427" s="18"/>
+      <c r="A427" s="16"/>
       <c r="B427" s="8"/>
       <c r="D427" s="8"/>
       <c r="E427" s="8"/>
     </row>
     <row r="428">
-      <c r="A428" s="18"/>
+      <c r="A428" s="16"/>
       <c r="B428" s="8"/>
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
     </row>
     <row r="429">
-      <c r="A429" s="18"/>
+      <c r="A429" s="16"/>
       <c r="B429" s="8"/>
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
     </row>
     <row r="430">
-      <c r="A430" s="18"/>
+      <c r="A430" s="16"/>
       <c r="B430" s="8"/>
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
     </row>
     <row r="431">
-      <c r="A431" s="18"/>
+      <c r="A431" s="16"/>
       <c r="B431" s="8"/>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
     </row>
     <row r="432">
-      <c r="A432" s="18"/>
+      <c r="A432" s="16"/>
       <c r="B432" s="8"/>
       <c r="D432" s="8"/>
       <c r="E432" s="8"/>
     </row>
     <row r="433">
-      <c r="A433" s="18"/>
+      <c r="A433" s="16"/>
       <c r="B433" s="8"/>
       <c r="D433" s="8"/>
       <c r="E433" s="8"/>
     </row>
     <row r="434">
-      <c r="A434" s="18"/>
+      <c r="A434" s="16"/>
       <c r="B434" s="8"/>
       <c r="D434" s="8"/>
       <c r="E434" s="8"/>
     </row>
     <row r="435">
-      <c r="A435" s="18"/>
+      <c r="A435" s="16"/>
       <c r="B435" s="8"/>
       <c r="D435" s="8"/>
       <c r="E435" s="8"/>
     </row>
     <row r="436">
-      <c r="A436" s="18"/>
+      <c r="A436" s="16"/>
       <c r="B436" s="8"/>
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
     </row>
     <row r="437">
-      <c r="A437" s="18"/>
+      <c r="A437" s="16"/>
       <c r="B437" s="8"/>
       <c r="D437" s="8"/>
       <c r="E437" s="8"/>
     </row>
     <row r="438">
-      <c r="A438" s="18"/>
+      <c r="A438" s="16"/>
       <c r="B438" s="8"/>
       <c r="D438" s="8"/>
       <c r="E438" s="8"/>
     </row>
     <row r="439">
-      <c r="A439" s="18"/>
+      <c r="A439" s="16"/>
       <c r="B439" s="8"/>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
     </row>
     <row r="440">
-      <c r="A440" s="18"/>
+      <c r="A440" s="16"/>
       <c r="B440" s="8"/>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
     </row>
     <row r="441">
-      <c r="A441" s="18"/>
+      <c r="A441" s="16"/>
       <c r="B441" s="8"/>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
     </row>
     <row r="442">
-      <c r="A442" s="18"/>
+      <c r="A442" s="16"/>
       <c r="B442" s="8"/>
       <c r="D442" s="8"/>
       <c r="E442" s="8"/>
     </row>
     <row r="443">
-      <c r="A443" s="18"/>
+      <c r="A443" s="16"/>
       <c r="B443" s="8"/>
       <c r="D443" s="8"/>
       <c r="E443" s="8"/>
     </row>
     <row r="444">
-      <c r="A444" s="18"/>
+      <c r="A444" s="16"/>
       <c r="B444" s="8"/>
       <c r="D444" s="8"/>
       <c r="E444" s="8"/>
     </row>
     <row r="445">
-      <c r="A445" s="18"/>
+      <c r="A445" s="16"/>
       <c r="B445" s="8"/>
       <c r="D445" s="8"/>
       <c r="E445" s="8"/>
     </row>
     <row r="446">
-      <c r="A446" s="18"/>
+      <c r="A446" s="16"/>
       <c r="B446" s="8"/>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
     </row>
     <row r="447">
-      <c r="A447" s="18"/>
+      <c r="A447" s="16"/>
       <c r="B447" s="8"/>
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
     </row>
     <row r="448">
-      <c r="A448" s="18"/>
+      <c r="A448" s="16"/>
       <c r="B448" s="8"/>
       <c r="D448" s="8"/>
       <c r="E448" s="8"/>
     </row>
     <row r="449">
-      <c r="A449" s="18"/>
+      <c r="A449" s="16"/>
       <c r="B449" s="8"/>
       <c r="D449" s="8"/>
       <c r="E449" s="8"/>
     </row>
     <row r="450">
-      <c r="A450" s="18"/>
+      <c r="A450" s="16"/>
       <c r="B450" s="8"/>
       <c r="D450" s="8"/>
       <c r="E450" s="8"/>
     </row>
     <row r="451">
-      <c r="A451" s="18"/>
+      <c r="A451" s="16"/>
       <c r="B451" s="8"/>
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
     </row>
     <row r="452">
-      <c r="A452" s="18"/>
+      <c r="A452" s="16"/>
       <c r="B452" s="8"/>
       <c r="D452" s="8"/>
       <c r="E452" s="8"/>
     </row>
     <row r="453">
-      <c r="A453" s="18"/>
+      <c r="A453" s="16"/>
       <c r="B453" s="8"/>
       <c r="D453" s="8"/>
       <c r="E453" s="8"/>
     </row>
     <row r="454">
-      <c r="A454" s="18"/>
+      <c r="A454" s="16"/>
       <c r="B454" s="8"/>
       <c r="D454" s="8"/>
       <c r="E454" s="8"/>
     </row>
     <row r="455">
-      <c r="A455" s="18"/>
+      <c r="A455" s="16"/>
       <c r="B455" s="8"/>
       <c r="D455" s="8"/>
       <c r="E455" s="8"/>
     </row>
     <row r="456">
-      <c r="A456" s="18"/>
+      <c r="A456" s="16"/>
       <c r="B456" s="8"/>
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
     </row>
     <row r="457">
-      <c r="A457" s="18"/>
+      <c r="A457" s="16"/>
       <c r="B457" s="8"/>
       <c r="D457" s="8"/>
       <c r="E457" s="8"/>
     </row>
     <row r="458">
-      <c r="A458" s="18"/>
+      <c r="A458" s="16"/>
       <c r="B458" s="8"/>
       <c r="D458" s="8"/>
       <c r="E458" s="8"/>
     </row>
     <row r="459">
-      <c r="A459" s="18"/>
+      <c r="A459" s="16"/>
       <c r="B459" s="8"/>
       <c r="D459" s="8"/>
       <c r="E459" s="8"/>
     </row>
     <row r="460">
-      <c r="A460" s="18"/>
+      <c r="A460" s="16"/>
       <c r="B460" s="8"/>
       <c r="D460" s="8"/>
       <c r="E460" s="8"/>
     </row>
     <row r="461">
-      <c r="A461" s="18"/>
+      <c r="A461" s="16"/>
       <c r="B461" s="8"/>
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
     </row>
     <row r="462">
-      <c r="A462" s="18"/>
+      <c r="A462" s="16"/>
       <c r="B462" s="8"/>
       <c r="D462" s="8"/>
       <c r="E462" s="8"/>
     </row>
     <row r="463">
-      <c r="A463" s="18"/>
+      <c r="A463" s="16"/>
       <c r="B463" s="8"/>
       <c r="D463" s="8"/>
       <c r="E463" s="8"/>
     </row>
     <row r="464">
-      <c r="A464" s="18"/>
+      <c r="A464" s="16"/>
       <c r="B464" s="8"/>
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
     </row>
     <row r="465">
-      <c r="A465" s="18"/>
+      <c r="A465" s="16"/>
       <c r="B465" s="8"/>
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
     </row>
     <row r="466">
-      <c r="A466" s="18"/>
+      <c r="A466" s="16"/>
       <c r="B466" s="8"/>
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
     </row>
     <row r="467">
-      <c r="A467" s="18"/>
+      <c r="A467" s="16"/>
       <c r="B467" s="8"/>
       <c r="D467" s="8"/>
       <c r="E467" s="8"/>
     </row>
     <row r="468">
-      <c r="A468" s="18"/>
+      <c r="A468" s="16"/>
       <c r="B468" s="8"/>
       <c r="D468" s="8"/>
       <c r="E468" s="8"/>
     </row>
     <row r="469">
-      <c r="A469" s="18"/>
+      <c r="A469" s="16"/>
       <c r="B469" s="8"/>
       <c r="D469" s="8"/>
       <c r="E469" s="8"/>
     </row>
     <row r="470">
-      <c r="A470" s="18"/>
+      <c r="A470" s="16"/>
       <c r="B470" s="8"/>
       <c r="D470" s="8"/>
       <c r="E470" s="8"/>
     </row>
     <row r="471">
-      <c r="A471" s="18"/>
+      <c r="A471" s="16"/>
       <c r="B471" s="8"/>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
     </row>
     <row r="472">
-      <c r="A472" s="18"/>
+      <c r="A472" s="16"/>
       <c r="B472" s="8"/>
       <c r="D472" s="8"/>
       <c r="E472" s="8"/>
     </row>
     <row r="473">
-      <c r="A473" s="18"/>
+      <c r="A473" s="16"/>
       <c r="B473" s="8"/>
       <c r="D473" s="8"/>
       <c r="E473" s="8"/>
     </row>
     <row r="474">
-      <c r="A474" s="18"/>
+      <c r="A474" s="16"/>
       <c r="B474" s="8"/>
       <c r="D474" s="8"/>
       <c r="E474" s="8"/>
     </row>
     <row r="475">
-      <c r="A475" s="18"/>
+      <c r="A475" s="16"/>
       <c r="B475" s="8"/>
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
     </row>
     <row r="476">
-      <c r="A476" s="18"/>
+      <c r="A476" s="16"/>
       <c r="B476" s="8"/>
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
     </row>
     <row r="477">
-      <c r="A477" s="18"/>
+      <c r="A477" s="16"/>
       <c r="B477" s="8"/>
       <c r="D477" s="8"/>
       <c r="E477" s="8"/>
     </row>
     <row r="478">
-      <c r="A478" s="18"/>
+      <c r="A478" s="16"/>
       <c r="B478" s="8"/>
       <c r="D478" s="8"/>
       <c r="E478" s="8"/>
     </row>
     <row r="479">
-      <c r="A479" s="18"/>
+      <c r="A479" s="16"/>
       <c r="B479" s="8"/>
       <c r="D479" s="8"/>
       <c r="E479" s="8"/>
     </row>
     <row r="480">
-      <c r="A480" s="18"/>
+      <c r="A480" s="16"/>
       <c r="B480" s="8"/>
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
     </row>
     <row r="481">
-      <c r="A481" s="18"/>
+      <c r="A481" s="16"/>
       <c r="B481" s="8"/>
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
     </row>
     <row r="482">
-      <c r="A482" s="18"/>
+      <c r="A482" s="16"/>
       <c r="B482" s="8"/>
       <c r="D482" s="8"/>
       <c r="E482" s="8"/>
     </row>
     <row r="483">
-      <c r="A483" s="18"/>
+      <c r="A483" s="16"/>
       <c r="B483" s="8"/>
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
     </row>
     <row r="484">
-      <c r="A484" s="18"/>
+      <c r="A484" s="16"/>
       <c r="B484" s="8"/>
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
     </row>
     <row r="485">
-      <c r="A485" s="18"/>
+      <c r="A485" s="16"/>
       <c r="B485" s="8"/>
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
     </row>
     <row r="486">
-      <c r="A486" s="18"/>
+      <c r="A486" s="16"/>
       <c r="B486" s="8"/>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
     </row>
     <row r="487">
-      <c r="A487" s="18"/>
+      <c r="A487" s="16"/>
       <c r="B487" s="8"/>
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
     </row>
     <row r="488">
-      <c r="A488" s="18"/>
+      <c r="A488" s="16"/>
       <c r="B488" s="8"/>
       <c r="D488" s="8"/>
       <c r="E488" s="8"/>
     </row>
     <row r="489">
-      <c r="A489" s="18"/>
+      <c r="A489" s="16"/>
       <c r="B489" s="8"/>
       <c r="D489" s="8"/>
       <c r="E489" s="8"/>
     </row>
     <row r="490">
-      <c r="A490" s="18"/>
+      <c r="A490" s="16"/>
       <c r="B490" s="8"/>
       <c r="D490" s="8"/>
       <c r="E490" s="8"/>
     </row>
     <row r="491">
-      <c r="A491" s="18"/>
+      <c r="A491" s="16"/>
       <c r="B491" s="8"/>
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
     </row>
     <row r="492">
-      <c r="A492" s="18"/>
+      <c r="A492" s="16"/>
       <c r="B492" s="8"/>
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
     </row>
     <row r="493">
-      <c r="A493" s="18"/>
+      <c r="A493" s="16"/>
       <c r="B493" s="8"/>
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
     </row>
     <row r="494">
-      <c r="A494" s="18"/>
+      <c r="A494" s="16"/>
       <c r="B494" s="8"/>
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
     </row>
     <row r="495">
-      <c r="A495" s="18"/>
+      <c r="A495" s="16"/>
       <c r="B495" s="8"/>
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
     </row>
     <row r="496">
-      <c r="A496" s="18"/>
+      <c r="A496" s="16"/>
       <c r="B496" s="8"/>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
     </row>
     <row r="497">
-      <c r="A497" s="18"/>
+      <c r="A497" s="16"/>
       <c r="B497" s="8"/>
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
     </row>
     <row r="498">
-      <c r="A498" s="18"/>
+      <c r="A498" s="16"/>
       <c r="B498" s="8"/>
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
     </row>
     <row r="499">
-      <c r="A499" s="18"/>
+      <c r="A499" s="16"/>
       <c r="B499" s="8"/>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
     </row>
     <row r="500">
-      <c r="A500" s="18"/>
+      <c r="A500" s="16"/>
       <c r="B500" s="8"/>
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
     </row>
     <row r="501">
-      <c r="A501" s="18"/>
+      <c r="A501" s="16"/>
       <c r="B501" s="8"/>
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
     </row>
     <row r="502">
-      <c r="A502" s="18"/>
+      <c r="A502" s="16"/>
       <c r="B502" s="8"/>
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
     </row>
     <row r="503">
-      <c r="A503" s="18"/>
+      <c r="A503" s="16"/>
       <c r="B503" s="8"/>
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
     </row>
     <row r="504">
-      <c r="A504" s="18"/>
+      <c r="A504" s="16"/>
       <c r="B504" s="8"/>
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
     </row>
     <row r="505">
-      <c r="A505" s="18"/>
+      <c r="A505" s="16"/>
       <c r="B505" s="8"/>
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
     </row>
     <row r="506">
-      <c r="A506" s="18"/>
+      <c r="A506" s="16"/>
       <c r="B506" s="8"/>
       <c r="D506" s="8"/>
       <c r="E506" s="8"/>
     </row>
     <row r="507">
-      <c r="A507" s="18"/>
+      <c r="A507" s="16"/>
       <c r="B507" s="8"/>
       <c r="D507" s="8"/>
       <c r="E507" s="8"/>
     </row>
     <row r="508">
-      <c r="A508" s="18"/>
+      <c r="A508" s="16"/>
       <c r="B508" s="8"/>
       <c r="D508" s="8"/>
       <c r="E508" s="8"/>
     </row>
     <row r="509">
-      <c r="A509" s="18"/>
+      <c r="A509" s="16"/>
       <c r="B509" s="8"/>
       <c r="D509" s="8"/>
       <c r="E509" s="8"/>
     </row>
     <row r="510">
-      <c r="A510" s="18"/>
+      <c r="A510" s="16"/>
       <c r="B510" s="8"/>
       <c r="D510" s="8"/>
       <c r="E510" s="8"/>
     </row>
     <row r="511">
-      <c r="A511" s="18"/>
+      <c r="A511" s="16"/>
       <c r="B511" s="8"/>
       <c r="D511" s="8"/>
       <c r="E511" s="8"/>
     </row>
     <row r="512">
-      <c r="A512" s="18"/>
+      <c r="A512" s="16"/>
       <c r="B512" s="8"/>
       <c r="D512" s="8"/>
       <c r="E512" s="8"/>
     </row>
     <row r="513">
-      <c r="A513" s="18"/>
+      <c r="A513" s="16"/>
       <c r="B513" s="8"/>
       <c r="D513" s="8"/>
       <c r="E513" s="8"/>
     </row>
     <row r="514">
-      <c r="A514" s="18"/>
+      <c r="A514" s="16"/>
       <c r="B514" s="8"/>
       <c r="D514" s="8"/>
       <c r="E514" s="8"/>
     </row>
     <row r="515">
-      <c r="A515" s="18"/>
+      <c r="A515" s="16"/>
       <c r="B515" s="8"/>
       <c r="D515" s="8"/>
       <c r="E515" s="8"/>
     </row>
     <row r="516">
-      <c r="A516" s="18"/>
+      <c r="A516" s="16"/>
       <c r="B516" s="8"/>
       <c r="D516" s="8"/>
       <c r="E516" s="8"/>
     </row>
     <row r="517">
-      <c r="A517" s="18"/>
+      <c r="A517" s="16"/>
       <c r="B517" s="8"/>
       <c r="D517" s="8"/>
       <c r="E517" s="8"/>
     </row>
     <row r="518">
-      <c r="A518" s="18"/>
+      <c r="A518" s="16"/>
       <c r="B518" s="8"/>
       <c r="D518" s="8"/>
       <c r="E518" s="8"/>
     </row>
     <row r="519">
-      <c r="A519" s="18"/>
+      <c r="A519" s="16"/>
       <c r="B519" s="8"/>
       <c r="D519" s="8"/>
       <c r="E519" s="8"/>
     </row>
     <row r="520">
-      <c r="A520" s="18"/>
+      <c r="A520" s="16"/>
       <c r="B520" s="8"/>
       <c r="D520" s="8"/>
       <c r="E520" s="8"/>
     </row>
     <row r="521">
-      <c r="A521" s="18"/>
+      <c r="A521" s="16"/>
       <c r="B521" s="8"/>
       <c r="D521" s="8"/>
       <c r="E521" s="8"/>
     </row>
     <row r="522">
-      <c r="A522" s="18"/>
+      <c r="A522" s="16"/>
       <c r="B522" s="8"/>
       <c r="D522" s="8"/>
       <c r="E522" s="8"/>
     </row>
     <row r="523">
-      <c r="A523" s="18"/>
+      <c r="A523" s="16"/>
       <c r="B523" s="8"/>
       <c r="D523" s="8"/>
       <c r="E523" s="8"/>
     </row>
     <row r="524">
-      <c r="A524" s="18"/>
+      <c r="A524" s="16"/>
       <c r="B524" s="8"/>
       <c r="D524" s="8"/>
       <c r="E524" s="8"/>
     </row>
     <row r="525">
-      <c r="A525" s="18"/>
+      <c r="A525" s="16"/>
       <c r="B525" s="8"/>
       <c r="D525" s="8"/>
       <c r="E525" s="8"/>
     </row>
     <row r="526">
-      <c r="A526" s="18"/>
+      <c r="A526" s="16"/>
       <c r="B526" s="8"/>
       <c r="D526" s="8"/>
       <c r="E526" s="8"/>
     </row>
     <row r="527">
-      <c r="A527" s="18"/>
+      <c r="A527" s="16"/>
       <c r="B527" s="8"/>
       <c r="D527" s="8"/>
       <c r="E527" s="8"/>
     </row>
     <row r="528">
-      <c r="A528" s="18"/>
+      <c r="A528" s="16"/>
       <c r="B528" s="8"/>
       <c r="D528" s="8"/>
       <c r="E528" s="8"/>
     </row>
     <row r="529">
-      <c r="A529" s="18"/>
+      <c r="A529" s="16"/>
       <c r="B529" s="8"/>
       <c r="D529" s="8"/>
       <c r="E529" s="8"/>
     </row>
     <row r="530">
-      <c r="A530" s="18"/>
+      <c r="A530" s="16"/>
       <c r="B530" s="8"/>
       <c r="D530" s="8"/>
       <c r="E530" s="8"/>
     </row>
     <row r="531">
-      <c r="A531" s="18"/>
+      <c r="A531" s="16"/>
       <c r="B531" s="8"/>
       <c r="D531" s="8"/>
       <c r="E531" s="8"/>
     </row>
     <row r="532">
-      <c r="A532" s="18"/>
+      <c r="A532" s="16"/>
       <c r="B532" s="8"/>
       <c r="D532" s="8"/>
       <c r="E532" s="8"/>
     </row>
     <row r="533">
-      <c r="A533" s="18"/>
+      <c r="A533" s="16"/>
       <c r="B533" s="8"/>
       <c r="D533" s="8"/>
       <c r="E533" s="8"/>
     </row>
     <row r="534">
-      <c r="A534" s="18"/>
+      <c r="A534" s="16"/>
       <c r="B534" s="8"/>
       <c r="D534" s="8"/>
       <c r="E534" s="8"/>
     </row>
     <row r="535">
-      <c r="A535" s="18"/>
+      <c r="A535" s="16"/>
       <c r="B535" s="8"/>
       <c r="D535" s="8"/>
       <c r="E535" s="8"/>
     </row>
     <row r="536">
-      <c r="A536" s="18"/>
+      <c r="A536" s="16"/>
       <c r="B536" s="8"/>
       <c r="D536" s="8"/>
       <c r="E536" s="8"/>
     </row>
     <row r="537">
-      <c r="A537" s="18"/>
+      <c r="A537" s="16"/>
       <c r="B537" s="8"/>
       <c r="D537" s="8"/>
       <c r="E537" s="8"/>
     </row>
     <row r="538">
-      <c r="A538" s="18"/>
+      <c r="A538" s="16"/>
       <c r="B538" s="8"/>
       <c r="D538" s="8"/>
       <c r="E538" s="8"/>
     </row>
     <row r="539">
-      <c r="A539" s="18"/>
+      <c r="A539" s="16"/>
       <c r="B539" s="8"/>
       <c r="D539" s="8"/>
       <c r="E539" s="8"/>
     </row>
     <row r="540">
-      <c r="A540" s="18"/>
+      <c r="A540" s="16"/>
       <c r="B540" s="8"/>
       <c r="D540" s="8"/>
       <c r="E540" s="8"/>
     </row>
     <row r="541">
-      <c r="A541" s="18"/>
+      <c r="A541" s="16"/>
       <c r="B541" s="8"/>
       <c r="D541" s="8"/>
       <c r="E541" s="8"/>
     </row>
     <row r="542">
-      <c r="A542" s="18"/>
+      <c r="A542" s="16"/>
       <c r="B542" s="8"/>
       <c r="D542" s="8"/>
       <c r="E542" s="8"/>
     </row>
     <row r="543">
-      <c r="A543" s="18"/>
+      <c r="A543" s="16"/>
       <c r="B543" s="8"/>
       <c r="D543" s="8"/>
       <c r="E543" s="8"/>
     </row>
     <row r="544">
-      <c r="A544" s="18"/>
+      <c r="A544" s="16"/>
       <c r="B544" s="8"/>
       <c r="D544" s="8"/>
       <c r="E544" s="8"/>
     </row>
     <row r="545">
-      <c r="A545" s="18"/>
+      <c r="A545" s="16"/>
       <c r="B545" s="8"/>
       <c r="D545" s="8"/>
       <c r="E545" s="8"/>
     </row>
     <row r="546">
-      <c r="A546" s="18"/>
+      <c r="A546" s="16"/>
       <c r="B546" s="8"/>
       <c r="D546" s="8"/>
       <c r="E546" s="8"/>
     </row>
     <row r="547">
-      <c r="A547" s="18"/>
+      <c r="A547" s="16"/>
       <c r="B547" s="8"/>
       <c r="D547" s="8"/>
       <c r="E547" s="8"/>
     </row>
     <row r="548">
-      <c r="A548" s="18"/>
+      <c r="A548" s="16"/>
       <c r="B548" s="8"/>
       <c r="D548" s="8"/>
       <c r="E548" s="8"/>
     </row>
     <row r="549">
-      <c r="A549" s="18"/>
+      <c r="A549" s="16"/>
       <c r="B549" s="8"/>
       <c r="D549" s="8"/>
       <c r="E549" s="8"/>
     </row>
     <row r="550">
-      <c r="A550" s="18"/>
+      <c r="A550" s="16"/>
       <c r="B550" s="8"/>
       <c r="D550" s="8"/>
       <c r="E550" s="8"/>
     </row>
     <row r="551">
-      <c r="A551" s="18"/>
+      <c r="A551" s="16"/>
       <c r="B551" s="8"/>
       <c r="D551" s="8"/>
       <c r="E551" s="8"/>
     </row>
     <row r="552">
-      <c r="A552" s="18"/>
+      <c r="A552" s="16"/>
       <c r="B552" s="8"/>
       <c r="D552" s="8"/>
       <c r="E552" s="8"/>
     </row>
     <row r="553">
-      <c r="A553" s="18"/>
+      <c r="A553" s="16"/>
       <c r="B553" s="8"/>
       <c r="D553" s="8"/>
       <c r="E553" s="8"/>
     </row>
     <row r="554">
-      <c r="A554" s="18"/>
+      <c r="A554" s="16"/>
       <c r="B554" s="8"/>
       <c r="D554" s="8"/>
       <c r="E554" s="8"/>
     </row>
     <row r="555">
-      <c r="A555" s="18"/>
+      <c r="A555" s="16"/>
       <c r="B555" s="8"/>
       <c r="D555" s="8"/>
       <c r="E555" s="8"/>
     </row>
     <row r="556">
-      <c r="A556" s="18"/>
+      <c r="A556" s="16"/>
       <c r="B556" s="8"/>
       <c r="D556" s="8"/>
       <c r="E556" s="8"/>
     </row>
     <row r="557">
-      <c r="A557" s="18"/>
+      <c r="A557" s="16"/>
       <c r="B557" s="8"/>
       <c r="D557" s="8"/>
       <c r="E557" s="8"/>
     </row>
     <row r="558">
-      <c r="A558" s="18"/>
+      <c r="A558" s="16"/>
       <c r="B558" s="8"/>
       <c r="D558" s="8"/>
       <c r="E558" s="8"/>
     </row>
     <row r="559">
-      <c r="A559" s="18"/>
+      <c r="A559" s="16"/>
       <c r="B559" s="8"/>
       <c r="D559" s="8"/>
       <c r="E559" s="8"/>
     </row>
     <row r="560">
-      <c r="A560" s="18"/>
+      <c r="A560" s="16"/>
       <c r="B560" s="8"/>
       <c r="D560" s="8"/>
       <c r="E560" s="8"/>
     </row>
     <row r="561">
-      <c r="A561" s="18"/>
+      <c r="A561" s="16"/>
       <c r="B561" s="8"/>
       <c r="D561" s="8"/>
       <c r="E561" s="8"/>
     </row>
     <row r="562">
-      <c r="A562" s="18"/>
+      <c r="A562" s="16"/>
       <c r="B562" s="8"/>
       <c r="D562" s="8"/>
       <c r="E562" s="8"/>
     </row>
     <row r="563">
-      <c r="A563" s="18"/>
+      <c r="A563" s="16"/>
       <c r="B563" s="8"/>
       <c r="D563" s="8"/>
       <c r="E563" s="8"/>
     </row>
     <row r="564">
-      <c r="A564" s="18"/>
+      <c r="A564" s="16"/>
       <c r="B564" s="8"/>
       <c r="D564" s="8"/>
       <c r="E564" s="8"/>
     </row>
     <row r="565">
-      <c r="A565" s="18"/>
+      <c r="A565" s="16"/>
       <c r="B565" s="8"/>
       <c r="D565" s="8"/>
       <c r="E565" s="8"/>
     </row>
     <row r="566">
-      <c r="A566" s="18"/>
+      <c r="A566" s="16"/>
       <c r="B566" s="8"/>
       <c r="D566" s="8"/>
       <c r="E566" s="8"/>
     </row>
     <row r="567">
-      <c r="A567" s="18"/>
+      <c r="A567" s="16"/>
       <c r="B567" s="8"/>
       <c r="D567" s="8"/>
       <c r="E567" s="8"/>
     </row>
     <row r="568">
-      <c r="A568" s="18"/>
+      <c r="A568" s="16"/>
       <c r="B568" s="8"/>
       <c r="D568" s="8"/>
       <c r="E568" s="8"/>
     </row>
     <row r="569">
-      <c r="A569" s="18"/>
+      <c r="A569" s="16"/>
       <c r="B569" s="8"/>
       <c r="D569" s="8"/>
       <c r="E569" s="8"/>
     </row>
     <row r="570">
-      <c r="A570" s="18"/>
+      <c r="A570" s="16"/>
       <c r="B570" s="8"/>
       <c r="D570" s="8"/>
       <c r="E570" s="8"/>
     </row>
     <row r="571">
-      <c r="A571" s="18"/>
+      <c r="A571" s="16"/>
       <c r="B571" s="8"/>
       <c r="D571" s="8"/>
       <c r="E571" s="8"/>
     </row>
     <row r="572">
-      <c r="A572" s="18"/>
+      <c r="A572" s="16"/>
       <c r="B572" s="8"/>
       <c r="D572" s="8"/>
       <c r="E572" s="8"/>
     </row>
     <row r="573">
-      <c r="A573" s="18"/>
+      <c r="A573" s="16"/>
       <c r="B573" s="8"/>
       <c r="D573" s="8"/>
       <c r="E573" s="8"/>
     </row>
     <row r="574">
-      <c r="A574" s="18"/>
+      <c r="A574" s="16"/>
       <c r="B574" s="8"/>
       <c r="D574" s="8"/>
       <c r="E574" s="8"/>
     </row>
     <row r="575">
-      <c r="A575" s="18"/>
+      <c r="A575" s="16"/>
       <c r="B575" s="8"/>
       <c r="D575" s="8"/>
       <c r="E575" s="8"/>
     </row>
     <row r="576">
-      <c r="A576" s="18"/>
+      <c r="A576" s="16"/>
       <c r="B576" s="8"/>
       <c r="D576" s="8"/>
       <c r="E576" s="8"/>
     </row>
     <row r="577">
-      <c r="A577" s="18"/>
+      <c r="A577" s="16"/>
       <c r="B577" s="8"/>
       <c r="D577" s="8"/>
       <c r="E577" s="8"/>
     </row>
     <row r="578">
-      <c r="A578" s="18"/>
+      <c r="A578" s="16"/>
       <c r="B578" s="8"/>
       <c r="D578" s="8"/>
       <c r="E578" s="8"/>
     </row>
     <row r="579">
-      <c r="A579" s="18"/>
+      <c r="A579" s="16"/>
       <c r="B579" s="8"/>
       <c r="D579" s="8"/>
       <c r="E579" s="8"/>
     </row>
     <row r="580">
-      <c r="A580" s="18"/>
+      <c r="A580" s="16"/>
       <c r="B580" s="8"/>
       <c r="D580" s="8"/>
       <c r="E580" s="8"/>
     </row>
     <row r="581">
-      <c r="A581" s="18"/>
+      <c r="A581" s="16"/>
       <c r="B581" s="8"/>
       <c r="D581" s="8"/>
       <c r="E581" s="8"/>
     </row>
     <row r="582">
-      <c r="A582" s="18"/>
+      <c r="A582" s="16"/>
       <c r="B582" s="8"/>
       <c r="D582" s="8"/>
       <c r="E582" s="8"/>
     </row>
     <row r="583">
-      <c r="A583" s="18"/>
+      <c r="A583" s="16"/>
       <c r="B583" s="8"/>
       <c r="D583" s="8"/>
       <c r="E583" s="8"/>
     </row>
     <row r="584">
-      <c r="A584" s="18"/>
+      <c r="A584" s="16"/>
       <c r="B584" s="8"/>
       <c r="D584" s="8"/>
       <c r="E584" s="8"/>
     </row>
     <row r="585">
-      <c r="A585" s="18"/>
+      <c r="A585" s="16"/>
       <c r="B585" s="8"/>
       <c r="D585" s="8"/>
       <c r="E585" s="8"/>
     </row>
     <row r="586">
-      <c r="A586" s="18"/>
+      <c r="A586" s="16"/>
       <c r="B586" s="8"/>
       <c r="D586" s="8"/>
       <c r="E586" s="8"/>
     </row>
     <row r="587">
-      <c r="A587" s="18"/>
+      <c r="A587" s="16"/>
       <c r="B587" s="8"/>
       <c r="D587" s="8"/>
       <c r="E587" s="8"/>
     </row>
     <row r="588">
-      <c r="A588" s="18"/>
+      <c r="A588" s="16"/>
       <c r="B588" s="8"/>
       <c r="D588" s="8"/>
       <c r="E588" s="8"/>
     </row>
     <row r="589">
-      <c r="A589" s="18"/>
+      <c r="A589" s="16"/>
       <c r="B589" s="8"/>
       <c r="D589" s="8"/>
       <c r="E589" s="8"/>
     </row>
     <row r="590">
-      <c r="A590" s="18"/>
+      <c r="A590" s="16"/>
       <c r="B590" s="8"/>
       <c r="D590" s="8"/>
       <c r="E590" s="8"/>
     </row>
     <row r="591">
-      <c r="A591" s="18"/>
+      <c r="A591" s="16"/>
       <c r="B591" s="8"/>
       <c r="D591" s="8"/>
       <c r="E591" s="8"/>
     </row>
     <row r="592">
-      <c r="A592" s="18"/>
+      <c r="A592" s="16"/>
       <c r="B592" s="8"/>
       <c r="D592" s="8"/>
       <c r="E592" s="8"/>
     </row>
     <row r="593">
-      <c r="A593" s="18"/>
+      <c r="A593" s="16"/>
       <c r="B593" s="8"/>
       <c r="D593" s="8"/>
       <c r="E593" s="8"/>
     </row>
     <row r="594">
-      <c r="A594" s="18"/>
+      <c r="A594" s="16"/>
       <c r="B594" s="8"/>
       <c r="D594" s="8"/>
       <c r="E594" s="8"/>
     </row>
     <row r="595">
-      <c r="A595" s="18"/>
+      <c r="A595" s="16"/>
       <c r="B595" s="8"/>
       <c r="D595" s="8"/>
       <c r="E595" s="8"/>
     </row>
     <row r="596">
-      <c r="A596" s="18"/>
+      <c r="A596" s="16"/>
       <c r="B596" s="8"/>
       <c r="D596" s="8"/>
       <c r="E596" s="8"/>
     </row>
     <row r="597">
-      <c r="A597" s="18"/>
+      <c r="A597" s="16"/>
       <c r="B597" s="8"/>
       <c r="D597" s="8"/>
       <c r="E597" s="8"/>
     </row>
     <row r="598">
-      <c r="A598" s="18"/>
+      <c r="A598" s="16"/>
       <c r="B598" s="8"/>
       <c r="D598" s="8"/>
       <c r="E598" s="8"/>
     </row>
     <row r="599">
-      <c r="A599" s="18"/>
+      <c r="A599" s="16"/>
       <c r="B599" s="8"/>
       <c r="D599" s="8"/>
       <c r="E599" s="8"/>
     </row>
     <row r="600">
-      <c r="A600" s="18"/>
+      <c r="A600" s="16"/>
       <c r="B600" s="8"/>
       <c r="D600" s="8"/>
       <c r="E600" s="8"/>
     </row>
     <row r="601">
-      <c r="A601" s="18"/>
+      <c r="A601" s="16"/>
       <c r="B601" s="8"/>
       <c r="D601" s="8"/>
       <c r="E601" s="8"/>
     </row>
     <row r="602">
-      <c r="A602" s="18"/>
+      <c r="A602" s="16"/>
       <c r="B602" s="8"/>
       <c r="D602" s="8"/>
       <c r="E602" s="8"/>
     </row>
     <row r="603">
-      <c r="A603" s="18"/>
+      <c r="A603" s="16"/>
       <c r="B603" s="8"/>
       <c r="D603" s="8"/>
       <c r="E603" s="8"/>
     </row>
     <row r="604">
-      <c r="A604" s="18"/>
+      <c r="A604" s="16"/>
       <c r="B604" s="8"/>
       <c r="D604" s="8"/>
       <c r="E604" s="8"/>
     </row>
     <row r="605">
-      <c r="A605" s="18"/>
+      <c r="A605" s="16"/>
       <c r="B605" s="8"/>
       <c r="D605" s="8"/>
       <c r="E605" s="8"/>
     </row>
     <row r="606">
-      <c r="A606" s="18"/>
+      <c r="A606" s="16"/>
       <c r="B606" s="8"/>
       <c r="D606" s="8"/>
       <c r="E606" s="8"/>
     </row>
     <row r="607">
-      <c r="A607" s="18"/>
+      <c r="A607" s="16"/>
       <c r="B607" s="8"/>
       <c r="D607" s="8"/>
       <c r="E607" s="8"/>
     </row>
     <row r="608">
-      <c r="A608" s="18"/>
+      <c r="A608" s="16"/>
       <c r="B608" s="8"/>
       <c r="D608" s="8"/>
       <c r="E608" s="8"/>
     </row>
     <row r="609">
-      <c r="A609" s="18"/>
+      <c r="A609" s="16"/>
       <c r="B609" s="8"/>
       <c r="D609" s="8"/>
       <c r="E609" s="8"/>
     </row>
     <row r="610">
-      <c r="A610" s="18"/>
+      <c r="A610" s="16"/>
       <c r="B610" s="8"/>
       <c r="D610" s="8"/>
       <c r="E610" s="8"/>
     </row>
     <row r="611">
-      <c r="A611" s="18"/>
+      <c r="A611" s="16"/>
       <c r="B611" s="8"/>
       <c r="D611" s="8"/>
       <c r="E611" s="8"/>
     </row>
     <row r="612">
-      <c r="A612" s="18"/>
+      <c r="A612" s="16"/>
       <c r="B612" s="8"/>
       <c r="D612" s="8"/>
       <c r="E612" s="8"/>
     </row>
     <row r="613">
-      <c r="A613" s="18"/>
+      <c r="A613" s="16"/>
       <c r="B613" s="8"/>
       <c r="D613" s="8"/>
       <c r="E613" s="8"/>
     </row>
     <row r="614">
-      <c r="A614" s="18"/>
+      <c r="A614" s="16"/>
       <c r="B614" s="8"/>
       <c r="D614" s="8"/>
       <c r="E614" s="8"/>
     </row>
     <row r="615">
-      <c r="A615" s="18"/>
+      <c r="A615" s="16"/>
       <c r="B615" s="8"/>
       <c r="D615" s="8"/>
       <c r="E615" s="8"/>
     </row>
     <row r="616">
-      <c r="A616" s="18"/>
+      <c r="A616" s="16"/>
       <c r="B616" s="8"/>
       <c r="D616" s="8"/>
       <c r="E616" s="8"/>
     </row>
     <row r="617">
-      <c r="A617" s="18"/>
+      <c r="A617" s="16"/>
       <c r="B617" s="8"/>
       <c r="D617" s="8"/>
       <c r="E617" s="8"/>
     </row>
     <row r="618">
-      <c r="A618" s="18"/>
+      <c r="A618" s="16"/>
       <c r="B618" s="8"/>
       <c r="D618" s="8"/>
       <c r="E618" s="8"/>
     </row>
     <row r="619">
-      <c r="A619" s="18"/>
+      <c r="A619" s="16"/>
       <c r="B619" s="8"/>
       <c r="D619" s="8"/>
       <c r="E619" s="8"/>
     </row>
     <row r="620">
-      <c r="A620" s="18"/>
+      <c r="A620" s="16"/>
       <c r="B620" s="8"/>
       <c r="D620" s="8"/>
       <c r="E620" s="8"/>
     </row>
     <row r="621">
-      <c r="A621" s="18"/>
+      <c r="A621" s="16"/>
       <c r="B621" s="8"/>
       <c r="D621" s="8"/>
       <c r="E621" s="8"/>
     </row>
     <row r="622">
-      <c r="A622" s="18"/>
+      <c r="A622" s="16"/>
       <c r="B622" s="8"/>
       <c r="D622" s="8"/>
       <c r="E622" s="8"/>
     </row>
     <row r="623">
-      <c r="A623" s="18"/>
+      <c r="A623" s="16"/>
       <c r="B623" s="8"/>
       <c r="D623" s="8"/>
       <c r="E623" s="8"/>
     </row>
     <row r="624">
-      <c r="A624" s="18"/>
+      <c r="A624" s="16"/>
       <c r="B624" s="8"/>
       <c r="D624" s="8"/>
       <c r="E624" s="8"/>
     </row>
     <row r="625">
-      <c r="A625" s="18"/>
+      <c r="A625" s="16"/>
       <c r="B625" s="8"/>
       <c r="D625" s="8"/>
       <c r="E625" s="8"/>
     </row>
     <row r="626">
-      <c r="A626" s="18"/>
+      <c r="A626" s="16"/>
       <c r="B626" s="8"/>
       <c r="D626" s="8"/>
       <c r="E626" s="8"/>
     </row>
     <row r="627">
-      <c r="A627" s="18"/>
+      <c r="A627" s="16"/>
       <c r="B627" s="8"/>
       <c r="D627" s="8"/>
       <c r="E627" s="8"/>
     </row>
     <row r="628">
-      <c r="A628" s="18"/>
+      <c r="A628" s="16"/>
       <c r="B628" s="8"/>
       <c r="D628" s="8"/>
       <c r="E628" s="8"/>
     </row>
     <row r="629">
-      <c r="A629" s="18"/>
+      <c r="A629" s="16"/>
       <c r="B629" s="8"/>
       <c r="D629" s="8"/>
       <c r="E629" s="8"/>
     </row>
     <row r="630">
-      <c r="A630" s="18"/>
+      <c r="A630" s="16"/>
       <c r="B630" s="8"/>
       <c r="D630" s="8"/>
       <c r="E630" s="8"/>
     </row>
     <row r="631">
-      <c r="A631" s="18"/>
+      <c r="A631" s="16"/>
       <c r="B631" s="8"/>
       <c r="D631" s="8"/>
       <c r="E631" s="8"/>
     </row>
     <row r="632">
-      <c r="A632" s="18"/>
+      <c r="A632" s="16"/>
       <c r="B632" s="8"/>
       <c r="D632" s="8"/>
       <c r="E632" s="8"/>
     </row>
     <row r="633">
-      <c r="A633" s="18"/>
+      <c r="A633" s="16"/>
       <c r="B633" s="8"/>
       <c r="D633" s="8"/>
       <c r="E633" s="8"/>
     </row>
     <row r="634">
-      <c r="A634" s="18"/>
+      <c r="A634" s="16"/>
       <c r="B634" s="8"/>
       <c r="D634" s="8"/>
       <c r="E634" s="8"/>
     </row>
     <row r="635">
-      <c r="A635" s="18"/>
+      <c r="A635" s="16"/>
       <c r="B635" s="8"/>
       <c r="D635" s="8"/>
       <c r="E635" s="8"/>
     </row>
     <row r="636">
-      <c r="A636" s="18"/>
+      <c r="A636" s="16"/>
       <c r="B636" s="8"/>
       <c r="D636" s="8"/>
       <c r="E636" s="8"/>
     </row>
     <row r="637">
-      <c r="A637" s="18"/>
+      <c r="A637" s="16"/>
       <c r="B637" s="8"/>
       <c r="D637" s="8"/>
       <c r="E637" s="8"/>
     </row>
     <row r="638">
-      <c r="A638" s="18"/>
+      <c r="A638" s="16"/>
       <c r="B638" s="8"/>
       <c r="D638" s="8"/>
       <c r="E638" s="8"/>
     </row>
     <row r="639">
-      <c r="A639" s="18"/>
+      <c r="A639" s="16"/>
       <c r="B639" s="8"/>
       <c r="D639" s="8"/>
       <c r="E639" s="8"/>
     </row>
     <row r="640">
-      <c r="A640" s="18"/>
+      <c r="A640" s="16"/>
       <c r="B640" s="8"/>
       <c r="D640" s="8"/>
       <c r="E640" s="8"/>
     </row>
     <row r="641">
-      <c r="A641" s="18"/>
+      <c r="A641" s="16"/>
       <c r="B641" s="8"/>
       <c r="D641" s="8"/>
       <c r="E641" s="8"/>
     </row>
     <row r="642">
-      <c r="A642" s="18"/>
+      <c r="A642" s="16"/>
       <c r="B642" s="8"/>
       <c r="D642" s="8"/>
       <c r="E642" s="8"/>
     </row>
     <row r="643">
-      <c r="A643" s="18"/>
+      <c r="A643" s="16"/>
       <c r="B643" s="8"/>
       <c r="D643" s="8"/>
       <c r="E643" s="8"/>
     </row>
     <row r="644">
-      <c r="A644" s="18"/>
+      <c r="A644" s="16"/>
       <c r="B644" s="8"/>
       <c r="D644" s="8"/>
       <c r="E644" s="8"/>
     </row>
     <row r="645">
-      <c r="A645" s="18"/>
+      <c r="A645" s="16"/>
       <c r="B645" s="8"/>
       <c r="D645" s="8"/>
       <c r="E645" s="8"/>
     </row>
     <row r="646">
-      <c r="A646" s="18"/>
+      <c r="A646" s="16"/>
       <c r="B646" s="8"/>
       <c r="D646" s="8"/>
       <c r="E646" s="8"/>
     </row>
     <row r="647">
-      <c r="A647" s="18"/>
+      <c r="A647" s="16"/>
       <c r="B647" s="8"/>
       <c r="D647" s="8"/>
       <c r="E647" s="8"/>
     </row>
     <row r="648">
-      <c r="A648" s="18"/>
+      <c r="A648" s="16"/>
       <c r="B648" s="8"/>
       <c r="D648" s="8"/>
       <c r="E648" s="8"/>
     </row>
     <row r="649">
-      <c r="A649" s="18"/>
+      <c r="A649" s="16"/>
       <c r="B649" s="8"/>
       <c r="D649" s="8"/>
       <c r="E649" s="8"/>
     </row>
     <row r="650">
-      <c r="A650" s="18"/>
+      <c r="A650" s="16"/>
       <c r="B650" s="8"/>
       <c r="D650" s="8"/>
       <c r="E650" s="8"/>
     </row>
     <row r="651">
-      <c r="A651" s="18"/>
+      <c r="A651" s="16"/>
       <c r="B651" s="8"/>
       <c r="D651" s="8"/>
       <c r="E651" s="8"/>
     </row>
     <row r="652">
-      <c r="A652" s="18"/>
+      <c r="A652" s="16"/>
       <c r="B652" s="8"/>
       <c r="D652" s="8"/>
       <c r="E652" s="8"/>
     </row>
     <row r="653">
-      <c r="A653" s="18"/>
+      <c r="A653" s="16"/>
       <c r="B653" s="8"/>
       <c r="D653" s="8"/>
       <c r="E653" s="8"/>
     </row>
     <row r="654">
-      <c r="A654" s="18"/>
+      <c r="A654" s="16"/>
       <c r="B654" s="8"/>
       <c r="D654" s="8"/>
       <c r="E654" s="8"/>
     </row>
     <row r="655">
-      <c r="A655" s="18"/>
+      <c r="A655" s="16"/>
       <c r="B655" s="8"/>
       <c r="D655" s="8"/>
       <c r="E655" s="8"/>
     </row>
     <row r="656">
-      <c r="A656" s="18"/>
+      <c r="A656" s="16"/>
       <c r="B656" s="8"/>
       <c r="D656" s="8"/>
       <c r="E656" s="8"/>
     </row>
     <row r="657">
-      <c r="A657" s="18"/>
+      <c r="A657" s="16"/>
       <c r="B657" s="8"/>
       <c r="D657" s="8"/>
       <c r="E657" s="8"/>
     </row>
     <row r="658">
-      <c r="A658" s="18"/>
+      <c r="A658" s="16"/>
       <c r="B658" s="8"/>
       <c r="D658" s="8"/>
       <c r="E658" s="8"/>
     </row>
     <row r="659">
-      <c r="A659" s="18"/>
+      <c r="A659" s="16"/>
       <c r="B659" s="8"/>
       <c r="D659" s="8"/>
       <c r="E659" s="8"/>
     </row>
     <row r="660">
-      <c r="A660" s="18"/>
+      <c r="A660" s="16"/>
       <c r="B660" s="8"/>
       <c r="D660" s="8"/>
       <c r="E660" s="8"/>
     </row>
     <row r="661">
-      <c r="A661" s="18"/>
+      <c r="A661" s="16"/>
       <c r="B661" s="8"/>
       <c r="D661" s="8"/>
       <c r="E661" s="8"/>
     </row>
     <row r="662">
-      <c r="A662" s="18"/>
+      <c r="A662" s="16"/>
       <c r="B662" s="8"/>
       <c r="D662" s="8"/>
       <c r="E662" s="8"/>
     </row>
     <row r="663">
-      <c r="A663" s="18"/>
+      <c r="A663" s="16"/>
       <c r="B663" s="8"/>
       <c r="D663" s="8"/>
       <c r="E663" s="8"/>
     </row>
     <row r="664">
-      <c r="A664" s="18"/>
+      <c r="A664" s="16"/>
       <c r="B664" s="8"/>
       <c r="D664" s="8"/>
       <c r="E664" s="8"/>
     </row>
     <row r="665">
-      <c r="A665" s="18"/>
+      <c r="A665" s="16"/>
       <c r="B665" s="8"/>
       <c r="D665" s="8"/>
       <c r="E665" s="8"/>
     </row>
     <row r="666">
-      <c r="A666" s="18"/>
+      <c r="A666" s="16"/>
       <c r="B666" s="8"/>
       <c r="D666" s="8"/>
       <c r="E666" s="8"/>
     </row>
     <row r="667">
-      <c r="A667" s="18"/>
+      <c r="A667" s="16"/>
       <c r="B667" s="8"/>
       <c r="D667" s="8"/>
       <c r="E667" s="8"/>
     </row>
     <row r="668">
-      <c r="A668" s="18"/>
+      <c r="A668" s="16"/>
       <c r="B668" s="8"/>
       <c r="D668" s="8"/>
       <c r="E668" s="8"/>
     </row>
     <row r="669">
-      <c r="A669" s="18"/>
+      <c r="A669" s="16"/>
       <c r="B669" s="8"/>
       <c r="D669" s="8"/>
       <c r="E669" s="8"/>
     </row>
     <row r="670">
-      <c r="A670" s="18"/>
+      <c r="A670" s="16"/>
       <c r="B670" s="8"/>
       <c r="D670" s="8"/>
       <c r="E670" s="8"/>
     </row>
     <row r="671">
-      <c r="A671" s="18"/>
+      <c r="A671" s="16"/>
       <c r="B671" s="8"/>
       <c r="D671" s="8"/>
       <c r="E671" s="8"/>
     </row>
     <row r="672">
-      <c r="A672" s="18"/>
+      <c r="A672" s="16"/>
       <c r="B672" s="8"/>
       <c r="D672" s="8"/>
       <c r="E672" s="8"/>
     </row>
     <row r="673">
-      <c r="A673" s="18"/>
+      <c r="A673" s="16"/>
       <c r="B673" s="8"/>
       <c r="D673" s="8"/>
       <c r="E673" s="8"/>
     </row>
     <row r="674">
-      <c r="A674" s="18"/>
+      <c r="A674" s="16"/>
       <c r="B674" s="8"/>
       <c r="D674" s="8"/>
       <c r="E674" s="8"/>
     </row>
     <row r="675">
-      <c r="A675" s="18"/>
+      <c r="A675" s="16"/>
       <c r="B675" s="8"/>
       <c r="D675" s="8"/>
       <c r="E675" s="8"/>
     </row>
     <row r="676">
-      <c r="A676" s="18"/>
+      <c r="A676" s="16"/>
       <c r="B676" s="8"/>
       <c r="D676" s="8"/>
       <c r="E676" s="8"/>
     </row>
     <row r="677">
-      <c r="A677" s="18"/>
+      <c r="A677" s="16"/>
       <c r="B677" s="8"/>
       <c r="D677" s="8"/>
       <c r="E677" s="8"/>
     </row>
     <row r="678">
-      <c r="A678" s="18"/>
+      <c r="A678" s="16"/>
       <c r="B678" s="8"/>
       <c r="D678" s="8"/>
       <c r="E678" s="8"/>
     </row>
     <row r="679">
-      <c r="A679" s="18"/>
+      <c r="A679" s="16"/>
       <c r="B679" s="8"/>
       <c r="D679" s="8"/>
       <c r="E679" s="8"/>
     </row>
     <row r="680">
-      <c r="A680" s="18"/>
+      <c r="A680" s="16"/>
       <c r="B680" s="8"/>
       <c r="D680" s="8"/>
       <c r="E680" s="8"/>
     </row>
     <row r="681">
-      <c r="A681" s="18"/>
+      <c r="A681" s="16"/>
       <c r="B681" s="8"/>
       <c r="D681" s="8"/>
       <c r="E681" s="8"/>
     </row>
     <row r="682">
-      <c r="A682" s="18"/>
+      <c r="A682" s="16"/>
       <c r="B682" s="8"/>
       <c r="D682" s="8"/>
       <c r="E682" s="8"/>
     </row>
     <row r="683">
-      <c r="A683" s="18"/>
+      <c r="A683" s="16"/>
       <c r="B683" s="8"/>
       <c r="D683" s="8"/>
       <c r="E683" s="8"/>
     </row>
     <row r="684">
-      <c r="A684" s="18"/>
+      <c r="A684" s="16"/>
       <c r="B684" s="8"/>
       <c r="D684" s="8"/>
       <c r="E684" s="8"/>
     </row>
     <row r="685">
-      <c r="A685" s="18"/>
+      <c r="A685" s="16"/>
       <c r="B685" s="8"/>
       <c r="D685" s="8"/>
       <c r="E685" s="8"/>
     </row>
     <row r="686">
-      <c r="A686" s="18"/>
+      <c r="A686" s="16"/>
       <c r="B686" s="8"/>
       <c r="D686" s="8"/>
       <c r="E686" s="8"/>
     </row>
     <row r="687">
-      <c r="A687" s="18"/>
+      <c r="A687" s="16"/>
       <c r="B687" s="8"/>
       <c r="D687" s="8"/>
       <c r="E687" s="8"/>
     </row>
     <row r="688">
-      <c r="A688" s="18"/>
+      <c r="A688" s="16"/>
       <c r="B688" s="8"/>
       <c r="D688" s="8"/>
       <c r="E688" s="8"/>
     </row>
     <row r="689">
-      <c r="A689" s="18"/>
+      <c r="A689" s="16"/>
       <c r="B689" s="8"/>
       <c r="D689" s="8"/>
       <c r="E689" s="8"/>
     </row>
     <row r="690">
-      <c r="A690" s="18"/>
+      <c r="A690" s="16"/>
       <c r="B690" s="8"/>
       <c r="D690" s="8"/>
       <c r="E690" s="8"/>
     </row>
     <row r="691">
-      <c r="A691" s="18"/>
+      <c r="A691" s="16"/>
       <c r="B691" s="8"/>
       <c r="D691" s="8"/>
       <c r="E691" s="8"/>
     </row>
     <row r="692">
-      <c r="A692" s="18"/>
+      <c r="A692" s="16"/>
       <c r="B692" s="8"/>
       <c r="D692" s="8"/>
       <c r="E692" s="8"/>
     </row>
     <row r="693">
-      <c r="A693" s="18"/>
+      <c r="A693" s="16"/>
       <c r="B693" s="8"/>
       <c r="D693" s="8"/>
       <c r="E693" s="8"/>
     </row>
     <row r="694">
-      <c r="A694" s="18"/>
+      <c r="A694" s="16"/>
       <c r="B694" s="8"/>
       <c r="D694" s="8"/>
       <c r="E694" s="8"/>
     </row>
     <row r="695">
-      <c r="A695" s="18"/>
+      <c r="A695" s="16"/>
       <c r="B695" s="8"/>
       <c r="D695" s="8"/>
       <c r="E695" s="8"/>
     </row>
     <row r="696">
-      <c r="A696" s="18"/>
+      <c r="A696" s="16"/>
       <c r="B696" s="8"/>
       <c r="D696" s="8"/>
       <c r="E696" s="8"/>
     </row>
     <row r="697">
-      <c r="A697" s="18"/>
+      <c r="A697" s="16"/>
       <c r="B697" s="8"/>
       <c r="D697" s="8"/>
       <c r="E697" s="8"/>
     </row>
     <row r="698">
-      <c r="A698" s="18"/>
+      <c r="A698" s="16"/>
       <c r="B698" s="8"/>
       <c r="D698" s="8"/>
       <c r="E698" s="8"/>
     </row>
     <row r="699">
-      <c r="A699" s="18"/>
+      <c r="A699" s="16"/>
       <c r="B699" s="8"/>
       <c r="D699" s="8"/>
       <c r="E699" s="8"/>
     </row>
     <row r="700">
-      <c r="A700" s="18"/>
+      <c r="A700" s="16"/>
       <c r="B700" s="8"/>
       <c r="D700" s="8"/>
       <c r="E700" s="8"/>
     </row>
     <row r="701">
-      <c r="A701" s="18"/>
+      <c r="A701" s="16"/>
       <c r="B701" s="8"/>
       <c r="D701" s="8"/>
       <c r="E701" s="8"/>
     </row>
     <row r="702">
-      <c r="A702" s="18"/>
+      <c r="A702" s="16"/>
       <c r="B702" s="8"/>
       <c r="D702" s="8"/>
       <c r="E702" s="8"/>
     </row>
     <row r="703">
-      <c r="A703" s="18"/>
+      <c r="A703" s="16"/>
       <c r="B703" s="8"/>
       <c r="D703" s="8"/>
       <c r="E703" s="8"/>
     </row>
     <row r="704">
-      <c r="A704" s="18"/>
+      <c r="A704" s="16"/>
       <c r="B704" s="8"/>
       <c r="D704" s="8"/>
       <c r="E704" s="8"/>
     </row>
     <row r="705">
-      <c r="A705" s="18"/>
+      <c r="A705" s="16"/>
       <c r="B705" s="8"/>
       <c r="D705" s="8"/>
       <c r="E705" s="8"/>
     </row>
     <row r="706">
-      <c r="A706" s="18"/>
+      <c r="A706" s="16"/>
       <c r="B706" s="8"/>
       <c r="D706" s="8"/>
       <c r="E706" s="8"/>
     </row>
     <row r="707">
-      <c r="A707" s="18"/>
+      <c r="A707" s="16"/>
       <c r="B707" s="8"/>
       <c r="D707" s="8"/>
       <c r="E707" s="8"/>
     </row>
     <row r="708">
-      <c r="A708" s="18"/>
+      <c r="A708" s="16"/>
       <c r="B708" s="8"/>
       <c r="D708" s="8"/>
       <c r="E708" s="8"/>
     </row>
     <row r="709">
-      <c r="A709" s="18"/>
+      <c r="A709" s="16"/>
       <c r="B709" s="8"/>
       <c r="D709" s="8"/>
       <c r="E709" s="8"/>
     </row>
     <row r="710">
-      <c r="A710" s="18"/>
+      <c r="A710" s="16"/>
       <c r="B710" s="8"/>
       <c r="D710" s="8"/>
       <c r="E710" s="8"/>
     </row>
     <row r="711">
-      <c r="A711" s="18"/>
+      <c r="A711" s="16"/>
       <c r="B711" s="8"/>
       <c r="D711" s="8"/>
       <c r="E711" s="8"/>
     </row>
     <row r="712">
-      <c r="A712" s="18"/>
+      <c r="A712" s="16"/>
       <c r="B712" s="8"/>
       <c r="D712" s="8"/>
       <c r="E712" s="8"/>
     </row>
     <row r="713">
-      <c r="A713" s="18"/>
+      <c r="A713" s="16"/>
       <c r="B713" s="8"/>
       <c r="D713" s="8"/>
       <c r="E713" s="8"/>
     </row>
     <row r="714">
-      <c r="A714" s="18"/>
+      <c r="A714" s="16"/>
       <c r="B714" s="8"/>
       <c r="D714" s="8"/>
       <c r="E714" s="8"/>
     </row>
     <row r="715">
-      <c r="A715" s="18"/>
+      <c r="A715" s="16"/>
       <c r="B715" s="8"/>
       <c r="D715" s="8"/>
       <c r="E715" s="8"/>
     </row>
     <row r="716">
-      <c r="A716" s="18"/>
+      <c r="A716" s="16"/>
       <c r="B716" s="8"/>
       <c r="D716" s="8"/>
       <c r="E716" s="8"/>
     </row>
     <row r="717">
-      <c r="A717" s="18"/>
+      <c r="A717" s="16"/>
       <c r="B717" s="8"/>
       <c r="D717" s="8"/>
       <c r="E717" s="8"/>
     </row>
     <row r="718">
-      <c r="A718" s="18"/>
+      <c r="A718" s="16"/>
       <c r="B718" s="8"/>
       <c r="D718" s="8"/>
       <c r="E718" s="8"/>
     </row>
     <row r="719">
-      <c r="A719" s="18"/>
+      <c r="A719" s="16"/>
       <c r="B719" s="8"/>
       <c r="D719" s="8"/>
       <c r="E719" s="8"/>
     </row>
     <row r="720">
-      <c r="A720" s="18"/>
+      <c r="A720" s="16"/>
       <c r="B720" s="8"/>
       <c r="D720" s="8"/>
       <c r="E720" s="8"/>
     </row>
     <row r="721">
-      <c r="A721" s="18"/>
+      <c r="A721" s="16"/>
       <c r="B721" s="8"/>
       <c r="D721" s="8"/>
       <c r="E721" s="8"/>
     </row>
     <row r="722">
-      <c r="A722" s="18"/>
+      <c r="A722" s="16"/>
       <c r="B722" s="8"/>
       <c r="D722" s="8"/>
       <c r="E722" s="8"/>
     </row>
     <row r="723">
-      <c r="A723" s="18"/>
+      <c r="A723" s="16"/>
       <c r="B723" s="8"/>
       <c r="D723" s="8"/>
       <c r="E723" s="8"/>
     </row>
     <row r="724">
-      <c r="A724" s="18"/>
+      <c r="A724" s="16"/>
       <c r="B724" s="8"/>
       <c r="D724" s="8"/>
       <c r="E724" s="8"/>
     </row>
     <row r="725">
-      <c r="A725" s="18"/>
+      <c r="A725" s="16"/>
       <c r="B725" s="8"/>
       <c r="D725" s="8"/>
       <c r="E725" s="8"/>
     </row>
     <row r="726">
-      <c r="A726" s="18"/>
+      <c r="A726" s="16"/>
       <c r="B726" s="8"/>
       <c r="D726" s="8"/>
       <c r="E726" s="8"/>
     </row>
     <row r="727">
-      <c r="A727" s="18"/>
+      <c r="A727" s="16"/>
       <c r="B727" s="8"/>
       <c r="D727" s="8"/>
       <c r="E727" s="8"/>
     </row>
     <row r="728">
-      <c r="A728" s="18"/>
+      <c r="A728" s="16"/>
       <c r="B728" s="8"/>
       <c r="D728" s="8"/>
       <c r="E728" s="8"/>
     </row>
     <row r="729">
-      <c r="A729" s="18"/>
+      <c r="A729" s="16"/>
       <c r="B729" s="8"/>
       <c r="D729" s="8"/>
       <c r="E729" s="8"/>
     </row>
     <row r="730">
-      <c r="A730" s="18"/>
+      <c r="A730" s="16"/>
       <c r="B730" s="8"/>
       <c r="D730" s="8"/>
       <c r="E730" s="8"/>
     </row>
     <row r="731">
-      <c r="A731" s="18"/>
+      <c r="A731" s="16"/>
       <c r="B731" s="8"/>
       <c r="D731" s="8"/>
       <c r="E731" s="8"/>
     </row>
     <row r="732">
-      <c r="A732" s="18"/>
+      <c r="A732" s="16"/>
       <c r="B732" s="8"/>
       <c r="D732" s="8"/>
       <c r="E732" s="8"/>
     </row>
     <row r="733">
-      <c r="A733" s="18"/>
+      <c r="A733" s="16"/>
       <c r="B733" s="8"/>
       <c r="D733" s="8"/>
       <c r="E733" s="8"/>
     </row>
     <row r="734">
-      <c r="A734" s="18"/>
+      <c r="A734" s="16"/>
       <c r="B734" s="8"/>
       <c r="D734" s="8"/>
       <c r="E734" s="8"/>
     </row>
     <row r="735">
-      <c r="A735" s="18"/>
+      <c r="A735" s="16"/>
       <c r="B735" s="8"/>
       <c r="D735" s="8"/>
       <c r="E735" s="8"/>
     </row>
     <row r="736">
-      <c r="A736" s="18"/>
+      <c r="A736" s="16"/>
       <c r="B736" s="8"/>
       <c r="D736" s="8"/>
       <c r="E736" s="8"/>
     </row>
     <row r="737">
-      <c r="A737" s="18"/>
+      <c r="A737" s="16"/>
       <c r="B737" s="8"/>
       <c r="D737" s="8"/>
       <c r="E737" s="8"/>
     </row>
     <row r="738">
-      <c r="A738" s="18"/>
+      <c r="A738" s="16"/>
       <c r="B738" s="8"/>
       <c r="D738" s="8"/>
       <c r="E738" s="8"/>
     </row>
     <row r="739">
-      <c r="A739" s="18"/>
+      <c r="A739" s="16"/>
       <c r="B739" s="8"/>
       <c r="D739" s="8"/>
       <c r="E739" s="8"/>
     </row>
     <row r="740">
-      <c r="A740" s="18"/>
+      <c r="A740" s="16"/>
       <c r="B740" s="8"/>
       <c r="D740" s="8"/>
       <c r="E740" s="8"/>
     </row>
     <row r="741">
-      <c r="A741" s="18"/>
+      <c r="A741" s="16"/>
       <c r="B741" s="8"/>
       <c r="D741" s="8"/>
       <c r="E741" s="8"/>
     </row>
     <row r="742">
-      <c r="A742" s="18"/>
+      <c r="A742" s="16"/>
       <c r="B742" s="8"/>
       <c r="D742" s="8"/>
       <c r="E742" s="8"/>
     </row>
     <row r="743">
-      <c r="A743" s="18"/>
+      <c r="A743" s="16"/>
       <c r="B743" s="8"/>
       <c r="D743" s="8"/>
       <c r="E743" s="8"/>
     </row>
     <row r="744">
-      <c r="A744" s="18"/>
+      <c r="A744" s="16"/>
       <c r="B744" s="8"/>
       <c r="D744" s="8"/>
       <c r="E744" s="8"/>
     </row>
     <row r="745">
-      <c r="A745" s="18"/>
+      <c r="A745" s="16"/>
       <c r="B745" s="8"/>
       <c r="D745" s="8"/>
       <c r="E745" s="8"/>
     </row>
     <row r="746">
-      <c r="A746" s="18"/>
+      <c r="A746" s="16"/>
       <c r="B746" s="8"/>
       <c r="D746" s="8"/>
       <c r="E746" s="8"/>
     </row>
     <row r="747">
-      <c r="A747" s="18"/>
+      <c r="A747" s="16"/>
       <c r="B747" s="8"/>
       <c r="D747" s="8"/>
       <c r="E747" s="8"/>
     </row>
     <row r="748">
-      <c r="A748" s="18"/>
+      <c r="A748" s="16"/>
       <c r="B748" s="8"/>
       <c r="D748" s="8"/>
       <c r="E748" s="8"/>
     </row>
     <row r="749">
-      <c r="A749" s="18"/>
+      <c r="A749" s="16"/>
       <c r="B749" s="8"/>
       <c r="D749" s="8"/>
       <c r="E749" s="8"/>
     </row>
     <row r="750">
-      <c r="A750" s="18"/>
+      <c r="A750" s="16"/>
       <c r="B750" s="8"/>
       <c r="D750" s="8"/>
       <c r="E750" s="8"/>
     </row>
     <row r="751">
-      <c r="A751" s="18"/>
+      <c r="A751" s="16"/>
       <c r="B751" s="8"/>
       <c r="D751" s="8"/>
       <c r="E751" s="8"/>
     </row>
     <row r="752">
-      <c r="A752" s="18"/>
+      <c r="A752" s="16"/>
       <c r="B752" s="8"/>
       <c r="D752" s="8"/>
       <c r="E752" s="8"/>
     </row>
     <row r="753">
-      <c r="A753" s="18"/>
+      <c r="A753" s="16"/>
       <c r="B753" s="8"/>
       <c r="D753" s="8"/>
       <c r="E753" s="8"/>
     </row>
     <row r="754">
-      <c r="A754" s="18"/>
+      <c r="A754" s="16"/>
       <c r="B754" s="8"/>
       <c r="D754" s="8"/>
       <c r="E754" s="8"/>
     </row>
     <row r="755">
-      <c r="A755" s="18"/>
+      <c r="A755" s="16"/>
       <c r="B755" s="8"/>
       <c r="D755" s="8"/>
       <c r="E755" s="8"/>
     </row>
     <row r="756">
-      <c r="A756" s="18"/>
+      <c r="A756" s="16"/>
       <c r="B756" s="8"/>
       <c r="D756" s="8"/>
       <c r="E756" s="8"/>
     </row>
     <row r="757">
-      <c r="A757" s="18"/>
+      <c r="A757" s="16"/>
       <c r="B757" s="8"/>
       <c r="D757" s="8"/>
       <c r="E757" s="8"/>
     </row>
     <row r="758">
-      <c r="A758" s="18"/>
+      <c r="A758" s="16"/>
       <c r="B758" s="8"/>
       <c r="D758" s="8"/>
       <c r="E758" s="8"/>
     </row>
     <row r="759">
-      <c r="A759" s="18"/>
+      <c r="A759" s="16"/>
       <c r="B759" s="8"/>
       <c r="D759" s="8"/>
       <c r="E759" s="8"/>
     </row>
     <row r="760">
-      <c r="A760" s="18"/>
+      <c r="A760" s="16"/>
       <c r="B760" s="8"/>
       <c r="D760" s="8"/>
       <c r="E760" s="8"/>
     </row>
     <row r="761">
-      <c r="A761" s="18"/>
+      <c r="A761" s="16"/>
       <c r="B761" s="8"/>
       <c r="D761" s="8"/>
       <c r="E761" s="8"/>
     </row>
     <row r="762">
-      <c r="A762" s="18"/>
+      <c r="A762" s="16"/>
       <c r="B762" s="8"/>
       <c r="D762" s="8"/>
       <c r="E762" s="8"/>
     </row>
     <row r="763">
-      <c r="A763" s="18"/>
+      <c r="A763" s="16"/>
       <c r="B763" s="8"/>
       <c r="D763" s="8"/>
       <c r="E763" s="8"/>
     </row>
     <row r="764">
-      <c r="A764" s="18"/>
+      <c r="A764" s="16"/>
       <c r="B764" s="8"/>
       <c r="D764" s="8"/>
       <c r="E764" s="8"/>
     </row>
     <row r="765">
-      <c r="A765" s="18"/>
+      <c r="A765" s="16"/>
       <c r="B765" s="8"/>
       <c r="D765" s="8"/>
       <c r="E765" s="8"/>
     </row>
     <row r="766">
-      <c r="A766" s="18"/>
+      <c r="A766" s="16"/>
       <c r="B766" s="8"/>
       <c r="D766" s="8"/>
       <c r="E766" s="8"/>
     </row>
     <row r="767">
-      <c r="A767" s="18"/>
+      <c r="A767" s="16"/>
       <c r="B767" s="8"/>
       <c r="D767" s="8"/>
       <c r="E767" s="8"/>
     </row>
     <row r="768">
-      <c r="A768" s="18"/>
+      <c r="A768" s="16"/>
       <c r="B768" s="8"/>
       <c r="D768" s="8"/>
       <c r="E768" s="8"/>
     </row>
     <row r="769">
-      <c r="A769" s="18"/>
+      <c r="A769" s="16"/>
       <c r="B769" s="8"/>
       <c r="D769" s="8"/>
       <c r="E769" s="8"/>
     </row>
     <row r="770">
-      <c r="A770" s="18"/>
+      <c r="A770" s="16"/>
       <c r="B770" s="8"/>
       <c r="D770" s="8"/>
       <c r="E770" s="8"/>
     </row>
     <row r="771">
-      <c r="A771" s="18"/>
+      <c r="A771" s="16"/>
       <c r="B771" s="8"/>
       <c r="D771" s="8"/>
       <c r="E771" s="8"/>
     </row>
     <row r="772">
-      <c r="A772" s="18"/>
+      <c r="A772" s="16"/>
       <c r="B772" s="8"/>
       <c r="D772" s="8"/>
       <c r="E772" s="8"/>
     </row>
     <row r="773">
-      <c r="A773" s="18"/>
+      <c r="A773" s="16"/>
       <c r="B773" s="8"/>
       <c r="D773" s="8"/>
       <c r="E773" s="8"/>
     </row>
     <row r="774">
-      <c r="A774" s="18"/>
+      <c r="A774" s="16"/>
       <c r="B774" s="8"/>
       <c r="D774" s="8"/>
       <c r="E774" s="8"/>
     </row>
     <row r="775">
-      <c r="A775" s="18"/>
+      <c r="A775" s="16"/>
       <c r="B775" s="8"/>
       <c r="D775" s="8"/>
       <c r="E775" s="8"/>
     </row>
     <row r="776">
-      <c r="A776" s="18"/>
+      <c r="A776" s="16"/>
       <c r="B776" s="8"/>
       <c r="D776" s="8"/>
       <c r="E776" s="8"/>
     </row>
     <row r="777">
-      <c r="A777" s="18"/>
+      <c r="A777" s="16"/>
       <c r="B777" s="8"/>
       <c r="D777" s="8"/>
       <c r="E777" s="8"/>
     </row>
     <row r="778">
-      <c r="A778" s="18"/>
+      <c r="A778" s="16"/>
       <c r="B778" s="8"/>
       <c r="D778" s="8"/>
       <c r="E778" s="8"/>
     </row>
     <row r="779">
-      <c r="A779" s="18"/>
+      <c r="A779" s="16"/>
       <c r="B779" s="8"/>
       <c r="D779" s="8"/>
       <c r="E779" s="8"/>
     </row>
     <row r="780">
-      <c r="A780" s="18"/>
+      <c r="A780" s="16"/>
       <c r="B780" s="8"/>
       <c r="D780" s="8"/>
       <c r="E780" s="8"/>
     </row>
     <row r="781">
-      <c r="A781" s="18"/>
+      <c r="A781" s="16"/>
       <c r="B781" s="8"/>
       <c r="D781" s="8"/>
       <c r="E781" s="8"/>
     </row>
     <row r="782">
-      <c r="A782" s="18"/>
+      <c r="A782" s="16"/>
       <c r="B782" s="8"/>
       <c r="D782" s="8"/>
       <c r="E782" s="8"/>
     </row>
     <row r="783">
-      <c r="A783" s="18"/>
+      <c r="A783" s="16"/>
       <c r="B783" s="8"/>
       <c r="D783" s="8"/>
       <c r="E783" s="8"/>
     </row>
     <row r="784">
-      <c r="A784" s="18"/>
+      <c r="A784" s="16"/>
       <c r="B784" s="8"/>
       <c r="D784" s="8"/>
       <c r="E784" s="8"/>
     </row>
     <row r="785">
-      <c r="A785" s="18"/>
+      <c r="A785" s="16"/>
       <c r="B785" s="8"/>
       <c r="D785" s="8"/>
       <c r="E785" s="8"/>
     </row>
     <row r="786">
-      <c r="A786" s="18"/>
+      <c r="A786" s="16"/>
       <c r="B786" s="8"/>
       <c r="D786" s="8"/>
       <c r="E786" s="8"/>
     </row>
     <row r="787">
-      <c r="A787" s="18"/>
+      <c r="A787" s="16"/>
       <c r="B787" s="8"/>
       <c r="D787" s="8"/>
       <c r="E787" s="8"/>
     </row>
     <row r="788">
-      <c r="A788" s="18"/>
+      <c r="A788" s="16"/>
       <c r="B788" s="8"/>
       <c r="D788" s="8"/>
       <c r="E788" s="8"/>
     </row>
     <row r="789">
-      <c r="A789" s="18"/>
+      <c r="A789" s="16"/>
       <c r="B789" s="8"/>
       <c r="D789" s="8"/>
       <c r="E789" s="8"/>
     </row>
     <row r="790">
-      <c r="A790" s="18"/>
+      <c r="A790" s="16"/>
       <c r="B790" s="8"/>
       <c r="D790" s="8"/>
       <c r="E790" s="8"/>
     </row>
     <row r="791">
-      <c r="A791" s="18"/>
+      <c r="A791" s="16"/>
       <c r="B791" s="8"/>
       <c r="D791" s="8"/>
       <c r="E791" s="8"/>
     </row>
     <row r="792">
-      <c r="A792" s="18"/>
+      <c r="A792" s="16"/>
       <c r="B792" s="8"/>
       <c r="D792" s="8"/>
       <c r="E792" s="8"/>
     </row>
     <row r="793">
-      <c r="A793" s="18"/>
+      <c r="A793" s="16"/>
       <c r="B793" s="8"/>
       <c r="D793" s="8"/>
       <c r="E793" s="8"/>
     </row>
     <row r="794">
-      <c r="A794" s="18"/>
+      <c r="A794" s="16"/>
       <c r="B794" s="8"/>
       <c r="D794" s="8"/>
       <c r="E794" s="8"/>
     </row>
     <row r="795">
-      <c r="A795" s="18"/>
+      <c r="A795" s="16"/>
       <c r="B795" s="8"/>
       <c r="D795" s="8"/>
       <c r="E795" s="8"/>
     </row>
     <row r="796">
-      <c r="A796" s="18"/>
+      <c r="A796" s="16"/>
       <c r="B796" s="8"/>
       <c r="D796" s="8"/>
       <c r="E796" s="8"/>
     </row>
     <row r="797">
-      <c r="A797" s="18"/>
+      <c r="A797" s="16"/>
       <c r="B797" s="8"/>
       <c r="D797" s="8"/>
       <c r="E797" s="8"/>
     </row>
     <row r="798">
-      <c r="A798" s="18"/>
+      <c r="A798" s="16"/>
       <c r="B798" s="8"/>
       <c r="D798" s="8"/>
       <c r="E798" s="8"/>
     </row>
     <row r="799">
-      <c r="A799" s="18"/>
+      <c r="A799" s="16"/>
       <c r="B799" s="8"/>
       <c r="D799" s="8"/>
       <c r="E799" s="8"/>
     </row>
     <row r="800">
-      <c r="A800" s="18"/>
+      <c r="A800" s="16"/>
       <c r="B800" s="8"/>
       <c r="D800" s="8"/>
       <c r="E800" s="8"/>
     </row>
     <row r="801">
-      <c r="A801" s="18"/>
+      <c r="A801" s="16"/>
       <c r="B801" s="8"/>
       <c r="D801" s="8"/>
       <c r="E801" s="8"/>
     </row>
     <row r="802">
-      <c r="A802" s="18"/>
+      <c r="A802" s="16"/>
       <c r="B802" s="8"/>
       <c r="D802" s="8"/>
       <c r="E802" s="8"/>
     </row>
     <row r="803">
-      <c r="A803" s="18"/>
+      <c r="A803" s="16"/>
       <c r="B803" s="8"/>
       <c r="D803" s="8"/>
       <c r="E803" s="8"/>
     </row>
     <row r="804">
-      <c r="A804" s="18"/>
+      <c r="A804" s="16"/>
       <c r="B804" s="8"/>
       <c r="D804" s="8"/>
       <c r="E804" s="8"/>
     </row>
     <row r="805">
-      <c r="A805" s="18"/>
+      <c r="A805" s="16"/>
       <c r="B805" s="8"/>
       <c r="D805" s="8"/>
       <c r="E805" s="8"/>
     </row>
     <row r="806">
-      <c r="A806" s="18"/>
+      <c r="A806" s="16"/>
       <c r="B806" s="8"/>
       <c r="D806" s="8"/>
       <c r="E806" s="8"/>
     </row>
     <row r="807">
-      <c r="A807" s="18"/>
+      <c r="A807" s="16"/>
       <c r="B807" s="8"/>
       <c r="D807" s="8"/>
       <c r="E807" s="8"/>
     </row>
     <row r="808">
-      <c r="A808" s="18"/>
+      <c r="A808" s="16"/>
       <c r="B808" s="8"/>
       <c r="D808" s="8"/>
       <c r="E808" s="8"/>
     </row>
     <row r="809">
-      <c r="A809" s="18"/>
+      <c r="A809" s="16"/>
       <c r="B809" s="8"/>
       <c r="D809" s="8"/>
       <c r="E809" s="8"/>
     </row>
     <row r="810">
-      <c r="A810" s="18"/>
+      <c r="A810" s="16"/>
       <c r="B810" s="8"/>
       <c r="D810" s="8"/>
       <c r="E810" s="8"/>
     </row>
     <row r="811">
-      <c r="A811" s="18"/>
+      <c r="A811" s="16"/>
       <c r="B811" s="8"/>
       <c r="D811" s="8"/>
       <c r="E811" s="8"/>
     </row>
     <row r="812">
-      <c r="A812" s="18"/>
+      <c r="A812" s="16"/>
       <c r="B812" s="8"/>
       <c r="D812" s="8"/>
       <c r="E812" s="8"/>
     </row>
     <row r="813">
-      <c r="A813" s="18"/>
+      <c r="A813" s="16"/>
       <c r="B813" s="8"/>
       <c r="D813" s="8"/>
       <c r="E813" s="8"/>
     </row>
     <row r="814">
-      <c r="A814" s="18"/>
+      <c r="A814" s="16"/>
       <c r="B814" s="8"/>
       <c r="D814" s="8"/>
       <c r="E814" s="8"/>
     </row>
     <row r="815">
-      <c r="A815" s="18"/>
+      <c r="A815" s="16"/>
       <c r="B815" s="8"/>
       <c r="D815" s="8"/>
       <c r="E815" s="8"/>
     </row>
     <row r="816">
-      <c r="A816" s="18"/>
+      <c r="A816" s="16"/>
       <c r="B816" s="8"/>
       <c r="D816" s="8"/>
       <c r="E816" s="8"/>
     </row>
     <row r="817">
-      <c r="A817" s="18"/>
+      <c r="A817" s="16"/>
       <c r="B817" s="8"/>
       <c r="D817" s="8"/>
       <c r="E817" s="8"/>
     </row>
     <row r="818">
-      <c r="A818" s="18"/>
+      <c r="A818" s="16"/>
       <c r="B818" s="8"/>
       <c r="D818" s="8"/>
       <c r="E818" s="8"/>
     </row>
     <row r="819">
-      <c r="A819" s="18"/>
+      <c r="A819" s="16"/>
       <c r="B819" s="8"/>
       <c r="D819" s="8"/>
       <c r="E819" s="8"/>
     </row>
     <row r="820">
-      <c r="A820" s="18"/>
+      <c r="A820" s="16"/>
       <c r="B820" s="8"/>
       <c r="D820" s="8"/>
       <c r="E820" s="8"/>
     </row>
     <row r="821">
-      <c r="A821" s="18"/>
+      <c r="A821" s="16"/>
       <c r="B821" s="8"/>
       <c r="D821" s="8"/>
       <c r="E821" s="8"/>
     </row>
     <row r="822">
-      <c r="A822" s="18"/>
+      <c r="A822" s="16"/>
       <c r="B822" s="8"/>
       <c r="D822" s="8"/>
       <c r="E822" s="8"/>
     </row>
     <row r="823">
-      <c r="A823" s="18"/>
+      <c r="A823" s="16"/>
       <c r="B823" s="8"/>
       <c r="D823" s="8"/>
       <c r="E823" s="8"/>
     </row>
     <row r="824">
-      <c r="A824" s="18"/>
+      <c r="A824" s="16"/>
       <c r="B824" s="8"/>
       <c r="D824" s="8"/>
       <c r="E824" s="8"/>
     </row>
     <row r="825">
-      <c r="A825" s="18"/>
+      <c r="A825" s="16"/>
       <c r="B825" s="8"/>
       <c r="D825" s="8"/>
       <c r="E825" s="8"/>
     </row>
     <row r="826">
-      <c r="A826" s="18"/>
+      <c r="A826" s="16"/>
       <c r="B826" s="8"/>
       <c r="D826" s="8"/>
       <c r="E826" s="8"/>
     </row>
     <row r="827">
-      <c r="A827" s="18"/>
+      <c r="A827" s="16"/>
       <c r="B827" s="8"/>
       <c r="D827" s="8"/>
       <c r="E827" s="8"/>
     </row>
     <row r="828">
-      <c r="A828" s="18"/>
+      <c r="A828" s="16"/>
       <c r="B828" s="8"/>
       <c r="D828" s="8"/>
       <c r="E828" s="8"/>
     </row>
     <row r="829">
-      <c r="A829" s="18"/>
+      <c r="A829" s="16"/>
       <c r="B829" s="8"/>
       <c r="D829" s="8"/>
       <c r="E829" s="8"/>
     </row>
     <row r="830">
-      <c r="A830" s="18"/>
+      <c r="A830" s="16"/>
       <c r="B830" s="8"/>
       <c r="D830" s="8"/>
       <c r="E830" s="8"/>
     </row>
     <row r="831">
-      <c r="A831" s="18"/>
+      <c r="A831" s="16"/>
       <c r="B831" s="8"/>
       <c r="D831" s="8"/>
       <c r="E831" s="8"/>
     </row>
     <row r="832">
-      <c r="A832" s="18"/>
+      <c r="A832" s="16"/>
       <c r="B832" s="8"/>
       <c r="D832" s="8"/>
       <c r="E832" s="8"/>
     </row>
     <row r="833">
-      <c r="A833" s="18"/>
+      <c r="A833" s="16"/>
       <c r="B833" s="8"/>
       <c r="D833" s="8"/>
       <c r="E833" s="8"/>
     </row>
     <row r="834">
-      <c r="A834" s="18"/>
+      <c r="A834" s="16"/>
       <c r="B834" s="8"/>
       <c r="D834" s="8"/>
       <c r="E834" s="8"/>
     </row>
     <row r="835">
-      <c r="A835" s="18"/>
+      <c r="A835" s="16"/>
       <c r="B835" s="8"/>
       <c r="D835" s="8"/>
       <c r="E835" s="8"/>
     </row>
     <row r="836">
-      <c r="A836" s="18"/>
+      <c r="A836" s="16"/>
       <c r="B836" s="8"/>
       <c r="D836" s="8"/>
       <c r="E836" s="8"/>
     </row>
     <row r="837">
-      <c r="A837" s="18"/>
+      <c r="A837" s="16"/>
       <c r="B837" s="8"/>
       <c r="D837" s="8"/>
       <c r="E837" s="8"/>
     </row>
     <row r="838">
-      <c r="A838" s="18"/>
+      <c r="A838" s="16"/>
       <c r="B838" s="8"/>
       <c r="D838" s="8"/>
       <c r="E838" s="8"/>
     </row>
     <row r="839">
-      <c r="A839" s="18"/>
+      <c r="A839" s="16"/>
       <c r="B839" s="8"/>
       <c r="D839" s="8"/>
       <c r="E839" s="8"/>
     </row>
     <row r="840">
-      <c r="A840" s="18"/>
+      <c r="A840" s="16"/>
       <c r="B840" s="8"/>
       <c r="D840" s="8"/>
       <c r="E840" s="8"/>
     </row>
     <row r="841">
-      <c r="A841" s="18"/>
+      <c r="A841" s="16"/>
       <c r="B841" s="8"/>
       <c r="D841" s="8"/>
       <c r="E841" s="8"/>
     </row>
     <row r="842">
-      <c r="A842" s="18"/>
+      <c r="A842" s="16"/>
       <c r="B842" s="8"/>
       <c r="D842" s="8"/>
       <c r="E842" s="8"/>
     </row>
     <row r="843">
-      <c r="A843" s="18"/>
+      <c r="A843" s="16"/>
       <c r="B843" s="8"/>
       <c r="D843" s="8"/>
       <c r="E843" s="8"/>
     </row>
     <row r="844">
-      <c r="A844" s="18"/>
+      <c r="A844" s="16"/>
       <c r="B844" s="8"/>
       <c r="D844" s="8"/>
       <c r="E844" s="8"/>
     </row>
     <row r="845">
-      <c r="A845" s="18"/>
+      <c r="A845" s="16"/>
       <c r="B845" s="8"/>
       <c r="D845" s="8"/>
       <c r="E845" s="8"/>
     </row>
     <row r="846">
-      <c r="A846" s="18"/>
+      <c r="A846" s="16"/>
       <c r="B846" s="8"/>
       <c r="D846" s="8"/>
       <c r="E846" s="8"/>
     </row>
     <row r="847">
-      <c r="A847" s="18"/>
+      <c r="A847" s="16"/>
       <c r="B847" s="8"/>
       <c r="D847" s="8"/>
       <c r="E847" s="8"/>
     </row>
     <row r="848">
-      <c r="A848" s="18"/>
+      <c r="A848" s="16"/>
       <c r="B848" s="8"/>
       <c r="D848" s="8"/>
       <c r="E848" s="8"/>
     </row>
     <row r="849">
-      <c r="A849" s="18"/>
+      <c r="A849" s="16"/>
       <c r="B849" s="8"/>
       <c r="D849" s="8"/>
       <c r="E849" s="8"/>
     </row>
     <row r="850">
-      <c r="A850" s="18"/>
+      <c r="A850" s="16"/>
       <c r="B850" s="8"/>
       <c r="D850" s="8"/>
       <c r="E850" s="8"/>
     </row>
     <row r="851">
-      <c r="A851" s="18"/>
+      <c r="A851" s="16"/>
       <c r="B851" s="8"/>
       <c r="D851" s="8"/>
       <c r="E851" s="8"/>
     </row>
     <row r="852">
-      <c r="A852" s="18"/>
+      <c r="A852" s="16"/>
       <c r="B852" s="8"/>
       <c r="D852" s="8"/>
       <c r="E852" s="8"/>
     </row>
     <row r="853">
-      <c r="A853" s="18"/>
+      <c r="A853" s="16"/>
       <c r="B853" s="8"/>
       <c r="D853" s="8"/>
       <c r="E853" s="8"/>
     </row>
     <row r="854">
-      <c r="A854" s="18"/>
+      <c r="A854" s="16"/>
       <c r="B854" s="8"/>
       <c r="D854" s="8"/>
       <c r="E854" s="8"/>
     </row>
     <row r="855">
-      <c r="A855" s="18"/>
+      <c r="A855" s="16"/>
       <c r="B855" s="8"/>
       <c r="D855" s="8"/>
       <c r="E855" s="8"/>
     </row>
     <row r="856">
-      <c r="A856" s="18"/>
+      <c r="A856" s="16"/>
       <c r="B856" s="8"/>
       <c r="D856" s="8"/>
       <c r="E856" s="8"/>
     </row>
     <row r="857">
-      <c r="A857" s="18"/>
+      <c r="A857" s="16"/>
       <c r="B857" s="8"/>
       <c r="D857" s="8"/>
       <c r="E857" s="8"/>
     </row>
     <row r="858">
-      <c r="A858" s="18"/>
+      <c r="A858" s="16"/>
       <c r="B858" s="8"/>
       <c r="D858" s="8"/>
       <c r="E858" s="8"/>
     </row>
     <row r="859">
-      <c r="A859" s="18"/>
+      <c r="A859" s="16"/>
       <c r="B859" s="8"/>
       <c r="D859" s="8"/>
       <c r="E859" s="8"/>
     </row>
     <row r="860">
-      <c r="A860" s="18"/>
+      <c r="A860" s="16"/>
       <c r="B860" s="8"/>
       <c r="D860" s="8"/>
       <c r="E860" s="8"/>
     </row>
     <row r="861">
-      <c r="A861" s="18"/>
+      <c r="A861" s="16"/>
       <c r="B861" s="8"/>
       <c r="D861" s="8"/>
       <c r="E861" s="8"/>
     </row>
     <row r="862">
-      <c r="A862" s="18"/>
+      <c r="A862" s="16"/>
       <c r="B862" s="8"/>
       <c r="D862" s="8"/>
       <c r="E862" s="8"/>
     </row>
     <row r="863">
-      <c r="A863" s="18"/>
+      <c r="A863" s="16"/>
       <c r="B863" s="8"/>
       <c r="D863" s="8"/>
       <c r="E863" s="8"/>
     </row>
     <row r="864">
-      <c r="A864" s="18"/>
+      <c r="A864" s="16"/>
       <c r="B864" s="8"/>
       <c r="D864" s="8"/>
       <c r="E864" s="8"/>
     </row>
     <row r="865">
-      <c r="A865" s="18"/>
+      <c r="A865" s="16"/>
       <c r="B865" s="8"/>
       <c r="D865" s="8"/>
       <c r="E865" s="8"/>
     </row>
     <row r="866">
-      <c r="A866" s="18"/>
+      <c r="A866" s="16"/>
       <c r="B866" s="8"/>
       <c r="D866" s="8"/>
       <c r="E866" s="8"/>
     </row>
     <row r="867">
-      <c r="A867" s="18"/>
+      <c r="A867" s="16"/>
       <c r="B867" s="8"/>
       <c r="D867" s="8"/>
       <c r="E867" s="8"/>
     </row>
     <row r="868">
-      <c r="A868" s="18"/>
+      <c r="A868" s="16"/>
       <c r="B868" s="8"/>
       <c r="D868" s="8"/>
       <c r="E868" s="8"/>
     </row>
     <row r="869">
-      <c r="A869" s="18"/>
+      <c r="A869" s="16"/>
       <c r="B869" s="8"/>
       <c r="D869" s="8"/>
       <c r="E869" s="8"/>
     </row>
     <row r="870">
-      <c r="A870" s="18"/>
+      <c r="A870" s="16"/>
       <c r="B870" s="8"/>
       <c r="D870" s="8"/>
       <c r="E870" s="8"/>
     </row>
     <row r="871">
-      <c r="A871" s="18"/>
+      <c r="A871" s="16"/>
       <c r="B871" s="8"/>
       <c r="D871" s="8"/>
       <c r="E871" s="8"/>
     </row>
     <row r="872">
-      <c r="A872" s="18"/>
+      <c r="A872" s="16"/>
       <c r="B872" s="8"/>
       <c r="D872" s="8"/>
       <c r="E872" s="8"/>
     </row>
     <row r="873">
-      <c r="A873" s="18"/>
+      <c r="A873" s="16"/>
       <c r="B873" s="8"/>
       <c r="D873" s="8"/>
       <c r="E873" s="8"/>
     </row>
     <row r="874">
-      <c r="A874" s="18"/>
+      <c r="A874" s="16"/>
       <c r="B874" s="8"/>
       <c r="D874" s="8"/>
       <c r="E874" s="8"/>
     </row>
     <row r="875">
-      <c r="A875" s="18"/>
+      <c r="A875" s="16"/>
       <c r="B875" s="8"/>
       <c r="D875" s="8"/>
       <c r="E875" s="8"/>
     </row>
     <row r="876">
-      <c r="A876" s="18"/>
+      <c r="A876" s="16"/>
       <c r="B876" s="8"/>
       <c r="D876" s="8"/>
       <c r="E876" s="8"/>
     </row>
     <row r="877">
-      <c r="A877" s="18"/>
+      <c r="A877" s="16"/>
       <c r="B877" s="8"/>
       <c r="D877" s="8"/>
       <c r="E877" s="8"/>
     </row>
     <row r="878">
-      <c r="A878" s="18"/>
+      <c r="A878" s="16"/>
       <c r="B878" s="8"/>
       <c r="D878" s="8"/>
       <c r="E878" s="8"/>
     </row>
     <row r="879">
-      <c r="A879" s="18"/>
+      <c r="A879" s="16"/>
       <c r="B879" s="8"/>
       <c r="D879" s="8"/>
       <c r="E879" s="8"/>
     </row>
     <row r="880">
-      <c r="A880" s="18"/>
+      <c r="A880" s="16"/>
       <c r="B880" s="8"/>
       <c r="D880" s="8"/>
       <c r="E880" s="8"/>
     </row>
     <row r="881">
-      <c r="A881" s="18"/>
+      <c r="A881" s="16"/>
       <c r="B881" s="8"/>
       <c r="D881" s="8"/>
       <c r="E881" s="8"/>
     </row>
     <row r="882">
-      <c r="A882" s="18"/>
+      <c r="A882" s="16"/>
       <c r="B882" s="8"/>
       <c r="D882" s="8"/>
       <c r="E882" s="8"/>
     </row>
     <row r="883">
-      <c r="A883" s="18"/>
+      <c r="A883" s="16"/>
       <c r="B883" s="8"/>
       <c r="D883" s="8"/>
       <c r="E883" s="8"/>
     </row>
     <row r="884">
-      <c r="A884" s="18"/>
+      <c r="A884" s="16"/>
       <c r="B884" s="8"/>
       <c r="D884" s="8"/>
       <c r="E884" s="8"/>
     </row>
     <row r="885">
-      <c r="A885" s="18"/>
+      <c r="A885" s="16"/>
       <c r="B885" s="8"/>
       <c r="D885" s="8"/>
       <c r="E885" s="8"/>
     </row>
     <row r="886">
-      <c r="A886" s="18"/>
+      <c r="A886" s="16"/>
       <c r="B886" s="8"/>
       <c r="D886" s="8"/>
       <c r="E886" s="8"/>
     </row>
     <row r="887">
-      <c r="A887" s="18"/>
+      <c r="A887" s="16"/>
       <c r="B887" s="8"/>
       <c r="D887" s="8"/>
       <c r="E887" s="8"/>
     </row>
     <row r="888">
-      <c r="A888" s="18"/>
+      <c r="A888" s="16"/>
       <c r="B888" s="8"/>
       <c r="D888" s="8"/>
       <c r="E888" s="8"/>
     </row>
     <row r="889">
-      <c r="A889" s="18"/>
+      <c r="A889" s="16"/>
       <c r="B889" s="8"/>
       <c r="D889" s="8"/>
       <c r="E889" s="8"/>
     </row>
     <row r="890">
-      <c r="A890" s="18"/>
+      <c r="A890" s="16"/>
       <c r="B890" s="8"/>
       <c r="D890" s="8"/>
       <c r="E890" s="8"/>
     </row>
     <row r="891">
-      <c r="A891" s="18"/>
+      <c r="A891" s="16"/>
       <c r="B891" s="8"/>
       <c r="D891" s="8"/>
       <c r="E891" s="8"/>
     </row>
     <row r="892">
-      <c r="A892" s="18"/>
+      <c r="A892" s="16"/>
       <c r="B892" s="8"/>
       <c r="D892" s="8"/>
       <c r="E892" s="8"/>
     </row>
     <row r="893">
-      <c r="A893" s="18"/>
+      <c r="A893" s="16"/>
       <c r="B893" s="8"/>
       <c r="D893" s="8"/>
       <c r="E893" s="8"/>
     </row>
     <row r="894">
-      <c r="A894" s="18"/>
+      <c r="A894" s="16"/>
       <c r="B894" s="8"/>
       <c r="D894" s="8"/>
       <c r="E894" s="8"/>
     </row>
     <row r="895">
-      <c r="A895" s="18"/>
+      <c r="A895" s="16"/>
       <c r="B895" s="8"/>
       <c r="D895" s="8"/>
       <c r="E895" s="8"/>
     </row>
     <row r="896">
-      <c r="A896" s="18"/>
+      <c r="A896" s="16"/>
       <c r="B896" s="8"/>
       <c r="D896" s="8"/>
       <c r="E896" s="8"/>
     </row>
     <row r="897">
-      <c r="A897" s="18"/>
+      <c r="A897" s="16"/>
       <c r="B897" s="8"/>
       <c r="D897" s="8"/>
       <c r="E897" s="8"/>
     </row>
     <row r="898">
-      <c r="A898" s="18"/>
+      <c r="A898" s="16"/>
       <c r="B898" s="8"/>
       <c r="D898" s="8"/>
       <c r="E898" s="8"/>
     </row>
     <row r="899">
-      <c r="A899" s="18"/>
+      <c r="A899" s="16"/>
       <c r="B899" s="8"/>
       <c r="D899" s="8"/>
       <c r="E899" s="8"/>
     </row>
     <row r="900">
-      <c r="A900" s="18"/>
+      <c r="A900" s="16"/>
       <c r="B900" s="8"/>
       <c r="D900" s="8"/>
       <c r="E900" s="8"/>
     </row>
     <row r="901">
-      <c r="A901" s="18"/>
+      <c r="A901" s="16"/>
       <c r="B901" s="8"/>
       <c r="D901" s="8"/>
       <c r="E901" s="8"/>
     </row>
     <row r="902">
-      <c r="A902" s="18"/>
+      <c r="A902" s="16"/>
       <c r="B902" s="8"/>
       <c r="D902" s="8"/>
       <c r="E902" s="8"/>
     </row>
     <row r="903">
-      <c r="A903" s="18"/>
+      <c r="A903" s="16"/>
       <c r="B903" s="8"/>
       <c r="D903" s="8"/>
       <c r="E903" s="8"/>
     </row>
     <row r="904">
-      <c r="A904" s="18"/>
+      <c r="A904" s="16"/>
       <c r="B904" s="8"/>
       <c r="D904" s="8"/>
       <c r="E904" s="8"/>
     </row>
     <row r="905">
-      <c r="A905" s="18"/>
+      <c r="A905" s="16"/>
       <c r="B905" s="8"/>
       <c r="D905" s="8"/>
       <c r="E905" s="8"/>
     </row>
     <row r="906">
-      <c r="A906" s="18"/>
+      <c r="A906" s="16"/>
       <c r="B906" s="8"/>
       <c r="D906" s="8"/>
       <c r="E906" s="8"/>
     </row>
     <row r="907">
-      <c r="A907" s="18"/>
+      <c r="A907" s="16"/>
       <c r="B907" s="8"/>
       <c r="D907" s="8"/>
       <c r="E907" s="8"/>
     </row>
     <row r="908">
-      <c r="A908" s="18"/>
+      <c r="A908" s="16"/>
       <c r="B908" s="8"/>
       <c r="D908" s="8"/>
       <c r="E908" s="8"/>
     </row>
     <row r="909">
-      <c r="A909" s="18"/>
+      <c r="A909" s="16"/>
       <c r="B909" s="8"/>
       <c r="D909" s="8"/>
       <c r="E909" s="8"/>
     </row>
     <row r="910">
-      <c r="A910" s="18"/>
+      <c r="A910" s="16"/>
       <c r="B910" s="8"/>
       <c r="D910" s="8"/>
       <c r="E910" s="8"/>
     </row>
     <row r="911">
-      <c r="A911" s="18"/>
+      <c r="A911" s="16"/>
       <c r="B911" s="8"/>
       <c r="D911" s="8"/>
       <c r="E911" s="8"/>
     </row>
     <row r="912">
-      <c r="A912" s="18"/>
+      <c r="A912" s="16"/>
       <c r="B912" s="8"/>
       <c r="D912" s="8"/>
       <c r="E912" s="8"/>
     </row>
     <row r="913">
-      <c r="A913" s="18"/>
+      <c r="A913" s="16"/>
       <c r="B913" s="8"/>
       <c r="D913" s="8"/>
       <c r="E913" s="8"/>
     </row>
     <row r="914">
-      <c r="A914" s="18"/>
+      <c r="A914" s="16"/>
       <c r="B914" s="8"/>
       <c r="D914" s="8"/>
       <c r="E914" s="8"/>
     </row>
     <row r="915">
-      <c r="A915" s="18"/>
+      <c r="A915" s="16"/>
       <c r="B915" s="8"/>
       <c r="D915" s="8"/>
       <c r="E915" s="8"/>
     </row>
     <row r="916">
-      <c r="A916" s="18"/>
+      <c r="A916" s="16"/>
       <c r="B916" s="8"/>
       <c r="D916" s="8"/>
       <c r="E916" s="8"/>
     </row>
     <row r="917">
-      <c r="A917" s="18"/>
+      <c r="A917" s="16"/>
       <c r="B917" s="8"/>
       <c r="D917" s="8"/>
       <c r="E917" s="8"/>
     </row>
     <row r="918">
-      <c r="A918" s="18"/>
+      <c r="A918" s="16"/>
       <c r="B918" s="8"/>
       <c r="D918" s="8"/>
       <c r="E918" s="8"/>
     </row>
     <row r="919">
-      <c r="A919" s="18"/>
+      <c r="A919" s="16"/>
       <c r="B919" s="8"/>
       <c r="D919" s="8"/>
       <c r="E919" s="8"/>
     </row>
     <row r="920">
-      <c r="A920" s="18"/>
+      <c r="A920" s="16"/>
       <c r="B920" s="8"/>
       <c r="D920" s="8"/>
       <c r="E920" s="8"/>
     </row>
     <row r="921">
-      <c r="A921" s="18"/>
+      <c r="A921" s="16"/>
       <c r="B921" s="8"/>
       <c r="D921" s="8"/>
       <c r="E921" s="8"/>
     </row>
     <row r="922">
-      <c r="A922" s="18"/>
+      <c r="A922" s="16"/>
       <c r="B922" s="8"/>
       <c r="D922" s="8"/>
       <c r="E922" s="8"/>
     </row>
     <row r="923">
-      <c r="A923" s="18"/>
+      <c r="A923" s="16"/>
       <c r="B923" s="8"/>
       <c r="D923" s="8"/>
       <c r="E923" s="8"/>
     </row>
     <row r="924">
-      <c r="A924" s="18"/>
+      <c r="A924" s="16"/>
       <c r="B924" s="8"/>
       <c r="D924" s="8"/>
       <c r="E924" s="8"/>
     </row>
     <row r="925">
-      <c r="A925" s="18"/>
+      <c r="A925" s="16"/>
       <c r="B925" s="8"/>
       <c r="D925" s="8"/>
       <c r="E925" s="8"/>
     </row>
     <row r="926">
-      <c r="A926" s="18"/>
+      <c r="A926" s="16"/>
       <c r="B926" s="8"/>
       <c r="D926" s="8"/>
       <c r="E926" s="8"/>
     </row>
     <row r="927">
-      <c r="A927" s="18"/>
+      <c r="A927" s="16"/>
       <c r="B927" s="8"/>
       <c r="D927" s="8"/>
       <c r="E927" s="8"/>
     </row>
     <row r="928">
-      <c r="A928" s="18"/>
+      <c r="A928" s="16"/>
       <c r="B928" s="8"/>
       <c r="D928" s="8"/>
       <c r="E928" s="8"/>
     </row>
     <row r="929">
-      <c r="A929" s="18"/>
+      <c r="A929" s="16"/>
       <c r="B929" s="8"/>
       <c r="D929" s="8"/>
       <c r="E929" s="8"/>
     </row>
     <row r="930">
-      <c r="A930" s="18"/>
+      <c r="A930" s="16"/>
       <c r="B930" s="8"/>
       <c r="D930" s="8"/>
       <c r="E930" s="8"/>
     </row>
     <row r="931">
-      <c r="A931" s="18"/>
+      <c r="A931" s="16"/>
       <c r="B931" s="8"/>
       <c r="D931" s="8"/>
       <c r="E931" s="8"/>
     </row>
     <row r="932">
-      <c r="A932" s="18"/>
+      <c r="A932" s="16"/>
       <c r="B932" s="8"/>
       <c r="D932" s="8"/>
       <c r="E932" s="8"/>
     </row>
     <row r="933">
-      <c r="A933" s="18"/>
+      <c r="A933" s="16"/>
       <c r="B933" s="8"/>
       <c r="D933" s="8"/>
       <c r="E933" s="8"/>
     </row>
     <row r="934">
-      <c r="A934" s="18"/>
+      <c r="A934" s="16"/>
       <c r="B934" s="8"/>
       <c r="D934" s="8"/>
       <c r="E934" s="8"/>
     </row>
     <row r="935">
-      <c r="A935" s="18"/>
+      <c r="A935" s="16"/>
       <c r="B935" s="8"/>
       <c r="D935" s="8"/>
       <c r="E935" s="8"/>
     </row>
     <row r="936">
-      <c r="A936" s="18"/>
+      <c r="A936" s="16"/>
       <c r="B936" s="8"/>
       <c r="D936" s="8"/>
       <c r="E936" s="8"/>
     </row>
     <row r="937">
-      <c r="A937" s="18"/>
+      <c r="A937" s="16"/>
       <c r="B937" s="8"/>
       <c r="D937" s="8"/>
       <c r="E937" s="8"/>
     </row>
     <row r="938">
-      <c r="A938" s="18"/>
+      <c r="A938" s="16"/>
       <c r="B938" s="8"/>
       <c r="D938" s="8"/>
       <c r="E938" s="8"/>
     </row>
     <row r="939">
-      <c r="A939" s="18"/>
+      <c r="A939" s="16"/>
       <c r="B939" s="8"/>
       <c r="D939" s="8"/>
       <c r="E939" s="8"/>
     </row>
     <row r="940">
-      <c r="A940" s="18"/>
+      <c r="A940" s="16"/>
       <c r="B940" s="8"/>
       <c r="D940" s="8"/>
       <c r="E940" s="8"/>
     </row>
     <row r="941">
-      <c r="A941" s="18"/>
+      <c r="A941" s="16"/>
       <c r="B941" s="8"/>
       <c r="D941" s="8"/>
       <c r="E941" s="8"/>
     </row>
     <row r="942">
-      <c r="A942" s="18"/>
+      <c r="A942" s="16"/>
       <c r="B942" s="8"/>
       <c r="D942" s="8"/>
       <c r="E942" s="8"/>
     </row>
     <row r="943">
-      <c r="A943" s="18"/>
+      <c r="A943" s="16"/>
       <c r="B943" s="8"/>
       <c r="D943" s="8"/>
       <c r="E943" s="8"/>
     </row>
     <row r="944">
-      <c r="A944" s="18"/>
+      <c r="A944" s="16"/>
       <c r="B944" s="8"/>
       <c r="D944" s="8"/>
       <c r="E944" s="8"/>
     </row>
     <row r="945">
-      <c r="A945" s="18"/>
+      <c r="A945" s="16"/>
       <c r="B945" s="8"/>
       <c r="D945" s="8"/>
       <c r="E945" s="8"/>
     </row>
     <row r="946">
-      <c r="A946" s="18"/>
+      <c r="A946" s="16"/>
       <c r="B946" s="8"/>
       <c r="D946" s="8"/>
       <c r="E946" s="8"/>
     </row>
     <row r="947">
-      <c r="A947" s="18"/>
+      <c r="A947" s="16"/>
       <c r="B947" s="8"/>
       <c r="D947" s="8"/>
       <c r="E947" s="8"/>
     </row>
     <row r="948">
-      <c r="A948" s="18"/>
+      <c r="A948" s="16"/>
       <c r="B948" s="8"/>
       <c r="D948" s="8"/>
       <c r="E948" s="8"/>
     </row>
     <row r="949">
-      <c r="A949" s="18"/>
+      <c r="A949" s="16"/>
       <c r="B949" s="8"/>
       <c r="D949" s="8"/>
       <c r="E949" s="8"/>
     </row>
     <row r="950">
-      <c r="A950" s="18"/>
+      <c r="A950" s="16"/>
       <c r="B950" s="8"/>
       <c r="D950" s="8"/>
       <c r="E950" s="8"/>
     </row>
     <row r="951">
-      <c r="A951" s="18"/>
+      <c r="A951" s="16"/>
       <c r="B951" s="8"/>
       <c r="D951" s="8"/>
       <c r="E951" s="8"/>
     </row>
     <row r="952">
-      <c r="A952" s="18"/>
+      <c r="A952" s="16"/>
       <c r="B952" s="8"/>
       <c r="D952" s="8"/>
       <c r="E952" s="8"/>
     </row>
     <row r="953">
-      <c r="A953" s="18"/>
+      <c r="A953" s="16"/>
       <c r="B953" s="8"/>
       <c r="D953" s="8"/>
       <c r="E953" s="8"/>
     </row>
     <row r="954">
-      <c r="A954" s="18"/>
+      <c r="A954" s="16"/>
       <c r="B954" s="8"/>
       <c r="D954" s="8"/>
       <c r="E954" s="8"/>
     </row>
     <row r="955">
-      <c r="A955" s="18"/>
+      <c r="A955" s="16"/>
       <c r="B955" s="8"/>
       <c r="D955" s="8"/>
       <c r="E955" s="8"/>
     </row>
     <row r="956">
-      <c r="A956" s="18"/>
+      <c r="A956" s="16"/>
       <c r="B956" s="8"/>
       <c r="D956" s="8"/>
       <c r="E956" s="8"/>
     </row>
     <row r="957">
-      <c r="A957" s="18"/>
+      <c r="A957" s="16"/>
       <c r="B957" s="8"/>
       <c r="D957" s="8"/>
       <c r="E957" s="8"/>
     </row>
     <row r="958">
-      <c r="A958" s="18"/>
+      <c r="A958" s="16"/>
       <c r="B958" s="8"/>
       <c r="D958" s="8"/>
       <c r="E958" s="8"/>
     </row>
     <row r="959">
-      <c r="A959" s="18"/>
+      <c r="A959" s="16"/>
       <c r="B959" s="8"/>
       <c r="D959" s="8"/>
       <c r="E959" s="8"/>
     </row>
     <row r="960">
-      <c r="A960" s="18"/>
+      <c r="A960" s="16"/>
       <c r="B960" s="8"/>
       <c r="D960" s="8"/>
       <c r="E960" s="8"/>
     </row>
     <row r="961">
-      <c r="A961" s="18"/>
+      <c r="A961" s="16"/>
       <c r="B961" s="8"/>
       <c r="D961" s="8"/>
       <c r="E961" s="8"/>
     </row>
     <row r="962">
-      <c r="A962" s="18"/>
+      <c r="A962" s="16"/>
       <c r="B962" s="8"/>
       <c r="D962" s="8"/>
       <c r="E962" s="8"/>
     </row>
     <row r="963">
-      <c r="A963" s="18"/>
+      <c r="A963" s="16"/>
       <c r="B963" s="8"/>
       <c r="D963" s="8"/>
       <c r="E963" s="8"/>
     </row>
     <row r="964">
-      <c r="A964" s="18"/>
+      <c r="A964" s="16"/>
       <c r="B964" s="8"/>
       <c r="D964" s="8"/>
       <c r="E964" s="8"/>
     </row>
     <row r="965">
-      <c r="A965" s="18"/>
+      <c r="A965" s="16"/>
       <c r="B965" s="8"/>
       <c r="D965" s="8"/>
       <c r="E965" s="8"/>
     </row>
     <row r="966">
-      <c r="A966" s="18"/>
+      <c r="A966" s="16"/>
       <c r="B966" s="8"/>
       <c r="D966" s="8"/>
       <c r="E966" s="8"/>
     </row>
     <row r="967">
-      <c r="A967" s="18"/>
+      <c r="A967" s="16"/>
       <c r="B967" s="8"/>
       <c r="D967" s="8"/>
       <c r="E967" s="8"/>
     </row>
     <row r="968">
-      <c r="A968" s="18"/>
+      <c r="A968" s="16"/>
       <c r="B968" s="8"/>
       <c r="D968" s="8"/>
       <c r="E968" s="8"/>
     </row>
     <row r="969">
-      <c r="A969" s="18"/>
+      <c r="A969" s="16"/>
       <c r="B969" s="8"/>
       <c r="D969" s="8"/>
       <c r="E969" s="8"/>
     </row>
     <row r="970">
-      <c r="A970" s="18"/>
+      <c r="A970" s="16"/>
       <c r="B970" s="8"/>
       <c r="D970" s="8"/>
       <c r="E970" s="8"/>
     </row>
     <row r="971">
-      <c r="A971" s="18"/>
+      <c r="A971" s="16"/>
       <c r="B971" s="8"/>
       <c r="D971" s="8"/>
       <c r="E971" s="8"/>
     </row>
     <row r="972">
-      <c r="A972" s="18"/>
+      <c r="A972" s="16"/>
       <c r="B972" s="8"/>
       <c r="D972" s="8"/>
       <c r="E972" s="8"/>
     </row>
     <row r="973">
-      <c r="A973" s="18"/>
+      <c r="A973" s="16"/>
       <c r="B973" s="8"/>
       <c r="D973" s="8"/>
       <c r="E973" s="8"/>
     </row>
     <row r="974">
-      <c r="A974" s="18"/>
+      <c r="A974" s="16"/>
       <c r="B974" s="8"/>
       <c r="D974" s="8"/>
       <c r="E974" s="8"/>
     </row>
     <row r="975">
-      <c r="A975" s="18"/>
+      <c r="A975" s="16"/>
       <c r="B975" s="8"/>
       <c r="D975" s="8"/>
       <c r="E975" s="8"/>
     </row>
     <row r="976">
-      <c r="A976" s="18"/>
+      <c r="A976" s="16"/>
       <c r="B976" s="8"/>
       <c r="D976" s="8"/>
       <c r="E976" s="8"/>
     </row>
     <row r="977">
-      <c r="A977" s="18"/>
+      <c r="A977" s="16"/>
       <c r="B977" s="8"/>
       <c r="D977" s="8"/>
       <c r="E977" s="8"/>
     </row>
     <row r="978">
-      <c r="A978" s="18"/>
+      <c r="A978" s="16"/>
       <c r="B978" s="8"/>
       <c r="D978" s="8"/>
       <c r="E978" s="8"/>
     </row>
     <row r="979">
-      <c r="A979" s="18"/>
+      <c r="A979" s="16"/>
       <c r="B979" s="8"/>
       <c r="D979" s="8"/>
       <c r="E979" s="8"/>
     </row>
     <row r="980">
-      <c r="A980" s="18"/>
+      <c r="A980" s="16"/>
       <c r="B980" s="8"/>
       <c r="D980" s="8"/>
       <c r="E980" s="8"/>
     </row>
     <row r="981">
-      <c r="A981" s="18"/>
+      <c r="A981" s="16"/>
       <c r="B981" s="8"/>
       <c r="D981" s="8"/>
       <c r="E981" s="8"/>
     </row>
     <row r="982">
-      <c r="A982" s="18"/>
+      <c r="A982" s="16"/>
       <c r="B982" s="8"/>
       <c r="D982" s="8"/>
       <c r="E982" s="8"/>
     </row>
     <row r="983">
-      <c r="A983" s="18"/>
+      <c r="A983" s="16"/>
       <c r="B983" s="8"/>
       <c r="D983" s="8"/>
       <c r="E983" s="8"/>
     </row>
     <row r="984">
-      <c r="A984" s="18"/>
+      <c r="A984" s="16"/>
       <c r="B984" s="8"/>
       <c r="D984" s="8"/>
       <c r="E984" s="8"/>
     </row>
     <row r="985">
-      <c r="A985" s="18"/>
+      <c r="A985" s="16"/>
       <c r="B985" s="8"/>
       <c r="D985" s="8"/>
       <c r="E985" s="8"/>
     </row>
     <row r="986">
-      <c r="A986" s="18"/>
+      <c r="A986" s="16"/>
       <c r="B986" s="8"/>
       <c r="D986" s="8"/>
       <c r="E986" s="8"/>
     </row>
     <row r="987">
-      <c r="A987" s="18"/>
+      <c r="A987" s="16"/>
       <c r="B987" s="8"/>
       <c r="D987" s="8"/>
       <c r="E987" s="8"/>
     </row>
     <row r="988">
-      <c r="A988" s="18"/>
+      <c r="A988" s="16"/>
       <c r="B988" s="8"/>
       <c r="D988" s="8"/>
       <c r="E988" s="8"/>
     </row>
     <row r="989">
-      <c r="A989" s="18"/>
+      <c r="A989" s="16"/>
       <c r="B989" s="8"/>
       <c r="D989" s="8"/>
       <c r="E989" s="8"/>
     </row>
     <row r="990">
-      <c r="A990" s="18"/>
+      <c r="A990" s="16"/>
       <c r="B990" s="8"/>
       <c r="D990" s="8"/>
       <c r="E990" s="8"/>
